--- a/data/144/SCB/NR0103ENS2010T01Kv.xlsx
+++ b/data/144/SCB/NR0103ENS2010T01Kv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <x:si>
     <x:t>GDP: expenditure approach (ESA2010) by observations, type of use and quarter</x:t>
   </x:si>
@@ -518,6 +518,9 @@
   </x:si>
   <x:si>
     <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K4</x:t>
   </x:si>
   <x:si>
     <x:t>Current prices, SEK million</x:t>
@@ -593,7 +596,7 @@
     <x:t>Current prices, SEK million:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211129 09:30</x:t>
+    <x:t>20220228 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Constant prices, reference year 2020, SEK million:</x:t>
@@ -668,7 +671,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0"/>
+    <x:numFmt numFmtId="165" formatCode="0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -722,48 +725,42 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -774,7 +771,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1057,27 +1054,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FM94"/>
+  <x:dimension ref="A1:FN94"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="169" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="170" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:169">
+    <x:row r="1" spans="1:170">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:169">
+    <x:row r="3" spans="1:170">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1579,13 +1575,16 @@
       <x:c r="FM3" s="2" t="s">
         <x:v>167</x:v>
       </x:c>
+      <x:c r="FN3" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:169">
+    <x:row r="4" spans="1:170">
       <x:c r="A4" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>142331</x:v>
@@ -2068,30 +2067,33 @@
         <x:v>1323150</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>1241961</x:v>
+        <x:v>1242160</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>1217017</x:v>
+        <x:v>1218160</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>1199106</x:v>
+        <x:v>1199312</x:v>
       </x:c>
       <x:c r="FJ4" s="3" t="n">
-        <x:v>1326720</x:v>
+        <x:v>1327632</x:v>
       </x:c>
       <x:c r="FK4" s="3" t="n">
-        <x:v>1258276</x:v>
+        <x:v>1261154</x:v>
       </x:c>
       <x:c r="FL4" s="3" t="n">
-        <x:v>1363105</x:v>
+        <x:v>1362096</x:v>
       </x:c>
       <x:c r="FM4" s="3" t="n">
-        <x:v>1301619</x:v>
+        <x:v>1297413</x:v>
+      </x:c>
+      <x:c r="FN4" s="3" t="n">
+        <x:v>1460600</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:169">
+    <x:row r="5" spans="1:170">
       <x:c r="B5" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>42812</x:v>
@@ -2574,30 +2576,33 @@
         <x:v>573058</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>525139</x:v>
+        <x:v>524767</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
-        <x:v>457524</x:v>
+        <x:v>457511</x:v>
       </x:c>
       <x:c r="FI5" s="3" t="n">
-        <x:v>472843</x:v>
+        <x:v>472927</x:v>
       </x:c>
       <x:c r="FJ5" s="3" t="n">
-        <x:v>537252</x:v>
+        <x:v>536922</x:v>
       </x:c>
       <x:c r="FK5" s="3" t="n">
-        <x:v>509234</x:v>
+        <x:v>509462</x:v>
       </x:c>
       <x:c r="FL5" s="3" t="n">
-        <x:v>544395</x:v>
+        <x:v>544878</x:v>
       </x:c>
       <x:c r="FM5" s="3" t="n">
-        <x:v>557874</x:v>
+        <x:v>558098</x:v>
+      </x:c>
+      <x:c r="FN5" s="3" t="n">
+        <x:v>642583</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:169">
+    <x:row r="6" spans="1:170">
       <x:c r="B6" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>36242</x:v>
@@ -3080,30 +3085,33 @@
         <x:v>387380</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>353893</x:v>
+        <x:v>353857</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>310830</x:v>
+        <x:v>310798</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>324586</x:v>
+        <x:v>324472</x:v>
       </x:c>
       <x:c r="FJ6" s="3" t="n">
-        <x:v>367333</x:v>
+        <x:v>367194</x:v>
       </x:c>
       <x:c r="FK6" s="3" t="n">
-        <x:v>363185</x:v>
+        <x:v>362705</x:v>
       </x:c>
       <x:c r="FL6" s="3" t="n">
-        <x:v>386392</x:v>
+        <x:v>386386</x:v>
       </x:c>
       <x:c r="FM6" s="3" t="n">
-        <x:v>380203</x:v>
+        <x:v>380617</x:v>
+      </x:c>
+      <x:c r="FN6" s="3" t="n">
+        <x:v>443724</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:169">
+    <x:row r="7" spans="1:170">
       <x:c r="B7" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>6570</x:v>
@@ -3586,30 +3594,33 @@
         <x:v>185678</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
-        <x:v>171246</x:v>
+        <x:v>170910</x:v>
       </x:c>
       <x:c r="FH7" s="3" t="n">
-        <x:v>146694</x:v>
+        <x:v>146713</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>148257</x:v>
+        <x:v>148455</x:v>
       </x:c>
       <x:c r="FJ7" s="3" t="n">
-        <x:v>169919</x:v>
+        <x:v>169728</x:v>
       </x:c>
       <x:c r="FK7" s="3" t="n">
-        <x:v>146049</x:v>
+        <x:v>146757</x:v>
       </x:c>
       <x:c r="FL7" s="3" t="n">
-        <x:v>158003</x:v>
+        <x:v>158492</x:v>
       </x:c>
       <x:c r="FM7" s="3" t="n">
-        <x:v>177671</x:v>
+        <x:v>177481</x:v>
+      </x:c>
+      <x:c r="FN7" s="3" t="n">
+        <x:v>198859</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:169">
+    <x:row r="8" spans="1:170">
       <x:c r="B8" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>109071</x:v>
@@ -4092,30 +4103,33 @@
         <x:v>936189</x:v>
       </x:c>
       <x:c r="FG8" s="3" t="n">
-        <x:v>860035</x:v>
+        <x:v>860209</x:v>
       </x:c>
       <x:c r="FH8" s="3" t="n">
-        <x:v>860226</x:v>
+        <x:v>860214</x:v>
       </x:c>
       <x:c r="FI8" s="3" t="n">
-        <x:v>871470</x:v>
+        <x:v>871451</x:v>
       </x:c>
       <x:c r="FJ8" s="3" t="n">
-        <x:v>928826</x:v>
+        <x:v>928823</x:v>
       </x:c>
       <x:c r="FK8" s="3" t="n">
-        <x:v>875091</x:v>
+        <x:v>873328</x:v>
       </x:c>
       <x:c r="FL8" s="3" t="n">
-        <x:v>943616</x:v>
+        <x:v>942543</x:v>
       </x:c>
       <x:c r="FM8" s="3" t="n">
-        <x:v>940230</x:v>
+        <x:v>940507</x:v>
+      </x:c>
+      <x:c r="FN8" s="3" t="n">
+        <x:v>1012415</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:169">
+    <x:row r="9" spans="1:170">
       <x:c r="B9" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>71017</x:v>
@@ -4598,30 +4612,33 @@
         <x:v>585426</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>541604</x:v>
+        <x:v>541778</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
-        <x:v>532638</x:v>
+        <x:v>532626</x:v>
       </x:c>
       <x:c r="FI9" s="3" t="n">
-        <x:v>547786</x:v>
+        <x:v>547767</x:v>
       </x:c>
       <x:c r="FJ9" s="3" t="n">
-        <x:v>565331</x:v>
+        <x:v>565328</x:v>
       </x:c>
       <x:c r="FK9" s="3" t="n">
-        <x:v>542985</x:v>
+        <x:v>542406</x:v>
       </x:c>
       <x:c r="FL9" s="3" t="n">
-        <x:v>590181</x:v>
+        <x:v>591170</x:v>
       </x:c>
       <x:c r="FM9" s="3" t="n">
-        <x:v>593646</x:v>
+        <x:v>595491</x:v>
+      </x:c>
+      <x:c r="FN9" s="3" t="n">
+        <x:v>628270</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:169">
+    <x:row r="10" spans="1:170">
       <x:c r="B10" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>38054</x:v>
@@ -5116,18 +5133,21 @@
         <x:v>363495</x:v>
       </x:c>
       <x:c r="FK10" s="3" t="n">
-        <x:v>332106</x:v>
+        <x:v>330922</x:v>
       </x:c>
       <x:c r="FL10" s="3" t="n">
-        <x:v>353435</x:v>
+        <x:v>351373</x:v>
       </x:c>
       <x:c r="FM10" s="3" t="n">
-        <x:v>346584</x:v>
+        <x:v>345016</x:v>
+      </x:c>
+      <x:c r="FN10" s="3" t="n">
+        <x:v>384145</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:169">
+    <x:row r="11" spans="1:170">
       <x:c r="B11" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>13186</x:v>
@@ -5622,18 +5642,21 @@
         <x:v>96885</x:v>
       </x:c>
       <x:c r="FK11" s="3" t="n">
-        <x:v>83557</x:v>
+        <x:v>83271</x:v>
       </x:c>
       <x:c r="FL11" s="3" t="n">
-        <x:v>92145</x:v>
+        <x:v>91466</x:v>
       </x:c>
       <x:c r="FM11" s="3" t="n">
-        <x:v>87591</x:v>
+        <x:v>87130</x:v>
+      </x:c>
+      <x:c r="FN11" s="3" t="n">
+        <x:v>105274</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:169">
+    <x:row r="12" spans="1:170">
       <x:c r="B12" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>24868</x:v>
@@ -6128,18 +6151,21 @@
         <x:v>266610</x:v>
       </x:c>
       <x:c r="FK12" s="3" t="n">
-        <x:v>248549</x:v>
+        <x:v>247651</x:v>
       </x:c>
       <x:c r="FL12" s="3" t="n">
-        <x:v>261290</x:v>
+        <x:v>259907</x:v>
       </x:c>
       <x:c r="FM12" s="3" t="n">
-        <x:v>258993</x:v>
+        <x:v>257886</x:v>
+      </x:c>
+      <x:c r="FN12" s="3" t="n">
+        <x:v>278871</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:169">
+    <x:row r="13" spans="1:170">
       <x:c r="B13" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>31819</x:v>
@@ -6634,18 +6660,21 @@
         <x:v>340264</x:v>
       </x:c>
       <x:c r="FK13" s="3" t="n">
-        <x:v>296154</x:v>
+        <x:v>301483</x:v>
       </x:c>
       <x:c r="FL13" s="3" t="n">
-        <x:v>354413</x:v>
+        <x:v>355432</x:v>
       </x:c>
       <x:c r="FM13" s="3" t="n">
-        <x:v>324233</x:v>
+        <x:v>319567</x:v>
+      </x:c>
+      <x:c r="FN13" s="3" t="n">
+        <x:v>381761</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:169">
+    <x:row r="14" spans="1:170">
       <x:c r="B14" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>25670</x:v>
@@ -7140,18 +7169,21 @@
         <x:v>261095</x:v>
       </x:c>
       <x:c r="FK14" s="3" t="n">
-        <x:v>246285</x:v>
+        <x:v>252489</x:v>
       </x:c>
       <x:c r="FL14" s="3" t="n">
-        <x:v>294736</x:v>
+        <x:v>296221</x:v>
       </x:c>
       <x:c r="FM14" s="3" t="n">
-        <x:v>267016</x:v>
+        <x:v>263176</x:v>
+      </x:c>
+      <x:c r="FN14" s="3" t="n">
+        <x:v>298391</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:169">
+    <x:row r="15" spans="1:170">
       <x:c r="B15" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>3255</x:v>
@@ -7649,15 +7681,18 @@
         <x:v>27235</x:v>
       </x:c>
       <x:c r="FL15" s="3" t="n">
-        <x:v>31315</x:v>
+        <x:v>31364</x:v>
       </x:c>
       <x:c r="FM15" s="3" t="n">
-        <x:v>30679</x:v>
+        <x:v>30500</x:v>
+      </x:c>
+      <x:c r="FN15" s="3" t="n">
+        <x:v>43043</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:169">
+    <x:row r="16" spans="1:170">
       <x:c r="B16" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>2741</x:v>
@@ -8152,18 +8187,21 @@
         <x:v>38948</x:v>
       </x:c>
       <x:c r="FK16" s="3" t="n">
-        <x:v>21186</x:v>
+        <x:v>20311</x:v>
       </x:c>
       <x:c r="FL16" s="3" t="n">
-        <x:v>27139</x:v>
+        <x:v>26619</x:v>
       </x:c>
       <x:c r="FM16" s="3" t="n">
-        <x:v>25282</x:v>
+        <x:v>24632</x:v>
+      </x:c>
+      <x:c r="FN16" s="3" t="n">
+        <x:v>38519</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:169">
+    <x:row r="17" spans="1:170">
       <x:c r="B17" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>41776</x:v>
@@ -8646,30 +8684,33 @@
         <x:v>620419</x:v>
       </x:c>
       <x:c r="FG17" s="3" t="n">
-        <x:v>594653</x:v>
+        <x:v>594352</x:v>
       </x:c>
       <x:c r="FH17" s="3" t="n">
-        <x:v>499004</x:v>
+        <x:v>500052</x:v>
       </x:c>
       <x:c r="FI17" s="3" t="n">
-        <x:v>518646</x:v>
+        <x:v>518618</x:v>
       </x:c>
       <x:c r="FJ17" s="3" t="n">
-        <x:v>608760</x:v>
+        <x:v>610283</x:v>
       </x:c>
       <x:c r="FK17" s="3" t="n">
-        <x:v>577894</x:v>
+        <x:v>578010</x:v>
       </x:c>
       <x:c r="FL17" s="3" t="n">
-        <x:v>615850</x:v>
+        <x:v>614833</x:v>
       </x:c>
       <x:c r="FM17" s="3" t="n">
-        <x:v>597221</x:v>
+        <x:v>595127</x:v>
+      </x:c>
+      <x:c r="FN17" s="3" t="n">
+        <x:v>701239</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:169">
+    <x:row r="18" spans="1:170">
       <x:c r="B18" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>35384</x:v>
@@ -9152,30 +9193,33 @@
         <x:v>431298</x:v>
       </x:c>
       <x:c r="FG18" s="3" t="n">
-        <x:v>432188</x:v>
+        <x:v>432181</x:v>
       </x:c>
       <x:c r="FH18" s="3" t="n">
-        <x:v>358028</x:v>
+        <x:v>358025</x:v>
       </x:c>
       <x:c r="FI18" s="3" t="n">
-        <x:v>374138</x:v>
+        <x:v>374129</x:v>
       </x:c>
       <x:c r="FJ18" s="3" t="n">
-        <x:v>427478</x:v>
+        <x:v>427474</x:v>
       </x:c>
       <x:c r="FK18" s="3" t="n">
-        <x:v>428099</x:v>
+        <x:v>429622</x:v>
       </x:c>
       <x:c r="FL18" s="3" t="n">
-        <x:v>455918</x:v>
+        <x:v>456706</x:v>
       </x:c>
       <x:c r="FM18" s="3" t="n">
-        <x:v>428734</x:v>
+        <x:v>427936</x:v>
+      </x:c>
+      <x:c r="FN18" s="3" t="n">
+        <x:v>501450</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:169">
+    <x:row r="19" spans="1:170">
       <x:c r="B19" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>6392</x:v>
@@ -9658,3081 +9702,3102 @@
         <x:v>189121</x:v>
       </x:c>
       <x:c r="FG19" s="3" t="n">
-        <x:v>162465</x:v>
+        <x:v>162171</x:v>
       </x:c>
       <x:c r="FH19" s="3" t="n">
-        <x:v>140976</x:v>
+        <x:v>142027</x:v>
       </x:c>
       <x:c r="FI19" s="3" t="n">
-        <x:v>144508</x:v>
+        <x:v>144489</x:v>
       </x:c>
       <x:c r="FJ19" s="3" t="n">
-        <x:v>181282</x:v>
+        <x:v>182809</x:v>
       </x:c>
       <x:c r="FK19" s="3" t="n">
-        <x:v>149795</x:v>
+        <x:v>148388</x:v>
       </x:c>
       <x:c r="FL19" s="3" t="n">
-        <x:v>159932</x:v>
+        <x:v>158127</x:v>
       </x:c>
       <x:c r="FM19" s="3" t="n">
-        <x:v>168487</x:v>
+        <x:v>167191</x:v>
+      </x:c>
+      <x:c r="FN19" s="3" t="n">
+        <x:v>199789</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:169">
+    <x:row r="20" spans="1:170">
       <x:c r="A20" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D20" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E20" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F20" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G20" s="3" t="n">
-        <x:v>547304</x:v>
+        <x:v>547552</x:v>
       </x:c>
       <x:c r="H20" s="3" t="n">
-        <x:v>562434</x:v>
+        <x:v>562689</x:v>
       </x:c>
       <x:c r="I20" s="3" t="n">
-        <x:v>512880</x:v>
+        <x:v>513112</x:v>
       </x:c>
       <x:c r="J20" s="3" t="n">
-        <x:v>585025</x:v>
+        <x:v>585292</x:v>
       </x:c>
       <x:c r="K20" s="3" t="n">
-        <x:v>559981</x:v>
+        <x:v>560235</x:v>
       </x:c>
       <x:c r="L20" s="3" t="n">
-        <x:v>573876</x:v>
+        <x:v>574136</x:v>
       </x:c>
       <x:c r="M20" s="3" t="n">
-        <x:v>510808</x:v>
+        <x:v>511039</x:v>
       </x:c>
       <x:c r="N20" s="3" t="n">
-        <x:v>593810</x:v>
+        <x:v>594081</x:v>
       </x:c>
       <x:c r="O20" s="3" t="n">
-        <x:v>565299</x:v>
+        <x:v>565556</x:v>
       </x:c>
       <x:c r="P20" s="3" t="n">
-        <x:v>578699</x:v>
+        <x:v>578962</x:v>
       </x:c>
       <x:c r="Q20" s="3" t="n">
-        <x:v>526234</x:v>
+        <x:v>526473</x:v>
       </x:c>
       <x:c r="R20" s="3" t="n">
-        <x:v>614314</x:v>
+        <x:v>614592</x:v>
       </x:c>
       <x:c r="S20" s="3" t="n">
-        <x:v>606201</x:v>
+        <x:v>606476</x:v>
       </x:c>
       <x:c r="T20" s="3" t="n">
-        <x:v>605453</x:v>
+        <x:v>605727</x:v>
       </x:c>
       <x:c r="U20" s="3" t="n">
-        <x:v>542753</x:v>
+        <x:v>542999</x:v>
       </x:c>
       <x:c r="V20" s="3" t="n">
-        <x:v>629458</x:v>
+        <x:v>629745</x:v>
       </x:c>
       <x:c r="W20" s="3" t="n">
-        <x:v>602845</x:v>
+        <x:v>603119</x:v>
       </x:c>
       <x:c r="X20" s="3" t="n">
-        <x:v>620988</x:v>
+        <x:v>621270</x:v>
       </x:c>
       <x:c r="Y20" s="3" t="n">
-        <x:v>567138</x:v>
+        <x:v>567395</x:v>
       </x:c>
       <x:c r="Z20" s="3" t="n">
-        <x:v>648352</x:v>
+        <x:v>648646</x:v>
       </x:c>
       <x:c r="AA20" s="3" t="n">
-        <x:v>630775</x:v>
+        <x:v>631062</x:v>
       </x:c>
       <x:c r="AB20" s="3" t="n">
-        <x:v>641367</x:v>
+        <x:v>641658</x:v>
       </x:c>
       <x:c r="AC20" s="3" t="n">
-        <x:v>579597</x:v>
+        <x:v>579860</x:v>
       </x:c>
       <x:c r="AD20" s="3" t="n">
-        <x:v>660059</x:v>
+        <x:v>660358</x:v>
       </x:c>
       <x:c r="AE20" s="3" t="n">
-        <x:v>646279</x:v>
+        <x:v>646573</x:v>
       </x:c>
       <x:c r="AF20" s="3" t="n">
-        <x:v>658785</x:v>
+        <x:v>659084</x:v>
       </x:c>
       <x:c r="AG20" s="3" t="n">
-        <x:v>602708</x:v>
+        <x:v>602982</x:v>
       </x:c>
       <x:c r="AH20" s="3" t="n">
-        <x:v>686976</x:v>
+        <x:v>687286</x:v>
       </x:c>
       <x:c r="AI20" s="3" t="n">
-        <x:v>674758</x:v>
+        <x:v>675064</x:v>
       </x:c>
       <x:c r="AJ20" s="3" t="n">
-        <x:v>677838</x:v>
+        <x:v>678146</x:v>
       </x:c>
       <x:c r="AK20" s="3" t="n">
-        <x:v>608772</x:v>
+        <x:v>609049</x:v>
       </x:c>
       <x:c r="AL20" s="3" t="n">
-        <x:v>697407</x:v>
+        <x:v>697722</x:v>
       </x:c>
       <x:c r="AM20" s="3" t="n">
-        <x:v>688339</x:v>
+        <x:v>688651</x:v>
       </x:c>
       <x:c r="AN20" s="3" t="n">
-        <x:v>699293</x:v>
+        <x:v>699610</x:v>
       </x:c>
       <x:c r="AO20" s="3" t="n">
-        <x:v>627541</x:v>
+        <x:v>627826</x:v>
       </x:c>
       <x:c r="AP20" s="3" t="n">
-        <x:v>714268</x:v>
+        <x:v>714592</x:v>
       </x:c>
       <x:c r="AQ20" s="3" t="n">
-        <x:v>697351</x:v>
+        <x:v>697668</x:v>
       </x:c>
       <x:c r="AR20" s="3" t="n">
-        <x:v>707670</x:v>
+        <x:v>707991</x:v>
       </x:c>
       <x:c r="AS20" s="3" t="n">
-        <x:v>629487</x:v>
+        <x:v>629773</x:v>
       </x:c>
       <x:c r="AT20" s="3" t="n">
-        <x:v>715421</x:v>
+        <x:v>715744</x:v>
       </x:c>
       <x:c r="AU20" s="3" t="n">
-        <x:v>691587</x:v>
+        <x:v>691900</x:v>
       </x:c>
       <x:c r="AV20" s="3" t="n">
-        <x:v>692357</x:v>
+        <x:v>692671</x:v>
       </x:c>
       <x:c r="AW20" s="3" t="n">
-        <x:v>628468</x:v>
+        <x:v>628753</x:v>
       </x:c>
       <x:c r="AX20" s="3" t="n">
-        <x:v>707188</x:v>
+        <x:v>707509</x:v>
       </x:c>
       <x:c r="AY20" s="3" t="n">
-        <x:v>696300</x:v>
+        <x:v>696616</x:v>
       </x:c>
       <x:c r="AZ20" s="3" t="n">
-        <x:v>686608</x:v>
+        <x:v>686919</x:v>
       </x:c>
       <x:c r="BA20" s="3" t="n">
-        <x:v>632832</x:v>
+        <x:v>633119</x:v>
       </x:c>
       <x:c r="BB20" s="3" t="n">
-        <x:v>678419</x:v>
+        <x:v>678727</x:v>
       </x:c>
       <x:c r="BC20" s="3" t="n">
-        <x:v>651901</x:v>
+        <x:v>652197</x:v>
       </x:c>
       <x:c r="BD20" s="3" t="n">
-        <x:v>673320</x:v>
+        <x:v>673626</x:v>
       </x:c>
       <x:c r="BE20" s="3" t="n">
-        <x:v>614626</x:v>
+        <x:v>614906</x:v>
       </x:c>
       <x:c r="BF20" s="3" t="n">
-        <x:v>705047</x:v>
+        <x:v>705365</x:v>
       </x:c>
       <x:c r="BG20" s="3" t="n">
-        <x:v>679124</x:v>
+        <x:v>679432</x:v>
       </x:c>
       <x:c r="BH20" s="3" t="n">
-        <x:v>695810</x:v>
+        <x:v>696126</x:v>
       </x:c>
       <x:c r="BI20" s="3" t="n">
-        <x:v>633159</x:v>
+        <x:v>633447</x:v>
       </x:c>
       <x:c r="BJ20" s="3" t="n">
-        <x:v>740744</x:v>
+        <x:v>741079</x:v>
       </x:c>
       <x:c r="BK20" s="3" t="n">
-        <x:v>717161</x:v>
+        <x:v>717487</x:v>
       </x:c>
       <x:c r="BL20" s="3" t="n">
-        <x:v>723684</x:v>
+        <x:v>724012</x:v>
       </x:c>
       <x:c r="BM20" s="3" t="n">
-        <x:v>653508</x:v>
+        <x:v>653804</x:v>
       </x:c>
       <x:c r="BN20" s="3" t="n">
-        <x:v>762657</x:v>
+        <x:v>763003</x:v>
       </x:c>
       <x:c r="BO20" s="3" t="n">
-        <x:v>736104</x:v>
+        <x:v>736438</x:v>
       </x:c>
       <x:c r="BP20" s="3" t="n">
-        <x:v>734096</x:v>
+        <x:v>734429</x:v>
       </x:c>
       <x:c r="BQ20" s="3" t="n">
-        <x:v>664564</x:v>
+        <x:v>664865</x:v>
       </x:c>
       <x:c r="BR20" s="3" t="n">
-        <x:v>767372</x:v>
+        <x:v>767720</x:v>
       </x:c>
       <x:c r="BS20" s="3" t="n">
-        <x:v>731041</x:v>
+        <x:v>731373</x:v>
       </x:c>
       <x:c r="BT20" s="3" t="n">
-        <x:v>766028</x:v>
+        <x:v>766375</x:v>
       </x:c>
       <x:c r="BU20" s="3" t="n">
-        <x:v>688679</x:v>
+        <x:v>688991</x:v>
       </x:c>
       <x:c r="BV20" s="3" t="n">
-        <x:v>805499</x:v>
+        <x:v>805865</x:v>
       </x:c>
       <x:c r="BW20" s="3" t="n">
-        <x:v>768483</x:v>
+        <x:v>768832</x:v>
       </x:c>
       <x:c r="BX20" s="3" t="n">
-        <x:v>795462</x:v>
+        <x:v>795823</x:v>
       </x:c>
       <x:c r="BY20" s="3" t="n">
-        <x:v>719761</x:v>
+        <x:v>720088</x:v>
       </x:c>
       <x:c r="BZ20" s="3" t="n">
-        <x:v>836519</x:v>
+        <x:v>836897</x:v>
       </x:c>
       <x:c r="CA20" s="3" t="n">
-        <x:v>799566</x:v>
+        <x:v>799929</x:v>
       </x:c>
       <x:c r="CB20" s="3" t="n">
-        <x:v>828164</x:v>
+        <x:v>828540</x:v>
       </x:c>
       <x:c r="CC20" s="3" t="n">
-        <x:v>748675</x:v>
+        <x:v>749015</x:v>
       </x:c>
       <x:c r="CD20" s="3" t="n">
-        <x:v>876342</x:v>
+        <x:v>876738</x:v>
       </x:c>
       <x:c r="CE20" s="3" t="n">
-        <x:v>837109</x:v>
+        <x:v>837489</x:v>
       </x:c>
       <x:c r="CF20" s="3" t="n">
-        <x:v>874172</x:v>
+        <x:v>874568</x:v>
       </x:c>
       <x:c r="CG20" s="3" t="n">
-        <x:v>792743</x:v>
+        <x:v>793102</x:v>
       </x:c>
       <x:c r="CH20" s="3" t="n">
-        <x:v>903761</x:v>
+        <x:v>904171</x:v>
       </x:c>
       <x:c r="CI20" s="3" t="n">
-        <x:v>864634</x:v>
+        <x:v>865026</x:v>
       </x:c>
       <x:c r="CJ20" s="3" t="n">
-        <x:v>881208</x:v>
+        <x:v>881608</x:v>
       </x:c>
       <x:c r="CK20" s="3" t="n">
-        <x:v>798143</x:v>
+        <x:v>798505</x:v>
       </x:c>
       <x:c r="CL20" s="3" t="n">
-        <x:v>913196</x:v>
+        <x:v>913609</x:v>
       </x:c>
       <x:c r="CM20" s="3" t="n">
-        <x:v>867101</x:v>
+        <x:v>867494</x:v>
       </x:c>
       <x:c r="CN20" s="3" t="n">
-        <x:v>908152</x:v>
+        <x:v>908563</x:v>
       </x:c>
       <x:c r="CO20" s="3" t="n">
-        <x:v>826149</x:v>
+        <x:v>826524</x:v>
       </x:c>
       <x:c r="CP20" s="3" t="n">
-        <x:v>931731</x:v>
+        <x:v>932153</x:v>
       </x:c>
       <x:c r="CQ20" s="3" t="n">
-        <x:v>898572</x:v>
+        <x:v>898980</x:v>
       </x:c>
       <x:c r="CR20" s="3" t="n">
-        <x:v>915393</x:v>
+        <x:v>915808</x:v>
       </x:c>
       <x:c r="CS20" s="3" t="n">
-        <x:v>845377</x:v>
+        <x:v>845760</x:v>
       </x:c>
       <x:c r="CT20" s="3" t="n">
-        <x:v>955400</x:v>
+        <x:v>955832</x:v>
       </x:c>
       <x:c r="CU20" s="3" t="n">
-        <x:v>932724</x:v>
+        <x:v>933146</x:v>
       </x:c>
       <x:c r="CV20" s="3" t="n">
-        <x:v>960265</x:v>
+        <x:v>960700</x:v>
       </x:c>
       <x:c r="CW20" s="3" t="n">
-        <x:v>877914</x:v>
+        <x:v>878312</x:v>
       </x:c>
       <x:c r="CX20" s="3" t="n">
-        <x:v>1000605</x:v>
+        <x:v>1001059</x:v>
       </x:c>
       <x:c r="CY20" s="3" t="n">
-        <x:v>946248</x:v>
+        <x:v>946677</x:v>
       </x:c>
       <x:c r="CZ20" s="3" t="n">
-        <x:v>996285</x:v>
+        <x:v>996737</x:v>
       </x:c>
       <x:c r="DA20" s="3" t="n">
-        <x:v>906703</x:v>
+        <x:v>907114</x:v>
       </x:c>
       <x:c r="DB20" s="3" t="n">
-        <x:v>1030092</x:v>
+        <x:v>1030558</x:v>
       </x:c>
       <x:c r="DC20" s="3" t="n">
-        <x:v>996418</x:v>
+        <x:v>996870</x:v>
       </x:c>
       <x:c r="DD20" s="3" t="n">
-        <x:v>1035093</x:v>
+        <x:v>1035562</x:v>
       </x:c>
       <x:c r="DE20" s="3" t="n">
-        <x:v>950204</x:v>
+        <x:v>950635</x:v>
       </x:c>
       <x:c r="DF20" s="3" t="n">
-        <x:v>1078497</x:v>
+        <x:v>1078985</x:v>
       </x:c>
       <x:c r="DG20" s="3" t="n">
-        <x:v>1039804</x:v>
+        <x:v>1040276</x:v>
       </x:c>
       <x:c r="DH20" s="3" t="n">
-        <x:v>1070623</x:v>
+        <x:v>1071109</x:v>
       </x:c>
       <x:c r="DI20" s="3" t="n">
-        <x:v>978363</x:v>
+        <x:v>978806</x:v>
       </x:c>
       <x:c r="DJ20" s="3" t="n">
-        <x:v>1111062</x:v>
+        <x:v>1111564</x:v>
       </x:c>
       <x:c r="DK20" s="3" t="n">
-        <x:v>1046886</x:v>
+        <x:v>1047360</x:v>
       </x:c>
       <x:c r="DL20" s="3" t="n">
-        <x:v>1097900</x:v>
+        <x:v>1098397</x:v>
       </x:c>
       <x:c r="DM20" s="3" t="n">
-        <x:v>980564</x:v>
+        <x:v>981009</x:v>
       </x:c>
       <x:c r="DN20" s="3" t="n">
-        <x:v>1055579</x:v>
+        <x:v>1056057</x:v>
       </x:c>
       <x:c r="DO20" s="3" t="n">
-        <x:v>989046</x:v>
+        <x:v>989494</x:v>
       </x:c>
       <x:c r="DP20" s="3" t="n">
-        <x:v>1031672</x:v>
+        <x:v>1032139</x:v>
       </x:c>
       <x:c r="DQ20" s="3" t="n">
-        <x:v>932892</x:v>
+        <x:v>933315</x:v>
       </x:c>
       <x:c r="DR20" s="3" t="n">
-        <x:v>1045875</x:v>
+        <x:v>1046349</x:v>
       </x:c>
       <x:c r="DS20" s="3" t="n">
-        <x:v>1020131</x:v>
+        <x:v>1020594</x:v>
       </x:c>
       <x:c r="DT20" s="3" t="n">
-        <x:v>1091886</x:v>
+        <x:v>1092381</x:v>
       </x:c>
       <x:c r="DU20" s="3" t="n">
-        <x:v>996189</x:v>
+        <x:v>996641</x:v>
       </x:c>
       <x:c r="DV20" s="3" t="n">
-        <x:v>1129333</x:v>
+        <x:v>1129843</x:v>
       </x:c>
       <x:c r="DW20" s="3" t="n">
-        <x:v>1078983</x:v>
+        <x:v>1079472</x:v>
       </x:c>
       <x:c r="DX20" s="3" t="n">
-        <x:v>1126201</x:v>
+        <x:v>1126711</x:v>
       </x:c>
       <x:c r="DY20" s="3" t="n">
-        <x:v>1033937</x:v>
+        <x:v>1034406</x:v>
       </x:c>
       <x:c r="DZ20" s="3" t="n">
-        <x:v>1133822</x:v>
+        <x:v>1134335</x:v>
       </x:c>
       <x:c r="EA20" s="3" t="n">
-        <x:v>1087978</x:v>
+        <x:v>1088471</x:v>
       </x:c>
       <x:c r="EB20" s="3" t="n">
-        <x:v>1124350</x:v>
+        <x:v>1124859</x:v>
       </x:c>
       <x:c r="EC20" s="3" t="n">
-        <x:v>1016953</x:v>
+        <x:v>1017414</x:v>
       </x:c>
       <x:c r="ED20" s="3" t="n">
-        <x:v>1117936</x:v>
+        <x:v>1118443</x:v>
       </x:c>
       <x:c r="EE20" s="3" t="n">
-        <x:v>1086523</x:v>
+        <x:v>1087015</x:v>
       </x:c>
       <x:c r="EF20" s="3" t="n">
-        <x:v>1135052</x:v>
+        <x:v>1135566</x:v>
       </x:c>
       <x:c r="EG20" s="3" t="n">
-        <x:v>1030331</x:v>
+        <x:v>1030798</x:v>
       </x:c>
       <x:c r="EH20" s="3" t="n">
-        <x:v>1146946</x:v>
+        <x:v>1147466</x:v>
       </x:c>
       <x:c r="EI20" s="3" t="n">
-        <x:v>1106351</x:v>
+        <x:v>1106852</x:v>
       </x:c>
       <x:c r="EJ20" s="3" t="n">
-        <x:v>1162418</x:v>
+        <x:v>1162944</x:v>
       </x:c>
       <x:c r="EK20" s="3" t="n">
-        <x:v>1061163</x:v>
+        <x:v>1061644</x:v>
       </x:c>
       <x:c r="EL20" s="3" t="n">
-        <x:v>1185833</x:v>
+        <x:v>1186371</x:v>
       </x:c>
       <x:c r="EM20" s="3" t="n">
-        <x:v>1146398</x:v>
+        <x:v>1146917</x:v>
       </x:c>
       <x:c r="EN20" s="3" t="n">
-        <x:v>1213941</x:v>
+        <x:v>1214491</x:v>
       </x:c>
       <x:c r="EO20" s="3" t="n">
-        <x:v>1109186</x:v>
+        <x:v>1109688</x:v>
       </x:c>
       <x:c r="EP20" s="3" t="n">
-        <x:v>1248966</x:v>
+        <x:v>1249532</x:v>
       </x:c>
       <x:c r="EQ20" s="3" t="n">
-        <x:v>1175143</x:v>
+        <x:v>1175676</x:v>
       </x:c>
       <x:c r="ER20" s="3" t="n">
-        <x:v>1251158</x:v>
+        <x:v>1251725</x:v>
       </x:c>
       <x:c r="ES20" s="3" t="n">
-        <x:v>1118849</x:v>
+        <x:v>1119356</x:v>
       </x:c>
       <x:c r="ET20" s="3" t="n">
-        <x:v>1271042</x:v>
+        <x:v>1271616</x:v>
       </x:c>
       <x:c r="EU20" s="3" t="n">
-        <x:v>1209411</x:v>
+        <x:v>1209959</x:v>
       </x:c>
       <x:c r="EV20" s="3" t="n">
-        <x:v>1272882</x:v>
+        <x:v>1273458</x:v>
       </x:c>
       <x:c r="EW20" s="3" t="n">
-        <x:v>1153134</x:v>
+        <x:v>1153657</x:v>
       </x:c>
       <x:c r="EX20" s="3" t="n">
-        <x:v>1304442</x:v>
+        <x:v>1305032</x:v>
       </x:c>
       <x:c r="EY20" s="3" t="n">
-        <x:v>1237154</x:v>
+        <x:v>1237714</x:v>
       </x:c>
       <x:c r="EZ20" s="3" t="n">
-        <x:v>1311244</x:v>
+        <x:v>1311838</x:v>
       </x:c>
       <x:c r="FA20" s="3" t="n">
-        <x:v>1160760</x:v>
+        <x:v>1161286</x:v>
       </x:c>
       <x:c r="FB20" s="3" t="n">
-        <x:v>1327039</x:v>
+        <x:v>1327640</x:v>
       </x:c>
       <x:c r="FC20" s="3" t="n">
-        <x:v>1266718</x:v>
+        <x:v>1267292</x:v>
       </x:c>
       <x:c r="FD20" s="3" t="n">
-        <x:v>1327832</x:v>
+        <x:v>1328433</x:v>
       </x:c>
       <x:c r="FE20" s="3" t="n">
-        <x:v>1195487</x:v>
+        <x:v>1196028</x:v>
       </x:c>
       <x:c r="FF20" s="3" t="n">
-        <x:v>1346189</x:v>
+        <x:v>1346799</x:v>
       </x:c>
       <x:c r="FG20" s="3" t="n">
-        <x:v>1267595</x:v>
+        <x:v>1268077</x:v>
       </x:c>
       <x:c r="FH20" s="3" t="n">
-        <x:v>1222004</x:v>
+        <x:v>1222448</x:v>
       </x:c>
       <x:c r="FI20" s="3" t="n">
-        <x:v>1171159</x:v>
+        <x:v>1171444</x:v>
       </x:c>
       <x:c r="FJ20" s="3" t="n">
-        <x:v>1324046</x:v>
+        <x:v>1325295</x:v>
       </x:c>
       <x:c r="FK20" s="3" t="n">
-        <x:v>1262182</x:v>
+        <x:v>1263431</x:v>
       </x:c>
       <x:c r="FL20" s="3" t="n">
-        <x:v>1344132</x:v>
+        <x:v>1341845</x:v>
       </x:c>
       <x:c r="FM20" s="3" t="n">
-        <x:v>1225973</x:v>
+        <x:v>1220860</x:v>
+      </x:c>
+      <x:c r="FN20" s="3" t="n">
+        <x:v>1400547</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:169">
+    <x:row r="21" spans="1:170">
       <x:c r="B21" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D21" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E21" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F21" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G21" s="3" t="n">
-        <x:v>103694</x:v>
+        <x:v>103662</x:v>
       </x:c>
       <x:c r="H21" s="3" t="n">
-        <x:v>106213</x:v>
+        <x:v>106180</x:v>
       </x:c>
       <x:c r="I21" s="3" t="n">
-        <x:v>106043</x:v>
+        <x:v>106011</x:v>
       </x:c>
       <x:c r="J21" s="3" t="n">
-        <x:v>111872</x:v>
+        <x:v>111837</x:v>
       </x:c>
       <x:c r="K21" s="3" t="n">
-        <x:v>104714</x:v>
+        <x:v>104681</x:v>
       </x:c>
       <x:c r="L21" s="3" t="n">
-        <x:v>110333</x:v>
+        <x:v>110299</x:v>
       </x:c>
       <x:c r="M21" s="3" t="n">
-        <x:v>111022</x:v>
+        <x:v>110988</x:v>
       </x:c>
       <x:c r="N21" s="3" t="n">
-        <x:v>122217</x:v>
+        <x:v>122180</x:v>
       </x:c>
       <x:c r="O21" s="3" t="n">
-        <x:v>107389</x:v>
+        <x:v>107355</x:v>
       </x:c>
       <x:c r="P21" s="3" t="n">
-        <x:v>111549</x:v>
+        <x:v>111515</x:v>
       </x:c>
       <x:c r="Q21" s="3" t="n">
-        <x:v>111279</x:v>
+        <x:v>111244</x:v>
       </x:c>
       <x:c r="R21" s="3" t="n">
-        <x:v>122592</x:v>
+        <x:v>122556</x:v>
       </x:c>
       <x:c r="S21" s="3" t="n">
-        <x:v>113626</x:v>
+        <x:v>113591</x:v>
       </x:c>
       <x:c r="T21" s="3" t="n">
-        <x:v>118665</x:v>
+        <x:v>118629</x:v>
       </x:c>
       <x:c r="U21" s="3" t="n">
-        <x:v>115958</x:v>
+        <x:v>115922</x:v>
       </x:c>
       <x:c r="V21" s="3" t="n">
-        <x:v>128318</x:v>
+        <x:v>128279</x:v>
       </x:c>
       <x:c r="W21" s="3" t="n">
-        <x:v>126069</x:v>
+        <x:v>126030</x:v>
       </x:c>
       <x:c r="X21" s="3" t="n">
-        <x:v>130485</x:v>
+        <x:v>130445</x:v>
       </x:c>
       <x:c r="Y21" s="3" t="n">
-        <x:v>125120</x:v>
+        <x:v>125081</x:v>
       </x:c>
       <x:c r="Z21" s="3" t="n">
-        <x:v>132014</x:v>
+        <x:v>131974</x:v>
       </x:c>
       <x:c r="AA21" s="3" t="n">
-        <x:v>119190</x:v>
+        <x:v>119154</x:v>
       </x:c>
       <x:c r="AB21" s="3" t="n">
-        <x:v>138728</x:v>
+        <x:v>138685</x:v>
       </x:c>
       <x:c r="AC21" s="3" t="n">
-        <x:v>132921</x:v>
+        <x:v>132880</x:v>
       </x:c>
       <x:c r="AD21" s="3" t="n">
-        <x:v>140823</x:v>
+        <x:v>140780</x:v>
       </x:c>
       <x:c r="AE21" s="3" t="n">
-        <x:v>129089</x:v>
+        <x:v>129050</x:v>
       </x:c>
       <x:c r="AF21" s="3" t="n">
-        <x:v>141179</x:v>
+        <x:v>141136</x:v>
       </x:c>
       <x:c r="AG21" s="3" t="n">
-        <x:v>142463</x:v>
+        <x:v>142420</x:v>
       </x:c>
       <x:c r="AH21" s="3" t="n">
-        <x:v>157975</x:v>
+        <x:v>157926</x:v>
       </x:c>
       <x:c r="AI21" s="3" t="n">
-        <x:v>140620</x:v>
+        <x:v>140577</x:v>
       </x:c>
       <x:c r="AJ21" s="3" t="n">
-        <x:v>149457</x:v>
+        <x:v>149412</x:v>
       </x:c>
       <x:c r="AK21" s="3" t="n">
-        <x:v>146583</x:v>
+        <x:v>146538</x:v>
       </x:c>
       <x:c r="AL21" s="3" t="n">
-        <x:v>162600</x:v>
+        <x:v>162550</x:v>
       </x:c>
       <x:c r="AM21" s="3" t="n">
-        <x:v>151147</x:v>
+        <x:v>151101</x:v>
       </x:c>
       <x:c r="AN21" s="3" t="n">
-        <x:v>163099</x:v>
+        <x:v>163049</x:v>
       </x:c>
       <x:c r="AO21" s="3" t="n">
-        <x:v>156653</x:v>
+        <x:v>156605</x:v>
       </x:c>
       <x:c r="AP21" s="3" t="n">
-        <x:v>174335</x:v>
+        <x:v>174282</x:v>
       </x:c>
       <x:c r="AQ21" s="3" t="n">
-        <x:v>162308</x:v>
+        <x:v>162258</x:v>
       </x:c>
       <x:c r="AR21" s="3" t="n">
-        <x:v>166565</x:v>
+        <x:v>166514</x:v>
       </x:c>
       <x:c r="AS21" s="3" t="n">
-        <x:v>157653</x:v>
+        <x:v>157605</x:v>
       </x:c>
       <x:c r="AT21" s="3" t="n">
-        <x:v>166622</x:v>
+        <x:v>166572</x:v>
       </x:c>
       <x:c r="AU21" s="3" t="n">
-        <x:v>148589</x:v>
+        <x:v>148544</x:v>
       </x:c>
       <x:c r="AV21" s="3" t="n">
-        <x:v>155343</x:v>
+        <x:v>155295</x:v>
       </x:c>
       <x:c r="AW21" s="3" t="n">
-        <x:v>155616</x:v>
+        <x:v>155569</x:v>
       </x:c>
       <x:c r="AX21" s="3" t="n">
-        <x:v>161708</x:v>
+        <x:v>161659</x:v>
       </x:c>
       <x:c r="AY21" s="3" t="n">
-        <x:v>156651</x:v>
+        <x:v>156603</x:v>
       </x:c>
       <x:c r="AZ21" s="3" t="n">
-        <x:v>157346</x:v>
+        <x:v>157298</x:v>
       </x:c>
       <x:c r="BA21" s="3" t="n">
-        <x:v>159336</x:v>
+        <x:v>159287</x:v>
       </x:c>
       <x:c r="BB21" s="3" t="n">
-        <x:v>158496</x:v>
+        <x:v>158449</x:v>
       </x:c>
       <x:c r="BC21" s="3" t="n">
-        <x:v>148754</x:v>
+        <x:v>148709</x:v>
       </x:c>
       <x:c r="BD21" s="3" t="n">
-        <x:v>150767</x:v>
+        <x:v>150721</x:v>
       </x:c>
       <x:c r="BE21" s="3" t="n">
-        <x:v>148834</x:v>
+        <x:v>148789</x:v>
       </x:c>
       <x:c r="BF21" s="3" t="n">
-        <x:v>164936</x:v>
+        <x:v>164886</x:v>
       </x:c>
       <x:c r="BG21" s="3" t="n">
-        <x:v>161625</x:v>
+        <x:v>161576</x:v>
       </x:c>
       <x:c r="BH21" s="3" t="n">
-        <x:v>171050</x:v>
+        <x:v>170998</x:v>
       </x:c>
       <x:c r="BI21" s="3" t="n">
-        <x:v>165460</x:v>
+        <x:v>165410</x:v>
       </x:c>
       <x:c r="BJ21" s="3" t="n">
-        <x:v>194073</x:v>
+        <x:v>194014</x:v>
       </x:c>
       <x:c r="BK21" s="3" t="n">
-        <x:v>181894</x:v>
+        <x:v>181839</x:v>
       </x:c>
       <x:c r="BL21" s="3" t="n">
-        <x:v>182542</x:v>
+        <x:v>182486</x:v>
       </x:c>
       <x:c r="BM21" s="3" t="n">
-        <x:v>179352</x:v>
+        <x:v>179297</x:v>
       </x:c>
       <x:c r="BN21" s="3" t="n">
-        <x:v>198384</x:v>
+        <x:v>198325</x:v>
       </x:c>
       <x:c r="BO21" s="3" t="n">
-        <x:v>187221</x:v>
+        <x:v>187164</x:v>
       </x:c>
       <x:c r="BP21" s="3" t="n">
-        <x:v>187775</x:v>
+        <x:v>187718</x:v>
       </x:c>
       <x:c r="BQ21" s="3" t="n">
-        <x:v>184429</x:v>
+        <x:v>184373</x:v>
       </x:c>
       <x:c r="BR21" s="3" t="n">
-        <x:v>208217</x:v>
+        <x:v>208154</x:v>
       </x:c>
       <x:c r="BS21" s="3" t="n">
-        <x:v>200325</x:v>
+        <x:v>200264</x:v>
       </x:c>
       <x:c r="BT21" s="3" t="n">
-        <x:v>216718</x:v>
+        <x:v>216652</x:v>
       </x:c>
       <x:c r="BU21" s="3" t="n">
-        <x:v>209628</x:v>
+        <x:v>209564</x:v>
       </x:c>
       <x:c r="BV21" s="3" t="n">
-        <x:v>235525</x:v>
+        <x:v>235454</x:v>
       </x:c>
       <x:c r="BW21" s="3" t="n">
-        <x:v>233235</x:v>
+        <x:v>233164</x:v>
       </x:c>
       <x:c r="BX21" s="3" t="n">
-        <x:v>237376</x:v>
+        <x:v>237304</x:v>
       </x:c>
       <x:c r="BY21" s="3" t="n">
-        <x:v>230327</x:v>
+        <x:v>230257</x:v>
       </x:c>
       <x:c r="BZ21" s="3" t="n">
-        <x:v>255492</x:v>
+        <x:v>255414</x:v>
       </x:c>
       <x:c r="CA21" s="3" t="n">
-        <x:v>242839</x:v>
+        <x:v>242766</x:v>
       </x:c>
       <x:c r="CB21" s="3" t="n">
-        <x:v>247571</x:v>
+        <x:v>247495</x:v>
       </x:c>
       <x:c r="CC21" s="3" t="n">
-        <x:v>243993</x:v>
+        <x:v>243919</x:v>
       </x:c>
       <x:c r="CD21" s="3" t="n">
-        <x:v>273760</x:v>
+        <x:v>273676</x:v>
       </x:c>
       <x:c r="CE21" s="3" t="n">
-        <x:v>271505</x:v>
+        <x:v>271423</x:v>
       </x:c>
       <x:c r="CF21" s="3" t="n">
-        <x:v>280218</x:v>
+        <x:v>280133</x:v>
       </x:c>
       <x:c r="CG21" s="3" t="n">
-        <x:v>278650</x:v>
+        <x:v>278566</x:v>
       </x:c>
       <x:c r="CH21" s="3" t="n">
-        <x:v>301250</x:v>
+        <x:v>301157</x:v>
       </x:c>
       <x:c r="CI21" s="3" t="n">
-        <x:v>291679</x:v>
+        <x:v>291591</x:v>
       </x:c>
       <x:c r="CJ21" s="3" t="n">
-        <x:v>277236</x:v>
+        <x:v>277152</x:v>
       </x:c>
       <x:c r="CK21" s="3" t="n">
-        <x:v>260722</x:v>
+        <x:v>260643</x:v>
       </x:c>
       <x:c r="CL21" s="3" t="n">
-        <x:v>285700</x:v>
+        <x:v>285612</x:v>
       </x:c>
       <x:c r="CM21" s="3" t="n">
-        <x:v>276868</x:v>
+        <x:v>276784</x:v>
       </x:c>
       <x:c r="CN21" s="3" t="n">
-        <x:v>277735</x:v>
+        <x:v>277651</x:v>
       </x:c>
       <x:c r="CO21" s="3" t="n">
-        <x:v>260286</x:v>
+        <x:v>260207</x:v>
       </x:c>
       <x:c r="CP21" s="3" t="n">
-        <x:v>288943</x:v>
+        <x:v>288855</x:v>
       </x:c>
       <x:c r="CQ21" s="3" t="n">
-        <x:v>281035</x:v>
+        <x:v>280949</x:v>
       </x:c>
       <x:c r="CR21" s="3" t="n">
-        <x:v>281425</x:v>
+        <x:v>281340</x:v>
       </x:c>
       <x:c r="CS21" s="3" t="n">
-        <x:v>272305</x:v>
+        <x:v>272222</x:v>
       </x:c>
       <x:c r="CT21" s="3" t="n">
-        <x:v>303792</x:v>
+        <x:v>303700</x:v>
       </x:c>
       <x:c r="CU21" s="3" t="n">
-        <x:v>288771</x:v>
+        <x:v>288683</x:v>
       </x:c>
       <x:c r="CV21" s="3" t="n">
-        <x:v>304250</x:v>
+        <x:v>304157</x:v>
       </x:c>
       <x:c r="CW21" s="3" t="n">
-        <x:v>292937</x:v>
+        <x:v>292848</x:v>
       </x:c>
       <x:c r="CX21" s="3" t="n">
-        <x:v>330439</x:v>
+        <x:v>330339</x:v>
       </x:c>
       <x:c r="CY21" s="3" t="n">
-        <x:v>302482</x:v>
+        <x:v>302390</x:v>
       </x:c>
       <x:c r="CZ21" s="3" t="n">
-        <x:v>325982</x:v>
+        <x:v>325883</x:v>
       </x:c>
       <x:c r="DA21" s="3" t="n">
-        <x:v>313261</x:v>
+        <x:v>313165</x:v>
       </x:c>
       <x:c r="DB21" s="3" t="n">
-        <x:v>357872</x:v>
+        <x:v>357764</x:v>
       </x:c>
       <x:c r="DC21" s="3" t="n">
-        <x:v>336674</x:v>
+        <x:v>336571</x:v>
       </x:c>
       <x:c r="DD21" s="3" t="n">
-        <x:v>345770</x:v>
+        <x:v>345665</x:v>
       </x:c>
       <x:c r="DE21" s="3" t="n">
-        <x:v>338839</x:v>
+        <x:v>338736</x:v>
       </x:c>
       <x:c r="DF21" s="3" t="n">
-        <x:v>386568</x:v>
+        <x:v>386451</x:v>
       </x:c>
       <x:c r="DG21" s="3" t="n">
-        <x:v>366914</x:v>
+        <x:v>366802</x:v>
       </x:c>
       <x:c r="DH21" s="3" t="n">
-        <x:v>371953</x:v>
+        <x:v>371840</x:v>
       </x:c>
       <x:c r="DI21" s="3" t="n">
-        <x:v>372303</x:v>
+        <x:v>372190</x:v>
       </x:c>
       <x:c r="DJ21" s="3" t="n">
-        <x:v>409684</x:v>
+        <x:v>409560</x:v>
       </x:c>
       <x:c r="DK21" s="3" t="n">
-        <x:v>393091</x:v>
+        <x:v>392972</x:v>
       </x:c>
       <x:c r="DL21" s="3" t="n">
-        <x:v>408453</x:v>
+        <x:v>408329</x:v>
       </x:c>
       <x:c r="DM21" s="3" t="n">
-        <x:v>381171</x:v>
+        <x:v>381056</x:v>
       </x:c>
       <x:c r="DN21" s="3" t="n">
-        <x:v>384612</x:v>
+        <x:v>384494</x:v>
       </x:c>
       <x:c r="DO21" s="3" t="n">
-        <x:v>332105</x:v>
+        <x:v>332004</x:v>
       </x:c>
       <x:c r="DP21" s="3" t="n">
-        <x:v>322044</x:v>
+        <x:v>321947</x:v>
       </x:c>
       <x:c r="DQ21" s="3" t="n">
-        <x:v>326558</x:v>
+        <x:v>326458</x:v>
       </x:c>
       <x:c r="DR21" s="3" t="n">
-        <x:v>358804</x:v>
+        <x:v>358695</x:v>
       </x:c>
       <x:c r="DS21" s="3" t="n">
-        <x:v>344146</x:v>
+        <x:v>344042</x:v>
       </x:c>
       <x:c r="DT21" s="3" t="n">
-        <x:v>374037</x:v>
+        <x:v>373924</x:v>
       </x:c>
       <x:c r="DU21" s="3" t="n">
-        <x:v>372878</x:v>
+        <x:v>372764</x:v>
       </x:c>
       <x:c r="DV21" s="3" t="n">
-        <x:v>402272</x:v>
+        <x:v>402149</x:v>
       </x:c>
       <x:c r="DW21" s="3" t="n">
-        <x:v>391874</x:v>
+        <x:v>391755</x:v>
       </x:c>
       <x:c r="DX21" s="3" t="n">
-        <x:v>402911</x:v>
+        <x:v>402789</x:v>
       </x:c>
       <x:c r="DY21" s="3" t="n">
-        <x:v>389829</x:v>
+        <x:v>389710</x:v>
       </x:c>
       <x:c r="DZ21" s="3" t="n">
-        <x:v>414506</x:v>
+        <x:v>414380</x:v>
       </x:c>
       <x:c r="EA21" s="3" t="n">
-        <x:v>400796</x:v>
+        <x:v>400674</x:v>
       </x:c>
       <x:c r="EB21" s="3" t="n">
-        <x:v>407269</x:v>
+        <x:v>407145</x:v>
       </x:c>
       <x:c r="EC21" s="3" t="n">
-        <x:v>393342</x:v>
+        <x:v>393223</x:v>
       </x:c>
       <x:c r="ED21" s="3" t="n">
-        <x:v>413926</x:v>
+        <x:v>413800</x:v>
       </x:c>
       <x:c r="EE21" s="3" t="n">
-        <x:v>386363</x:v>
+        <x:v>386245</x:v>
       </x:c>
       <x:c r="EF21" s="3" t="n">
-        <x:v>409170</x:v>
+        <x:v>409045</x:v>
       </x:c>
       <x:c r="EG21" s="3" t="n">
-        <x:v>394302</x:v>
+        <x:v>394183</x:v>
       </x:c>
       <x:c r="EH21" s="3" t="n">
-        <x:v>422270</x:v>
+        <x:v>422142</x:v>
       </x:c>
       <x:c r="EI21" s="3" t="n">
-        <x:v>407479</x:v>
+        <x:v>407355</x:v>
       </x:c>
       <x:c r="EJ21" s="3" t="n">
-        <x:v>429959</x:v>
+        <x:v>429828</x:v>
       </x:c>
       <x:c r="EK21" s="3" t="n">
-        <x:v>418143</x:v>
+        <x:v>418016</x:v>
       </x:c>
       <x:c r="EL21" s="3" t="n">
-        <x:v>459434</x:v>
+        <x:v>459295</x:v>
       </x:c>
       <x:c r="EM21" s="3" t="n">
-        <x:v>433865</x:v>
+        <x:v>433733</x:v>
       </x:c>
       <x:c r="EN21" s="3" t="n">
-        <x:v>446379</x:v>
+        <x:v>446244</x:v>
       </x:c>
       <x:c r="EO21" s="3" t="n">
-        <x:v>446849</x:v>
+        <x:v>446714</x:v>
       </x:c>
       <x:c r="EP21" s="3" t="n">
-        <x:v>491866</x:v>
+        <x:v>491715</x:v>
       </x:c>
       <x:c r="EQ21" s="3" t="n">
-        <x:v>452577</x:v>
+        <x:v>452439</x:v>
       </x:c>
       <x:c r="ER21" s="3" t="n">
-        <x:v>477634</x:v>
+        <x:v>477489</x:v>
       </x:c>
       <x:c r="ES21" s="3" t="n">
-        <x:v>466189</x:v>
+        <x:v>466047</x:v>
       </x:c>
       <x:c r="ET21" s="3" t="n">
-        <x:v>503863</x:v>
+        <x:v>503710</x:v>
       </x:c>
       <x:c r="EU21" s="3" t="n">
-        <x:v>478401</x:v>
+        <x:v>478256</x:v>
       </x:c>
       <x:c r="EV21" s="3" t="n">
-        <x:v>494308</x:v>
+        <x:v>494158</x:v>
       </x:c>
       <x:c r="EW21" s="3" t="n">
-        <x:v>487425</x:v>
+        <x:v>487277</x:v>
       </x:c>
       <x:c r="EX21" s="3" t="n">
-        <x:v>529989</x:v>
+        <x:v>529826</x:v>
       </x:c>
       <x:c r="EY21" s="3" t="n">
-        <x:v>504444</x:v>
+        <x:v>504290</x:v>
       </x:c>
       <x:c r="EZ21" s="3" t="n">
-        <x:v>516511</x:v>
+        <x:v>516354</x:v>
       </x:c>
       <x:c r="FA21" s="3" t="n">
-        <x:v>494362</x:v>
+        <x:v>494212</x:v>
       </x:c>
       <x:c r="FB21" s="3" t="n">
-        <x:v>550905</x:v>
+        <x:v>550737</x:v>
       </x:c>
       <x:c r="FC21" s="3" t="n">
-        <x:v>519494</x:v>
+        <x:v>519336</x:v>
       </x:c>
       <x:c r="FD21" s="3" t="n">
-        <x:v>528843</x:v>
+        <x:v>528682</x:v>
       </x:c>
       <x:c r="FE21" s="3" t="n">
-        <x:v>517631</x:v>
+        <x:v>517473</x:v>
       </x:c>
       <x:c r="FF21" s="3" t="n">
-        <x:v>544245</x:v>
+        <x:v>544080</x:v>
       </x:c>
       <x:c r="FG21" s="3" t="n">
-        <x:v>510334</x:v>
+        <x:v>509915</x:v>
       </x:c>
       <x:c r="FH21" s="3" t="n">
-        <x:v>454640</x:v>
+        <x:v>454663</x:v>
       </x:c>
       <x:c r="FI21" s="3" t="n">
-        <x:v>481476</x:v>
+        <x:v>481549</x:v>
       </x:c>
       <x:c r="FJ21" s="3" t="n">
-        <x:v>546308</x:v>
+        <x:v>546000</x:v>
       </x:c>
       <x:c r="FK21" s="3" t="n">
-        <x:v>515223</x:v>
+        <x:v>515613</x:v>
       </x:c>
       <x:c r="FL21" s="3" t="n">
-        <x:v>533689</x:v>
+        <x:v>534342</x:v>
       </x:c>
       <x:c r="FM21" s="3" t="n">
-        <x:v>531752</x:v>
+        <x:v>533412</x:v>
+      </x:c>
+      <x:c r="FN21" s="3" t="n">
+        <x:v>596872</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:169">
+    <x:row r="22" spans="1:170">
       <x:c r="B22" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E22" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F22" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G22" s="3" t="n">
-        <x:v>69454</x:v>
+        <x:v>69431</x:v>
       </x:c>
       <x:c r="H22" s="3" t="n">
-        <x:v>69189</x:v>
+        <x:v>69166</x:v>
       </x:c>
       <x:c r="I22" s="3" t="n">
-        <x:v>67562</x:v>
+        <x:v>67540</x:v>
       </x:c>
       <x:c r="J22" s="3" t="n">
-        <x:v>76492</x:v>
+        <x:v>76468</x:v>
       </x:c>
       <x:c r="K22" s="3" t="n">
-        <x:v>69847</x:v>
+        <x:v>69824</x:v>
       </x:c>
       <x:c r="L22" s="3" t="n">
-        <x:v>71871</x:v>
+        <x:v>71847</x:v>
       </x:c>
       <x:c r="M22" s="3" t="n">
-        <x:v>70816</x:v>
+        <x:v>70793</x:v>
       </x:c>
       <x:c r="N22" s="3" t="n">
-        <x:v>84560</x:v>
+        <x:v>84533</x:v>
       </x:c>
       <x:c r="O22" s="3" t="n">
-        <x:v>72764</x:v>
+        <x:v>72741</x:v>
       </x:c>
       <x:c r="P22" s="3" t="n">
-        <x:v>73261</x:v>
+        <x:v>73237</x:v>
       </x:c>
       <x:c r="Q22" s="3" t="n">
-        <x:v>72366</x:v>
+        <x:v>72343</x:v>
       </x:c>
       <x:c r="R22" s="3" t="n">
-        <x:v>83650</x:v>
+        <x:v>83622</x:v>
       </x:c>
       <x:c r="S22" s="3" t="n">
-        <x:v>77941</x:v>
+        <x:v>77916</x:v>
       </x:c>
       <x:c r="T22" s="3" t="n">
-        <x:v>79294</x:v>
+        <x:v>79269</x:v>
       </x:c>
       <x:c r="U22" s="3" t="n">
-        <x:v>73824</x:v>
+        <x:v>73800</x:v>
       </x:c>
       <x:c r="V22" s="3" t="n">
-        <x:v>86363</x:v>
+        <x:v>86334</x:v>
       </x:c>
       <x:c r="W22" s="3" t="n">
-        <x:v>86552</x:v>
+        <x:v>86524</x:v>
       </x:c>
       <x:c r="X22" s="3" t="n">
-        <x:v>87844</x:v>
+        <x:v>87815</x:v>
       </x:c>
       <x:c r="Y22" s="3" t="n">
-        <x:v>80889</x:v>
+        <x:v>80863</x:v>
       </x:c>
       <x:c r="Z22" s="3" t="n">
-        <x:v>88729</x:v>
+        <x:v>88701</x:v>
       </x:c>
       <x:c r="AA22" s="3" t="n">
-        <x:v>81649</x:v>
+        <x:v>81623</x:v>
       </x:c>
       <x:c r="AB22" s="3" t="n">
-        <x:v>93005</x:v>
+        <x:v>92975</x:v>
       </x:c>
       <x:c r="AC22" s="3" t="n">
-        <x:v>87566</x:v>
+        <x:v>87538</x:v>
       </x:c>
       <x:c r="AD22" s="3" t="n">
-        <x:v>96060</x:v>
+        <x:v>96029</x:v>
       </x:c>
       <x:c r="AE22" s="3" t="n">
-        <x:v>90239</x:v>
+        <x:v>90210</x:v>
       </x:c>
       <x:c r="AF22" s="3" t="n">
-        <x:v>95468</x:v>
+        <x:v>95437</x:v>
       </x:c>
       <x:c r="AG22" s="3" t="n">
-        <x:v>91640</x:v>
+        <x:v>91611</x:v>
       </x:c>
       <x:c r="AH22" s="3" t="n">
-        <x:v>106910</x:v>
+        <x:v>106876</x:v>
       </x:c>
       <x:c r="AI22" s="3" t="n">
-        <x:v>96293</x:v>
+        <x:v>96262</x:v>
       </x:c>
       <x:c r="AJ22" s="3" t="n">
-        <x:v>99975</x:v>
+        <x:v>99943</x:v>
       </x:c>
       <x:c r="AK22" s="3" t="n">
-        <x:v>94124</x:v>
+        <x:v>94094</x:v>
       </x:c>
       <x:c r="AL22" s="3" t="n">
-        <x:v>111337</x:v>
+        <x:v>111301</x:v>
       </x:c>
       <x:c r="AM22" s="3" t="n">
-        <x:v>102204</x:v>
+        <x:v>102171</x:v>
       </x:c>
       <x:c r="AN22" s="3" t="n">
-        <x:v>108700</x:v>
+        <x:v>108665</x:v>
       </x:c>
       <x:c r="AO22" s="3" t="n">
-        <x:v>100052</x:v>
+        <x:v>100020</x:v>
       </x:c>
       <x:c r="AP22" s="3" t="n">
-        <x:v>117836</x:v>
+        <x:v>117798</x:v>
       </x:c>
       <x:c r="AQ22" s="3" t="n">
-        <x:v>109983</x:v>
+        <x:v>109948</x:v>
       </x:c>
       <x:c r="AR22" s="3" t="n">
-        <x:v>109139</x:v>
+        <x:v>109104</x:v>
       </x:c>
       <x:c r="AS22" s="3" t="n">
-        <x:v>98784</x:v>
+        <x:v>98752</x:v>
       </x:c>
       <x:c r="AT22" s="3" t="n">
-        <x:v>109177</x:v>
+        <x:v>109141</x:v>
       </x:c>
       <x:c r="AU22" s="3" t="n">
-        <x:v>100600</x:v>
+        <x:v>100568</x:v>
       </x:c>
       <x:c r="AV22" s="3" t="n">
-        <x:v>103336</x:v>
+        <x:v>103303</x:v>
       </x:c>
       <x:c r="AW22" s="3" t="n">
-        <x:v>96580</x:v>
+        <x:v>96548</x:v>
       </x:c>
       <x:c r="AX22" s="3" t="n">
-        <x:v>105464</x:v>
+        <x:v>105429</x:v>
       </x:c>
       <x:c r="AY22" s="3" t="n">
-        <x:v>103271</x:v>
+        <x:v>103237</x:v>
       </x:c>
       <x:c r="AZ22" s="3" t="n">
-        <x:v>101633</x:v>
+        <x:v>101600</x:v>
       </x:c>
       <x:c r="BA22" s="3" t="n">
-        <x:v>94794</x:v>
+        <x:v>94763</x:v>
       </x:c>
       <x:c r="BB22" s="3" t="n">
-        <x:v>102574</x:v>
+        <x:v>102541</x:v>
       </x:c>
       <x:c r="BC22" s="3" t="n">
-        <x:v>100585</x:v>
+        <x:v>100553</x:v>
       </x:c>
       <x:c r="BD22" s="3" t="n">
-        <x:v>102334</x:v>
+        <x:v>102301</x:v>
       </x:c>
       <x:c r="BE22" s="3" t="n">
-        <x:v>96360</x:v>
+        <x:v>96329</x:v>
       </x:c>
       <x:c r="BF22" s="3" t="n">
-        <x:v>113028</x:v>
+        <x:v>112989</x:v>
       </x:c>
       <x:c r="BG22" s="3" t="n">
-        <x:v>110110</x:v>
+        <x:v>110074</x:v>
       </x:c>
       <x:c r="BH22" s="3" t="n">
-        <x:v>117433</x:v>
+        <x:v>117395</x:v>
       </x:c>
       <x:c r="BI22" s="3" t="n">
-        <x:v>108314</x:v>
+        <x:v>108279</x:v>
       </x:c>
       <x:c r="BJ22" s="3" t="n">
-        <x:v>137135</x:v>
+        <x:v>137090</x:v>
       </x:c>
       <x:c r="BK22" s="3" t="n">
-        <x:v>126666</x:v>
+        <x:v>126625</x:v>
       </x:c>
       <x:c r="BL22" s="3" t="n">
-        <x:v>126529</x:v>
+        <x:v>126488</x:v>
       </x:c>
       <x:c r="BM22" s="3" t="n">
-        <x:v>119691</x:v>
+        <x:v>119652</x:v>
       </x:c>
       <x:c r="BN22" s="3" t="n">
-        <x:v>139510</x:v>
+        <x:v>139464</x:v>
       </x:c>
       <x:c r="BO22" s="3" t="n">
-        <x:v>129500</x:v>
+        <x:v>129458</x:v>
       </x:c>
       <x:c r="BP22" s="3" t="n">
-        <x:v>129617</x:v>
+        <x:v>129575</x:v>
       </x:c>
       <x:c r="BQ22" s="3" t="n">
-        <x:v>122671</x:v>
+        <x:v>122631</x:v>
       </x:c>
       <x:c r="BR22" s="3" t="n">
-        <x:v>144843</x:v>
+        <x:v>144796</x:v>
       </x:c>
       <x:c r="BS22" s="3" t="n">
-        <x:v>137038</x:v>
+        <x:v>136994</x:v>
       </x:c>
       <x:c r="BT22" s="3" t="n">
-        <x:v>148807</x:v>
+        <x:v>148759</x:v>
       </x:c>
       <x:c r="BU22" s="3" t="n">
-        <x:v>137328</x:v>
+        <x:v>137283</x:v>
       </x:c>
       <x:c r="BV22" s="3" t="n">
-        <x:v>161997</x:v>
+        <x:v>161944</x:v>
       </x:c>
       <x:c r="BW22" s="3" t="n">
-        <x:v>158835</x:v>
+        <x:v>158784</x:v>
       </x:c>
       <x:c r="BX22" s="3" t="n">
-        <x:v>160665</x:v>
+        <x:v>160613</x:v>
       </x:c>
       <x:c r="BY22" s="3" t="n">
-        <x:v>152564</x:v>
+        <x:v>152515</x:v>
       </x:c>
       <x:c r="BZ22" s="3" t="n">
-        <x:v>174131</x:v>
+        <x:v>174073</x:v>
       </x:c>
       <x:c r="CA22" s="3" t="n">
-        <x:v>162570</x:v>
+        <x:v>162517</x:v>
       </x:c>
       <x:c r="CB22" s="3" t="n">
-        <x:v>165736</x:v>
+        <x:v>165682</x:v>
       </x:c>
       <x:c r="CC22" s="3" t="n">
-        <x:v>159596</x:v>
+        <x:v>159545</x:v>
       </x:c>
       <x:c r="CD22" s="3" t="n">
-        <x:v>186251</x:v>
+        <x:v>186190</x:v>
       </x:c>
       <x:c r="CE22" s="3" t="n">
-        <x:v>182228</x:v>
+        <x:v>182169</x:v>
       </x:c>
       <x:c r="CF22" s="3" t="n">
-        <x:v>189450</x:v>
+        <x:v>189388</x:v>
       </x:c>
       <x:c r="CG22" s="3" t="n">
-        <x:v>185171</x:v>
+        <x:v>185111</x:v>
       </x:c>
       <x:c r="CH22" s="3" t="n">
-        <x:v>204580</x:v>
+        <x:v>204514</x:v>
       </x:c>
       <x:c r="CI22" s="3" t="n">
-        <x:v>193955</x:v>
+        <x:v>193893</x:v>
       </x:c>
       <x:c r="CJ22" s="3" t="n">
-        <x:v>181941</x:v>
+        <x:v>181882</x:v>
       </x:c>
       <x:c r="CK22" s="3" t="n">
-        <x:v>166912</x:v>
+        <x:v>166857</x:v>
       </x:c>
       <x:c r="CL22" s="3" t="n">
-        <x:v>188504</x:v>
+        <x:v>188443</x:v>
       </x:c>
       <x:c r="CM22" s="3" t="n">
-        <x:v>182744</x:v>
+        <x:v>182685</x:v>
       </x:c>
       <x:c r="CN22" s="3" t="n">
-        <x:v>183912</x:v>
+        <x:v>183853</x:v>
       </x:c>
       <x:c r="CO22" s="3" t="n">
-        <x:v>169732</x:v>
+        <x:v>169677</x:v>
       </x:c>
       <x:c r="CP22" s="3" t="n">
-        <x:v>194884</x:v>
+        <x:v>194820</x:v>
       </x:c>
       <x:c r="CQ22" s="3" t="n">
-        <x:v>191376</x:v>
+        <x:v>191314</x:v>
       </x:c>
       <x:c r="CR22" s="3" t="n">
-        <x:v>190982</x:v>
+        <x:v>190920</x:v>
       </x:c>
       <x:c r="CS22" s="3" t="n">
-        <x:v>180694</x:v>
+        <x:v>180635</x:v>
       </x:c>
       <x:c r="CT22" s="3" t="n">
-        <x:v>206128</x:v>
+        <x:v>206062</x:v>
       </x:c>
       <x:c r="CU22" s="3" t="n">
-        <x:v>199918</x:v>
+        <x:v>199853</x:v>
       </x:c>
       <x:c r="CV22" s="3" t="n">
-        <x:v>207270</x:v>
+        <x:v>207203</x:v>
       </x:c>
       <x:c r="CW22" s="3" t="n">
-        <x:v>199537</x:v>
+        <x:v>199472</x:v>
       </x:c>
       <x:c r="CX22" s="3" t="n">
-        <x:v>224589</x:v>
+        <x:v>224517</x:v>
       </x:c>
       <x:c r="CY22" s="3" t="n">
-        <x:v>210196</x:v>
+        <x:v>210128</x:v>
       </x:c>
       <x:c r="CZ22" s="3" t="n">
-        <x:v>226702</x:v>
+        <x:v>226628</x:v>
       </x:c>
       <x:c r="DA22" s="3" t="n">
-        <x:v>210362</x:v>
+        <x:v>210294</x:v>
       </x:c>
       <x:c r="DB22" s="3" t="n">
-        <x:v>243717</x:v>
+        <x:v>243639</x:v>
       </x:c>
       <x:c r="DC22" s="3" t="n">
-        <x:v>234897</x:v>
+        <x:v>234821</x:v>
       </x:c>
       <x:c r="DD22" s="3" t="n">
-        <x:v>239561</x:v>
+        <x:v>239484</x:v>
       </x:c>
       <x:c r="DE22" s="3" t="n">
-        <x:v>232422</x:v>
+        <x:v>232347</x:v>
       </x:c>
       <x:c r="DF22" s="3" t="n">
-        <x:v>269753</x:v>
+        <x:v>269665</x:v>
       </x:c>
       <x:c r="DG22" s="3" t="n">
-        <x:v>258278</x:v>
+        <x:v>258195</x:v>
       </x:c>
       <x:c r="DH22" s="3" t="n">
-        <x:v>256260</x:v>
+        <x:v>256177</x:v>
       </x:c>
       <x:c r="DI22" s="3" t="n">
-        <x:v>254568</x:v>
+        <x:v>254486</x:v>
       </x:c>
       <x:c r="DJ22" s="3" t="n">
-        <x:v>280252</x:v>
+        <x:v>280160</x:v>
       </x:c>
       <x:c r="DK22" s="3" t="n">
-        <x:v>272206</x:v>
+        <x:v>272117</x:v>
       </x:c>
       <x:c r="DL22" s="3" t="n">
-        <x:v>283948</x:v>
+        <x:v>283856</x:v>
       </x:c>
       <x:c r="DM22" s="3" t="n">
-        <x:v>257455</x:v>
+        <x:v>257371</x:v>
       </x:c>
       <x:c r="DN22" s="3" t="n">
-        <x:v>257239</x:v>
+        <x:v>257157</x:v>
       </x:c>
       <x:c r="DO22" s="3" t="n">
-        <x:v>220127</x:v>
+        <x:v>220056</x:v>
       </x:c>
       <x:c r="DP22" s="3" t="n">
-        <x:v>210165</x:v>
+        <x:v>210096</x:v>
       </x:c>
       <x:c r="DQ22" s="3" t="n">
-        <x:v>214041</x:v>
+        <x:v>213972</x:v>
       </x:c>
       <x:c r="DR22" s="3" t="n">
-        <x:v>243099</x:v>
+        <x:v>243020</x:v>
       </x:c>
       <x:c r="DS22" s="3" t="n">
-        <x:v>234352</x:v>
+        <x:v>234276</x:v>
       </x:c>
       <x:c r="DT22" s="3" t="n">
-        <x:v>259833</x:v>
+        <x:v>259749</x:v>
       </x:c>
       <x:c r="DU22" s="3" t="n">
-        <x:v>252546</x:v>
+        <x:v>252464</x:v>
       </x:c>
       <x:c r="DV22" s="3" t="n">
-        <x:v>278296</x:v>
+        <x:v>278206</x:v>
       </x:c>
       <x:c r="DW22" s="3" t="n">
-        <x:v>275237</x:v>
+        <x:v>275148</x:v>
       </x:c>
       <x:c r="DX22" s="3" t="n">
-        <x:v>283762</x:v>
+        <x:v>283670</x:v>
       </x:c>
       <x:c r="DY22" s="3" t="n">
-        <x:v>267222</x:v>
+        <x:v>267135</x:v>
       </x:c>
       <x:c r="DZ22" s="3" t="n">
-        <x:v>286344</x:v>
+        <x:v>286252</x:v>
       </x:c>
       <x:c r="EA22" s="3" t="n">
-        <x:v>277917</x:v>
+        <x:v>277827</x:v>
       </x:c>
       <x:c r="EB22" s="3" t="n">
-        <x:v>282258</x:v>
+        <x:v>282167</x:v>
       </x:c>
       <x:c r="EC22" s="3" t="n">
-        <x:v>268831</x:v>
+        <x:v>268744</x:v>
       </x:c>
       <x:c r="ED22" s="3" t="n">
-        <x:v>283753</x:v>
+        <x:v>283661</x:v>
       </x:c>
       <x:c r="EE22" s="3" t="n">
-        <x:v>265337</x:v>
+        <x:v>265251</x:v>
       </x:c>
       <x:c r="EF22" s="3" t="n">
-        <x:v>278446</x:v>
+        <x:v>278356</x:v>
       </x:c>
       <x:c r="EG22" s="3" t="n">
-        <x:v>264137</x:v>
+        <x:v>264052</x:v>
       </x:c>
       <x:c r="EH22" s="3" t="n">
-        <x:v>285829</x:v>
+        <x:v>285736</x:v>
       </x:c>
       <x:c r="EI22" s="3" t="n">
-        <x:v>275709</x:v>
+        <x:v>275620</x:v>
       </x:c>
       <x:c r="EJ22" s="3" t="n">
-        <x:v>290700</x:v>
+        <x:v>290606</x:v>
       </x:c>
       <x:c r="EK22" s="3" t="n">
-        <x:v>279240</x:v>
+        <x:v>279149</x:v>
       </x:c>
       <x:c r="EL22" s="3" t="n">
-        <x:v>300919</x:v>
+        <x:v>300822</x:v>
       </x:c>
       <x:c r="EM22" s="3" t="n">
-        <x:v>293209</x:v>
+        <x:v>293114</x:v>
       </x:c>
       <x:c r="EN22" s="3" t="n">
-        <x:v>300431</x:v>
+        <x:v>300334</x:v>
       </x:c>
       <x:c r="EO22" s="3" t="n">
-        <x:v>297895</x:v>
+        <x:v>297799</x:v>
       </x:c>
       <x:c r="EP22" s="3" t="n">
-        <x:v>327221</x:v>
+        <x:v>327114</x:v>
       </x:c>
       <x:c r="EQ22" s="3" t="n">
-        <x:v>310264</x:v>
+        <x:v>310164</x:v>
       </x:c>
       <x:c r="ER22" s="3" t="n">
-        <x:v>327524</x:v>
+        <x:v>327418</x:v>
       </x:c>
       <x:c r="ES22" s="3" t="n">
-        <x:v>311467</x:v>
+        <x:v>311366</x:v>
       </x:c>
       <x:c r="ET22" s="3" t="n">
-        <x:v>342534</x:v>
+        <x:v>342423</x:v>
       </x:c>
       <x:c r="EU22" s="3" t="n">
-        <x:v>325677</x:v>
+        <x:v>325572</x:v>
       </x:c>
       <x:c r="EV22" s="3" t="n">
-        <x:v>330632</x:v>
+        <x:v>330525</x:v>
       </x:c>
       <x:c r="EW22" s="3" t="n">
-        <x:v>319685</x:v>
+        <x:v>319581</x:v>
       </x:c>
       <x:c r="EX22" s="3" t="n">
-        <x:v>359569</x:v>
+        <x:v>359453</x:v>
       </x:c>
       <x:c r="EY22" s="3" t="n">
-        <x:v>347361</x:v>
+        <x:v>347249</x:v>
       </x:c>
       <x:c r="EZ22" s="3" t="n">
-        <x:v>359129</x:v>
+        <x:v>359013</x:v>
       </x:c>
       <x:c r="FA22" s="3" t="n">
-        <x:v>327799</x:v>
+        <x:v>327693</x:v>
       </x:c>
       <x:c r="FB22" s="3" t="n">
-        <x:v>373150</x:v>
+        <x:v>373029</x:v>
       </x:c>
       <x:c r="FC22" s="3" t="n">
-        <x:v>352023</x:v>
+        <x:v>351909</x:v>
       </x:c>
       <x:c r="FD22" s="3" t="n">
-        <x:v>355513</x:v>
+        <x:v>355398</x:v>
       </x:c>
       <x:c r="FE22" s="3" t="n">
-        <x:v>340441</x:v>
+        <x:v>340331</x:v>
       </x:c>
       <x:c r="FF22" s="3" t="n">
-        <x:v>363823</x:v>
+        <x:v>363706</x:v>
       </x:c>
       <x:c r="FG22" s="3" t="n">
-        <x:v>343008</x:v>
+        <x:v>342902</x:v>
       </x:c>
       <x:c r="FH22" s="3" t="n">
-        <x:v>309163</x:v>
+        <x:v>309146</x:v>
       </x:c>
       <x:c r="FI22" s="3" t="n">
-        <x:v>330741</x:v>
+        <x:v>330660</x:v>
       </x:c>
       <x:c r="FJ22" s="3" t="n">
-        <x:v>373730</x:v>
+        <x:v>373613</x:v>
       </x:c>
       <x:c r="FK22" s="3" t="n">
-        <x:v>365219</x:v>
+        <x:v>364726</x:v>
       </x:c>
       <x:c r="FL22" s="3" t="n">
-        <x:v>373616</x:v>
+        <x:v>373643</x:v>
       </x:c>
       <x:c r="FM22" s="3" t="n">
-        <x:v>355165</x:v>
+        <x:v>355701</x:v>
+      </x:c>
+      <x:c r="FN22" s="3" t="n">
+        <x:v>402479</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:169">
+    <x:row r="23" spans="1:170">
       <x:c r="B23" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E23" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F23" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G23" s="3" t="n">
-        <x:v>33804</x:v>
+        <x:v>33796</x:v>
       </x:c>
       <x:c r="H23" s="3" t="n">
-        <x:v>38699</x:v>
+        <x:v>38690</x:v>
       </x:c>
       <x:c r="I23" s="3" t="n">
-        <x:v>41801</x:v>
+        <x:v>41791</x:v>
       </x:c>
       <x:c r="J23" s="3" t="n">
-        <x:v>33209</x:v>
+        <x:v>33201</x:v>
       </x:c>
       <x:c r="K23" s="3" t="n">
-        <x:v>34753</x:v>
+        <x:v>34745</x:v>
       </x:c>
       <x:c r="L23" s="3" t="n">
-        <x:v>40184</x:v>
+        <x:v>40175</x:v>
       </x:c>
       <x:c r="M23" s="3" t="n">
-        <x:v>43543</x:v>
+        <x:v>43533</x:v>
       </x:c>
       <x:c r="N23" s="3" t="n">
-        <x:v>34280</x:v>
+        <x:v>34271</x:v>
       </x:c>
       <x:c r="O23" s="3" t="n">
-        <x:v>33415</x:v>
+        <x:v>33407</x:v>
       </x:c>
       <x:c r="P23" s="3" t="n">
-        <x:v>39340</x:v>
+        <x:v>39331</x:v>
       </x:c>
       <x:c r="Q23" s="3" t="n">
-        <x:v>40675</x:v>
+        <x:v>40666</x:v>
       </x:c>
       <x:c r="R23" s="3" t="n">
-        <x:v>36984</x:v>
+        <x:v>36974</x:v>
       </x:c>
       <x:c r="S23" s="3" t="n">
-        <x:v>33656</x:v>
+        <x:v>33648</x:v>
       </x:c>
       <x:c r="T23" s="3" t="n">
-        <x:v>39152</x:v>
+        <x:v>39142</x:v>
       </x:c>
       <x:c r="U23" s="3" t="n">
-        <x:v>45225</x:v>
+        <x:v>45215</x:v>
       </x:c>
       <x:c r="V23" s="3" t="n">
-        <x:v>41161</x:v>
+        <x:v>41151</x:v>
       </x:c>
       <x:c r="W23" s="3" t="n">
-        <x:v>37222</x:v>
+        <x:v>37213</x:v>
       </x:c>
       <x:c r="X23" s="3" t="n">
-        <x:v>41821</x:v>
+        <x:v>41811</x:v>
       </x:c>
       <x:c r="Y23" s="3" t="n">
-        <x:v>46431</x:v>
+        <x:v>46420</x:v>
       </x:c>
       <x:c r="Z23" s="3" t="n">
-        <x:v>42583</x:v>
+        <x:v>42573</x:v>
       </x:c>
       <x:c r="AA23" s="3" t="n">
-        <x:v>35608</x:v>
+        <x:v>35599</x:v>
       </x:c>
       <x:c r="AB23" s="3" t="n">
-        <x:v>45201</x:v>
+        <x:v>45190</x:v>
       </x:c>
       <x:c r="AC23" s="3" t="n">
-        <x:v>46173</x:v>
+        <x:v>46162</x:v>
       </x:c>
       <x:c r="AD23" s="3" t="n">
-        <x:v>42827</x:v>
+        <x:v>42817</x:v>
       </x:c>
       <x:c r="AE23" s="3" t="n">
-        <x:v>35898</x:v>
+        <x:v>35890</x:v>
       </x:c>
       <x:c r="AF23" s="3" t="n">
-        <x:v>44551</x:v>
+        <x:v>44540</x:v>
       </x:c>
       <x:c r="AG23" s="3" t="n">
-        <x:v>52667</x:v>
+        <x:v>52655</x:v>
       </x:c>
       <x:c r="AH23" s="3" t="n">
-        <x:v>49713</x:v>
+        <x:v>49700</x:v>
       </x:c>
       <x:c r="AI23" s="3" t="n">
-        <x:v>42475</x:v>
+        <x:v>42465</x:v>
       </x:c>
       <x:c r="AJ23" s="3" t="n">
-        <x:v>48923</x:v>
+        <x:v>48911</x:v>
       </x:c>
       <x:c r="AK23" s="3" t="n">
-        <x:v>54248</x:v>
+        <x:v>54235</x:v>
       </x:c>
       <x:c r="AL23" s="3" t="n">
-        <x:v>49127</x:v>
+        <x:v>49115</x:v>
       </x:c>
       <x:c r="AM23" s="3" t="n">
-        <x:v>47730</x:v>
+        <x:v>47719</x:v>
       </x:c>
       <x:c r="AN23" s="3" t="n">
-        <x:v>54024</x:v>
+        <x:v>54011</x:v>
       </x:c>
       <x:c r="AO23" s="3" t="n">
-        <x:v>58806</x:v>
+        <x:v>58792</x:v>
       </x:c>
       <x:c r="AP23" s="3" t="n">
-        <x:v>55128</x:v>
+        <x:v>55113</x:v>
       </x:c>
       <x:c r="AQ23" s="3" t="n">
-        <x:v>50930</x:v>
+        <x:v>50917</x:v>
       </x:c>
       <x:c r="AR23" s="3" t="n">
-        <x:v>58112</x:v>
+        <x:v>58098</x:v>
       </x:c>
       <x:c r="AS23" s="3" t="n">
-        <x:v>62085</x:v>
+        <x:v>62070</x:v>
       </x:c>
       <x:c r="AT23" s="3" t="n">
-        <x:v>58134</x:v>
+        <x:v>58120</x:v>
       </x:c>
       <x:c r="AU23" s="3" t="n">
-        <x:v>47048</x:v>
+        <x:v>47037</x:v>
       </x:c>
       <x:c r="AV23" s="3" t="n">
-        <x:v>51914</x:v>
+        <x:v>51901</x:v>
       </x:c>
       <x:c r="AW23" s="3" t="n">
-        <x:v>62307</x:v>
+        <x:v>62292</x:v>
       </x:c>
       <x:c r="AX23" s="3" t="n">
-        <x:v>57169</x:v>
+        <x:v>57154</x:v>
       </x:c>
       <x:c r="AY23" s="3" t="n">
-        <x:v>53827</x:v>
+        <x:v>53814</x:v>
       </x:c>
       <x:c r="AZ23" s="3" t="n">
-        <x:v>56974</x:v>
+        <x:v>56960</x:v>
       </x:c>
       <x:c r="BA23" s="3" t="n">
-        <x:v>68971</x:v>
+        <x:v>68954</x:v>
       </x:c>
       <x:c r="BB23" s="3" t="n">
-        <x:v>57119</x:v>
+        <x:v>57104</x:v>
       </x:c>
       <x:c r="BC23" s="3" t="n">
-        <x:v>47811</x:v>
+        <x:v>47798</x:v>
       </x:c>
       <x:c r="BD23" s="3" t="n">
-        <x:v>47976</x:v>
+        <x:v>47964</x:v>
       </x:c>
       <x:c r="BE23" s="3" t="n">
-        <x:v>53140</x:v>
+        <x:v>53127</x:v>
       </x:c>
       <x:c r="BF23" s="3" t="n">
-        <x:v>51151</x:v>
+        <x:v>51139</x:v>
       </x:c>
       <x:c r="BG23" s="3" t="n">
-        <x:v>50929</x:v>
+        <x:v>50916</x:v>
       </x:c>
       <x:c r="BH23" s="3" t="n">
-        <x:v>52780</x:v>
+        <x:v>52766</x:v>
       </x:c>
       <x:c r="BI23" s="3" t="n">
-        <x:v>57602</x:v>
+        <x:v>57587</x:v>
       </x:c>
       <x:c r="BJ23" s="3" t="n">
-        <x:v>55054</x:v>
+        <x:v>55042</x:v>
       </x:c>
       <x:c r="BK23" s="3" t="n">
-        <x:v>53810</x:v>
+        <x:v>53797</x:v>
       </x:c>
       <x:c r="BL23" s="3" t="n">
-        <x:v>54755</x:v>
+        <x:v>54742</x:v>
       </x:c>
       <x:c r="BM23" s="3" t="n">
-        <x:v>59727</x:v>
+        <x:v>59712</x:v>
       </x:c>
       <x:c r="BN23" s="3" t="n">
-        <x:v>56947</x:v>
+        <x:v>56932</x:v>
       </x:c>
       <x:c r="BO23" s="3" t="n">
-        <x:v>56497</x:v>
+        <x:v>56483</x:v>
       </x:c>
       <x:c r="BP23" s="3" t="n">
-        <x:v>57017</x:v>
+        <x:v>57003</x:v>
       </x:c>
       <x:c r="BQ23" s="3" t="n">
-        <x:v>62146</x:v>
+        <x:v>62130</x:v>
       </x:c>
       <x:c r="BR23" s="3" t="n">
-        <x:v>61747</x:v>
+        <x:v>61732</x:v>
       </x:c>
       <x:c r="BS23" s="3" t="n">
-        <x:v>62456</x:v>
+        <x:v>62440</x:v>
       </x:c>
       <x:c r="BT23" s="3" t="n">
-        <x:v>66857</x:v>
+        <x:v>66840</x:v>
       </x:c>
       <x:c r="BU23" s="3" t="n">
-        <x:v>73128</x:v>
+        <x:v>73110</x:v>
       </x:c>
       <x:c r="BV23" s="3" t="n">
-        <x:v>72306</x:v>
+        <x:v>72288</x:v>
       </x:c>
       <x:c r="BW23" s="3" t="n">
-        <x:v>73635</x:v>
+        <x:v>73616</x:v>
       </x:c>
       <x:c r="BX23" s="3" t="n">
-        <x:v>76204</x:v>
+        <x:v>76185</x:v>
       </x:c>
       <x:c r="BY23" s="3" t="n">
-        <x:v>78184</x:v>
+        <x:v>78164</x:v>
       </x:c>
       <x:c r="BZ23" s="3" t="n">
-        <x:v>80488</x:v>
+        <x:v>80469</x:v>
       </x:c>
       <x:c r="CA23" s="3" t="n">
-        <x:v>80234</x:v>
+        <x:v>80214</x:v>
       </x:c>
       <x:c r="CB23" s="3" t="n">
-        <x:v>81799</x:v>
+        <x:v>81779</x:v>
       </x:c>
       <x:c r="CC23" s="3" t="n">
-        <x:v>85366</x:v>
+        <x:v>85345</x:v>
       </x:c>
       <x:c r="CD23" s="3" t="n">
-        <x:v>86671</x:v>
+        <x:v>86648</x:v>
       </x:c>
       <x:c r="CE23" s="3" t="n">
-        <x:v>89120</x:v>
+        <x:v>89098</x:v>
       </x:c>
       <x:c r="CF23" s="3" t="n">
-        <x:v>90253</x:v>
+        <x:v>90230</x:v>
       </x:c>
       <x:c r="CG23" s="3" t="n">
-        <x:v>93794</x:v>
+        <x:v>93771</x:v>
       </x:c>
       <x:c r="CH23" s="3" t="n">
-        <x:v>95881</x:v>
+        <x:v>95856</x:v>
       </x:c>
       <x:c r="CI23" s="3" t="n">
-        <x:v>98072</x:v>
+        <x:v>98047</x:v>
       </x:c>
       <x:c r="CJ23" s="3" t="n">
-        <x:v>96299</x:v>
+        <x:v>96275</x:v>
       </x:c>
       <x:c r="CK23" s="3" t="n">
-        <x:v>95926</x:v>
+        <x:v>95901</x:v>
       </x:c>
       <x:c r="CL23" s="3" t="n">
-        <x:v>97948</x:v>
+        <x:v>97924</x:v>
       </x:c>
       <x:c r="CM23" s="3" t="n">
-        <x:v>94876</x:v>
+        <x:v>94852</x:v>
       </x:c>
       <x:c r="CN23" s="3" t="n">
-        <x:v>94431</x:v>
+        <x:v>94407</x:v>
       </x:c>
       <x:c r="CO23" s="3" t="n">
-        <x:v>91768</x:v>
+        <x:v>91745</x:v>
       </x:c>
       <x:c r="CP23" s="3" t="n">
-        <x:v>93823</x:v>
+        <x:v>93799</x:v>
       </x:c>
       <x:c r="CQ23" s="3" t="n">
-        <x:v>89114</x:v>
+        <x:v>89092</x:v>
       </x:c>
       <x:c r="CR23" s="3" t="n">
-        <x:v>90044</x:v>
+        <x:v>90021</x:v>
       </x:c>
       <x:c r="CS23" s="3" t="n">
-        <x:v>92123</x:v>
+        <x:v>92099</x:v>
       </x:c>
       <x:c r="CT23" s="3" t="n">
-        <x:v>97240</x:v>
+        <x:v>97216</x:v>
       </x:c>
       <x:c r="CU23" s="3" t="n">
-        <x:v>87716</x:v>
+        <x:v>87694</x:v>
       </x:c>
       <x:c r="CV23" s="3" t="n">
-        <x:v>96422</x:v>
+        <x:v>96398</x:v>
       </x:c>
       <x:c r="CW23" s="3" t="n">
-        <x:v>92869</x:v>
+        <x:v>92846</x:v>
       </x:c>
       <x:c r="CX23" s="3" t="n">
-        <x:v>105345</x:v>
+        <x:v>105318</x:v>
       </x:c>
       <x:c r="CY23" s="3" t="n">
-        <x:v>90951</x:v>
+        <x:v>90928</x:v>
       </x:c>
       <x:c r="CZ23" s="3" t="n">
-        <x:v>97807</x:v>
+        <x:v>97782</x:v>
       </x:c>
       <x:c r="DA23" s="3" t="n">
-        <x:v>102900</x:v>
+        <x:v>102875</x:v>
       </x:c>
       <x:c r="DB23" s="3" t="n">
-        <x:v>113514</x:v>
+        <x:v>113485</x:v>
       </x:c>
       <x:c r="DC23" s="3" t="n">
-        <x:v>100027</x:v>
+        <x:v>100002</x:v>
       </x:c>
       <x:c r="DD23" s="3" t="n">
-        <x:v>104765</x:v>
+        <x:v>104739</x:v>
       </x:c>
       <x:c r="DE23" s="3" t="n">
-        <x:v>105493</x:v>
+        <x:v>105466</x:v>
       </x:c>
       <x:c r="DF23" s="3" t="n">
-        <x:v>114796</x:v>
+        <x:v>114767</x:v>
       </x:c>
       <x:c r="DG23" s="3" t="n">
-        <x:v>106157</x:v>
+        <x:v>106131</x:v>
       </x:c>
       <x:c r="DH23" s="3" t="n">
-        <x:v>114486</x:v>
+        <x:v>114457</x:v>
       </x:c>
       <x:c r="DI23" s="3" t="n">
-        <x:v>116979</x:v>
+        <x:v>116950</x:v>
       </x:c>
       <x:c r="DJ23" s="3" t="n">
-        <x:v>128572</x:v>
+        <x:v>128539</x:v>
       </x:c>
       <x:c r="DK23" s="3" t="n">
-        <x:v>119304</x:v>
+        <x:v>119274</x:v>
       </x:c>
       <x:c r="DL23" s="3" t="n">
-        <x:v>122622</x:v>
+        <x:v>122591</x:v>
       </x:c>
       <x:c r="DM23" s="3" t="n">
-        <x:v>123586</x:v>
+        <x:v>123555</x:v>
       </x:c>
       <x:c r="DN23" s="3" t="n">
-        <x:v>127787</x:v>
+        <x:v>127755</x:v>
       </x:c>
       <x:c r="DO23" s="3" t="n">
-        <x:v>112782</x:v>
+        <x:v>112753</x:v>
       </x:c>
       <x:c r="DP23" s="3" t="n">
-        <x:v>113378</x:v>
+        <x:v>113349</x:v>
       </x:c>
       <x:c r="DQ23" s="3" t="n">
-        <x:v>113832</x:v>
+        <x:v>113804</x:v>
       </x:c>
       <x:c r="DR23" s="3" t="n">
-        <x:v>115424</x:v>
+        <x:v>115395</x:v>
       </x:c>
       <x:c r="DS23" s="3" t="n">
-        <x:v>109605</x:v>
+        <x:v>109577</x:v>
       </x:c>
       <x:c r="DT23" s="3" t="n">
-        <x:v>113152</x:v>
+        <x:v>113124</x:v>
       </x:c>
       <x:c r="DU23" s="3" t="n">
-        <x:v>120352</x:v>
+        <x:v>120321</x:v>
       </x:c>
       <x:c r="DV23" s="3" t="n">
-        <x:v>123033</x:v>
+        <x:v>123002</x:v>
       </x:c>
       <x:c r="DW23" s="3" t="n">
-        <x:v>114945</x:v>
+        <x:v>114916</x:v>
       </x:c>
       <x:c r="DX23" s="3" t="n">
-        <x:v>117271</x:v>
+        <x:v>117242</x:v>
       </x:c>
       <x:c r="DY23" s="3" t="n">
-        <x:v>122107</x:v>
+        <x:v>122076</x:v>
       </x:c>
       <x:c r="DZ23" s="3" t="n">
-        <x:v>127232</x:v>
+        <x:v>127199</x:v>
       </x:c>
       <x:c r="EA23" s="3" t="n">
-        <x:v>121783</x:v>
+        <x:v>121752</x:v>
       </x:c>
       <x:c r="EB23" s="3" t="n">
-        <x:v>123922</x:v>
+        <x:v>123890</x:v>
       </x:c>
       <x:c r="EC23" s="3" t="n">
-        <x:v>124098</x:v>
+        <x:v>124066</x:v>
       </x:c>
       <x:c r="ED23" s="3" t="n">
-        <x:v>129594</x:v>
+        <x:v>129562</x:v>
       </x:c>
       <x:c r="EE23" s="3" t="n">
-        <x:v>120380</x:v>
+        <x:v>120350</x:v>
       </x:c>
       <x:c r="EF23" s="3" t="n">
-        <x:v>130395</x:v>
+        <x:v>130362</x:v>
       </x:c>
       <x:c r="EG23" s="3" t="n">
-        <x:v>130432</x:v>
+        <x:v>130399</x:v>
       </x:c>
       <x:c r="EH23" s="3" t="n">
-        <x:v>136317</x:v>
+        <x:v>136281</x:v>
       </x:c>
       <x:c r="EI23" s="3" t="n">
-        <x:v>131634</x:v>
+        <x:v>131601</x:v>
       </x:c>
       <x:c r="EJ23" s="3" t="n">
-        <x:v>139137</x:v>
+        <x:v>139101</x:v>
       </x:c>
       <x:c r="EK23" s="3" t="n">
-        <x:v>139129</x:v>
+        <x:v>139093</x:v>
       </x:c>
       <x:c r="EL23" s="3" t="n">
-        <x:v>159347</x:v>
+        <x:v>159306</x:v>
       </x:c>
       <x:c r="EM23" s="3" t="n">
-        <x:v>140601</x:v>
+        <x:v>140565</x:v>
       </x:c>
       <x:c r="EN23" s="3" t="n">
-        <x:v>145992</x:v>
+        <x:v>145955</x:v>
       </x:c>
       <x:c r="EO23" s="3" t="n">
-        <x:v>149232</x:v>
+        <x:v>149193</x:v>
       </x:c>
       <x:c r="EP23" s="3" t="n">
-        <x:v>165006</x:v>
+        <x:v>164964</x:v>
       </x:c>
       <x:c r="EQ23" s="3" t="n">
-        <x:v>142211</x:v>
+        <x:v>142174</x:v>
       </x:c>
       <x:c r="ER23" s="3" t="n">
-        <x:v>149999</x:v>
+        <x:v>149961</x:v>
       </x:c>
       <x:c r="ES23" s="3" t="n">
-        <x:v>154916</x:v>
+        <x:v>154876</x:v>
       </x:c>
       <x:c r="ET23" s="3" t="n">
-        <x:v>161322</x:v>
+        <x:v>161281</x:v>
       </x:c>
       <x:c r="EU23" s="3" t="n">
-        <x:v>152710</x:v>
+        <x:v>152671</x:v>
       </x:c>
       <x:c r="EV23" s="3" t="n">
-        <x:v>163755</x:v>
+        <x:v>163713</x:v>
       </x:c>
       <x:c r="EW23" s="3" t="n">
-        <x:v>167919</x:v>
+        <x:v>167876</x:v>
       </x:c>
       <x:c r="EX23" s="3" t="n">
-        <x:v>170423</x:v>
+        <x:v>170379</x:v>
       </x:c>
       <x:c r="EY23" s="3" t="n">
-        <x:v>156840</x:v>
+        <x:v>156800</x:v>
       </x:c>
       <x:c r="EZ23" s="3" t="n">
-        <x:v>157015</x:v>
+        <x:v>156975</x:v>
       </x:c>
       <x:c r="FA23" s="3" t="n">
-        <x:v>166762</x:v>
+        <x:v>166719</x:v>
       </x:c>
       <x:c r="FB23" s="3" t="n">
-        <x:v>177704</x:v>
+        <x:v>177658</x:v>
       </x:c>
       <x:c r="FC23" s="3" t="n">
-        <x:v>167458</x:v>
+        <x:v>167415</x:v>
       </x:c>
       <x:c r="FD23" s="3" t="n">
-        <x:v>173476</x:v>
+        <x:v>173431</x:v>
       </x:c>
       <x:c r="FE23" s="3" t="n">
-        <x:v>177753</x:v>
+        <x:v>177707</x:v>
       </x:c>
       <x:c r="FF23" s="3" t="n">
-        <x:v>180684</x:v>
+        <x:v>180639</x:v>
       </x:c>
       <x:c r="FG23" s="3" t="n">
-        <x:v>167326</x:v>
+        <x:v>167013</x:v>
       </x:c>
       <x:c r="FH23" s="3" t="n">
-        <x:v>145477</x:v>
+        <x:v>145517</x:v>
       </x:c>
       <x:c r="FI23" s="3" t="n">
-        <x:v>150735</x:v>
+        <x:v>150889</x:v>
       </x:c>
       <x:c r="FJ23" s="3" t="n">
-        <x:v>172578</x:v>
+        <x:v>172387</x:v>
       </x:c>
       <x:c r="FK23" s="3" t="n">
-        <x:v>150004</x:v>
+        <x:v>150887</x:v>
       </x:c>
       <x:c r="FL23" s="3" t="n">
-        <x:v>160073</x:v>
+        <x:v>160699</x:v>
       </x:c>
       <x:c r="FM23" s="3" t="n">
-        <x:v>176587</x:v>
+        <x:v>177711</x:v>
+      </x:c>
+      <x:c r="FN23" s="3" t="n">
+        <x:v>194393</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:169">
+    <x:row r="24" spans="1:170">
       <x:c r="B24" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E24" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F24" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G24" s="3" t="n">
-        <x:v>480906</x:v>
+        <x:v>480904</x:v>
       </x:c>
       <x:c r="H24" s="3" t="n">
-        <x:v>495939</x:v>
+        <x:v>495938</x:v>
       </x:c>
       <x:c r="I24" s="3" t="n">
-        <x:v>449189</x:v>
+        <x:v>449188</x:v>
       </x:c>
       <x:c r="J24" s="3" t="n">
-        <x:v>495190</x:v>
+        <x:v>495189</x:v>
       </x:c>
       <x:c r="K24" s="3" t="n">
-        <x:v>486418</x:v>
+        <x:v>486417</x:v>
       </x:c>
       <x:c r="L24" s="3" t="n">
-        <x:v>498444</x:v>
+        <x:v>498443</x:v>
       </x:c>
       <x:c r="M24" s="3" t="n">
-        <x:v>451652</x:v>
+        <x:v>451651</x:v>
       </x:c>
       <x:c r="N24" s="3" t="n">
-        <x:v>503790</x:v>
+        <x:v>503788</x:v>
       </x:c>
       <x:c r="O24" s="3" t="n">
-        <x:v>480819</x:v>
+        <x:v>480818</x:v>
       </x:c>
       <x:c r="P24" s="3" t="n">
-        <x:v>489531</x:v>
+        <x:v>489530</x:v>
       </x:c>
       <x:c r="Q24" s="3" t="n">
-        <x:v>446676</x:v>
+        <x:v>446675</x:v>
       </x:c>
       <x:c r="R24" s="3" t="n">
-        <x:v>500711</x:v>
+        <x:v>500709</x:v>
       </x:c>
       <x:c r="S24" s="3" t="n">
-        <x:v>491582</x:v>
+        <x:v>491581</x:v>
       </x:c>
       <x:c r="T24" s="3" t="n">
-        <x:v>500464</x:v>
+        <x:v>500462</x:v>
       </x:c>
       <x:c r="U24" s="3" t="n">
-        <x:v>455316</x:v>
+        <x:v>455314</x:v>
       </x:c>
       <x:c r="V24" s="3" t="n">
-        <x:v>506920</x:v>
+        <x:v>506919</x:v>
       </x:c>
       <x:c r="W24" s="3" t="n">
-        <x:v>504650</x:v>
+        <x:v>504648</x:v>
       </x:c>
       <x:c r="X24" s="3" t="n">
-        <x:v>513697</x:v>
+        <x:v>513696</x:v>
       </x:c>
       <x:c r="Y24" s="3" t="n">
-        <x:v>462677</x:v>
+        <x:v>462676</x:v>
       </x:c>
       <x:c r="Z24" s="3" t="n">
-        <x:v>516118</x:v>
+        <x:v>516116</x:v>
       </x:c>
       <x:c r="AA24" s="3" t="n">
-        <x:v>516541</x:v>
+        <x:v>516540</x:v>
       </x:c>
       <x:c r="AB24" s="3" t="n">
-        <x:v>531788</x:v>
+        <x:v>531787</x:v>
       </x:c>
       <x:c r="AC24" s="3" t="n">
-        <x:v>485815</x:v>
+        <x:v>485813</x:v>
       </x:c>
       <x:c r="AD24" s="3" t="n">
-        <x:v>540379</x:v>
+        <x:v>540377</x:v>
       </x:c>
       <x:c r="AE24" s="3" t="n">
-        <x:v>535859</x:v>
+        <x:v>535857</x:v>
       </x:c>
       <x:c r="AF24" s="3" t="n">
-        <x:v>557117</x:v>
+        <x:v>557116</x:v>
       </x:c>
       <x:c r="AG24" s="3" t="n">
-        <x:v>496737</x:v>
+        <x:v>496735</x:v>
       </x:c>
       <x:c r="AH24" s="3" t="n">
-        <x:v>560713</x:v>
+        <x:v>560711</x:v>
       </x:c>
       <x:c r="AI24" s="3" t="n">
-        <x:v>558146</x:v>
+        <x:v>558145</x:v>
       </x:c>
       <x:c r="AJ24" s="3" t="n">
-        <x:v>565260</x:v>
+        <x:v>565258</x:v>
       </x:c>
       <x:c r="AK24" s="3" t="n">
-        <x:v>508401</x:v>
+        <x:v>508399</x:v>
       </x:c>
       <x:c r="AL24" s="3" t="n">
-        <x:v>565443</x:v>
+        <x:v>565441</x:v>
       </x:c>
       <x:c r="AM24" s="3" t="n">
-        <x:v>561772</x:v>
+        <x:v>561770</x:v>
       </x:c>
       <x:c r="AN24" s="3" t="n">
-        <x:v>576613</x:v>
+        <x:v>576611</x:v>
       </x:c>
       <x:c r="AO24" s="3" t="n">
-        <x:v>517065</x:v>
+        <x:v>517063</x:v>
       </x:c>
       <x:c r="AP24" s="3" t="n">
-        <x:v>575473</x:v>
+        <x:v>575472</x:v>
       </x:c>
       <x:c r="AQ24" s="3" t="n">
-        <x:v>568634</x:v>
+        <x:v>568632</x:v>
       </x:c>
       <x:c r="AR24" s="3" t="n">
-        <x:v>583701</x:v>
+        <x:v>583699</x:v>
       </x:c>
       <x:c r="AS24" s="3" t="n">
-        <x:v>521702</x:v>
+        <x:v>521700</x:v>
       </x:c>
       <x:c r="AT24" s="3" t="n">
-        <x:v>572066</x:v>
+        <x:v>572065</x:v>
       </x:c>
       <x:c r="AU24" s="3" t="n">
-        <x:v>570006</x:v>
+        <x:v>570004</x:v>
       </x:c>
       <x:c r="AV24" s="3" t="n">
-        <x:v>585304</x:v>
+        <x:v>585302</x:v>
       </x:c>
       <x:c r="AW24" s="3" t="n">
-        <x:v>531526</x:v>
+        <x:v>531524</x:v>
       </x:c>
       <x:c r="AX24" s="3" t="n">
-        <x:v>593603</x:v>
+        <x:v>593602</x:v>
       </x:c>
       <x:c r="AY24" s="3" t="n">
-        <x:v>580822</x:v>
+        <x:v>580820</x:v>
       </x:c>
       <x:c r="AZ24" s="3" t="n">
-        <x:v>589372</x:v>
+        <x:v>589370</x:v>
       </x:c>
       <x:c r="BA24" s="3" t="n">
-        <x:v>533115</x:v>
+        <x:v>533113</x:v>
       </x:c>
       <x:c r="BB24" s="3" t="n">
-        <x:v>574531</x:v>
+        <x:v>574530</x:v>
       </x:c>
       <x:c r="BC24" s="3" t="n">
-        <x:v>553437</x:v>
+        <x:v>553436</x:v>
       </x:c>
       <x:c r="BD24" s="3" t="n">
-        <x:v>568016</x:v>
+        <x:v>568014</x:v>
       </x:c>
       <x:c r="BE24" s="3" t="n">
-        <x:v>520135</x:v>
+        <x:v>520134</x:v>
       </x:c>
       <x:c r="BF24" s="3" t="n">
-        <x:v>594481</x:v>
+        <x:v>594479</x:v>
       </x:c>
       <x:c r="BG24" s="3" t="n">
-        <x:v>558904</x:v>
+        <x:v>558903</x:v>
       </x:c>
       <x:c r="BH24" s="3" t="n">
-        <x:v>569784</x:v>
+        <x:v>569782</x:v>
       </x:c>
       <x:c r="BI24" s="3" t="n">
-        <x:v>523825</x:v>
+        <x:v>523824</x:v>
       </x:c>
       <x:c r="BJ24" s="3" t="n">
-        <x:v>601489</x:v>
+        <x:v>601487</x:v>
       </x:c>
       <x:c r="BK24" s="3" t="n">
-        <x:v>564043</x:v>
+        <x:v>564042</x:v>
       </x:c>
       <x:c r="BL24" s="3" t="n">
-        <x:v>574643</x:v>
+        <x:v>574642</x:v>
       </x:c>
       <x:c r="BM24" s="3" t="n">
-        <x:v>528800</x:v>
+        <x:v>528799</x:v>
       </x:c>
       <x:c r="BN24" s="3" t="n">
-        <x:v>603272</x:v>
+        <x:v>603269</x:v>
       </x:c>
       <x:c r="BO24" s="3" t="n">
-        <x:v>566783</x:v>
+        <x:v>566782</x:v>
       </x:c>
       <x:c r="BP24" s="3" t="n">
-        <x:v>576058</x:v>
+        <x:v>576057</x:v>
       </x:c>
       <x:c r="BQ24" s="3" t="n">
-        <x:v>539984</x:v>
+        <x:v>539983</x:v>
       </x:c>
       <x:c r="BR24" s="3" t="n">
-        <x:v>613602</x:v>
+        <x:v>613599</x:v>
       </x:c>
       <x:c r="BS24" s="3" t="n">
-        <x:v>566051</x:v>
+        <x:v>566049</x:v>
       </x:c>
       <x:c r="BT24" s="3" t="n">
-        <x:v>594896</x:v>
+        <x:v>594895</x:v>
       </x:c>
       <x:c r="BU24" s="3" t="n">
-        <x:v>552138</x:v>
+        <x:v>552137</x:v>
       </x:c>
       <x:c r="BV24" s="3" t="n">
-        <x:v>624934</x:v>
+        <x:v>624932</x:v>
       </x:c>
       <x:c r="BW24" s="3" t="n">
-        <x:v>587958</x:v>
+        <x:v>587957</x:v>
       </x:c>
       <x:c r="BX24" s="3" t="n">
-        <x:v>606214</x:v>
+        <x:v>606213</x:v>
       </x:c>
       <x:c r="BY24" s="3" t="n">
-        <x:v>572063</x:v>
+        <x:v>572062</x:v>
       </x:c>
       <x:c r="BZ24" s="3" t="n">
-        <x:v>653406</x:v>
+        <x:v>653403</x:v>
       </x:c>
       <x:c r="CA24" s="3" t="n">
-        <x:v>609369</x:v>
+        <x:v>609367</x:v>
       </x:c>
       <x:c r="CB24" s="3" t="n">
-        <x:v>626486</x:v>
+        <x:v>626484</x:v>
       </x:c>
       <x:c r="CC24" s="3" t="n">
-        <x:v>585843</x:v>
+        <x:v>585841</x:v>
       </x:c>
       <x:c r="CD24" s="3" t="n">
         <x:v>677479</x:v>
       </x:c>
       <x:c r="CE24" s="3" t="n">
-        <x:v>635043</x:v>
+        <x:v>635041</x:v>
       </x:c>
       <x:c r="CF24" s="3" t="n">
-        <x:v>651699</x:v>
+        <x:v>651697</x:v>
       </x:c>
       <x:c r="CG24" s="3" t="n">
-        <x:v>608135</x:v>
+        <x:v>608134</x:v>
       </x:c>
       <x:c r="CH24" s="3" t="n">
-        <x:v>685868</x:v>
+        <x:v>685867</x:v>
       </x:c>
       <x:c r="CI24" s="3" t="n">
-        <x:v>644929</x:v>
+        <x:v>644928</x:v>
       </x:c>
       <x:c r="CJ24" s="3" t="n">
-        <x:v>655519</x:v>
+        <x:v>655518</x:v>
       </x:c>
       <x:c r="CK24" s="3" t="n">
-        <x:v>608822</x:v>
+        <x:v>608820</x:v>
       </x:c>
       <x:c r="CL24" s="3" t="n">
-        <x:v>687328</x:v>
+        <x:v>687326</x:v>
       </x:c>
       <x:c r="CM24" s="3" t="n">
-        <x:v>654149</x:v>
+        <x:v>654147</x:v>
       </x:c>
       <x:c r="CN24" s="3" t="n">
-        <x:v>672792</x:v>
+        <x:v>672791</x:v>
       </x:c>
       <x:c r="CO24" s="3" t="n">
-        <x:v>622499</x:v>
+        <x:v>622498</x:v>
       </x:c>
       <x:c r="CP24" s="3" t="n">
-        <x:v>704644</x:v>
+        <x:v>704642</x:v>
       </x:c>
       <x:c r="CQ24" s="3" t="n">
-        <x:v>662663</x:v>
+        <x:v>662661</x:v>
       </x:c>
       <x:c r="CR24" s="3" t="n">
-        <x:v>677508</x:v>
+        <x:v>677506</x:v>
       </x:c>
       <x:c r="CS24" s="3" t="n">
-        <x:v>633849</x:v>
+        <x:v>633848</x:v>
       </x:c>
       <x:c r="CT24" s="3" t="n">
-        <x:v>713443</x:v>
+        <x:v>713442</x:v>
       </x:c>
       <x:c r="CU24" s="3" t="n">
-        <x:v>677805</x:v>
+        <x:v>677803</x:v>
       </x:c>
       <x:c r="CV24" s="3" t="n">
-        <x:v>689843</x:v>
+        <x:v>689842</x:v>
       </x:c>
       <x:c r="CW24" s="3" t="n">
-        <x:v>640645</x:v>
+        <x:v>640643</x:v>
       </x:c>
       <x:c r="CX24" s="3" t="n">
-        <x:v>726233</x:v>
+        <x:v>726232</x:v>
       </x:c>
       <x:c r="CY24" s="3" t="n">
-        <x:v>681192</x:v>
+        <x:v>681191</x:v>
       </x:c>
       <x:c r="CZ24" s="3" t="n">
-        <x:v>710301</x:v>
+        <x:v>710300</x:v>
       </x:c>
       <x:c r="DA24" s="3" t="n">
-        <x:v>656715</x:v>
+        <x:v>656714</x:v>
       </x:c>
       <x:c r="DB24" s="3" t="n">
-        <x:v>744646</x:v>
+        <x:v>744643</x:v>
       </x:c>
       <x:c r="DC24" s="3" t="n">
-        <x:v>704303</x:v>
+        <x:v>704302</x:v>
       </x:c>
       <x:c r="DD24" s="3" t="n">
-        <x:v>723080</x:v>
+        <x:v>723078</x:v>
       </x:c>
       <x:c r="DE24" s="3" t="n">
-        <x:v>671220</x:v>
+        <x:v>671219</x:v>
       </x:c>
       <x:c r="DF24" s="3" t="n">
-        <x:v>764416</x:v>
+        <x:v>764414</x:v>
       </x:c>
       <x:c r="DG24" s="3" t="n">
-        <x:v>721857</x:v>
+        <x:v>721855</x:v>
       </x:c>
       <x:c r="DH24" s="3" t="n">
-        <x:v>742384</x:v>
+        <x:v>742382</x:v>
       </x:c>
       <x:c r="DI24" s="3" t="n">
-        <x:v>692353</x:v>
+        <x:v>692352</x:v>
       </x:c>
       <x:c r="DJ24" s="3" t="n">
-        <x:v>786118</x:v>
+        <x:v>786117</x:v>
       </x:c>
       <x:c r="DK24" s="3" t="n">
-        <x:v>732749</x:v>
+        <x:v>732747</x:v>
       </x:c>
       <x:c r="DL24" s="3" t="n">
-        <x:v>763654</x:v>
+        <x:v>763653</x:v>
       </x:c>
       <x:c r="DM24" s="3" t="n">
-        <x:v>695304</x:v>
+        <x:v>695303</x:v>
       </x:c>
       <x:c r="DN24" s="3" t="n">
-        <x:v>772221</x:v>
+        <x:v>772219</x:v>
       </x:c>
       <x:c r="DO24" s="3" t="n">
-        <x:v>738354</x:v>
+        <x:v>738353</x:v>
       </x:c>
       <x:c r="DP24" s="3" t="n">
-        <x:v>765687</x:v>
+        <x:v>765685</x:v>
       </x:c>
       <x:c r="DQ24" s="3" t="n">
-        <x:v>706993</x:v>
+        <x:v>706992</x:v>
       </x:c>
       <x:c r="DR24" s="3" t="n">
-        <x:v>796355</x:v>
+        <x:v>796353</x:v>
       </x:c>
       <x:c r="DS24" s="3" t="n">
-        <x:v>758572</x:v>
+        <x:v>758570</x:v>
       </x:c>
       <x:c r="DT24" s="3" t="n">
-        <x:v>789884</x:v>
+        <x:v>789882</x:v>
       </x:c>
       <x:c r="DU24" s="3" t="n">
-        <x:v>728834</x:v>
+        <x:v>728833</x:v>
       </x:c>
       <x:c r="DV24" s="3" t="n">
-        <x:v>825165</x:v>
+        <x:v>825163</x:v>
       </x:c>
       <x:c r="DW24" s="3" t="n">
-        <x:v>775314</x:v>
+        <x:v>775313</x:v>
       </x:c>
       <x:c r="DX24" s="3" t="n">
-        <x:v>807175</x:v>
+        <x:v>807173</x:v>
       </x:c>
       <x:c r="DY24" s="3" t="n">
-        <x:v>740009</x:v>
+        <x:v>740007</x:v>
       </x:c>
       <x:c r="DZ24" s="3" t="n">
-        <x:v>829583</x:v>
+        <x:v>829581</x:v>
       </x:c>
       <x:c r="EA24" s="3" t="n">
-        <x:v>786235</x:v>
+        <x:v>786233</x:v>
       </x:c>
       <x:c r="EB24" s="3" t="n">
-        <x:v>807708</x:v>
+        <x:v>807706</x:v>
       </x:c>
       <x:c r="EC24" s="3" t="n">
-        <x:v>746761</x:v>
+        <x:v>746759</x:v>
       </x:c>
       <x:c r="ED24" s="3" t="n">
-        <x:v>838476</x:v>
+        <x:v>838475</x:v>
       </x:c>
       <x:c r="EE24" s="3" t="n">
-        <x:v>793131</x:v>
+        <x:v>793130</x:v>
       </x:c>
       <x:c r="EF24" s="3" t="n">
-        <x:v>823992</x:v>
+        <x:v>823990</x:v>
       </x:c>
       <x:c r="EG24" s="3" t="n">
-        <x:v>761416</x:v>
+        <x:v>761414</x:v>
       </x:c>
       <x:c r="EH24" s="3" t="n">
-        <x:v>855378</x:v>
+        <x:v>855376</x:v>
       </x:c>
       <x:c r="EI24" s="3" t="n">
-        <x:v>808342</x:v>
+        <x:v>808340</x:v>
       </x:c>
       <x:c r="EJ24" s="3" t="n">
-        <x:v>843167</x:v>
+        <x:v>843165</x:v>
       </x:c>
       <x:c r="EK24" s="3" t="n">
-        <x:v>777873</x:v>
+        <x:v>777871</x:v>
       </x:c>
       <x:c r="EL24" s="3" t="n">
-        <x:v>878763</x:v>
+        <x:v>878762</x:v>
       </x:c>
       <x:c r="EM24" s="3" t="n">
-        <x:v>834596</x:v>
+        <x:v>834594</x:v>
       </x:c>
       <x:c r="EN24" s="3" t="n">
-        <x:v>866096</x:v>
+        <x:v>866095</x:v>
       </x:c>
       <x:c r="EO24" s="3" t="n">
-        <x:v>803838</x:v>
+        <x:v>803837</x:v>
       </x:c>
       <x:c r="EP24" s="3" t="n">
-        <x:v>912750</x:v>
+        <x:v>912747</x:v>
       </x:c>
       <x:c r="EQ24" s="3" t="n">
-        <x:v>857803</x:v>
+        <x:v>857801</x:v>
       </x:c>
       <x:c r="ER24" s="3" t="n">
-        <x:v>900582</x:v>
+        <x:v>900580</x:v>
       </x:c>
       <x:c r="ES24" s="3" t="n">
-        <x:v>823485</x:v>
+        <x:v>823484</x:v>
       </x:c>
       <x:c r="ET24" s="3" t="n">
-        <x:v>931567</x:v>
+        <x:v>931565</x:v>
       </x:c>
       <x:c r="EU24" s="3" t="n">
-        <x:v>880623</x:v>
+        <x:v>880622</x:v>
       </x:c>
       <x:c r="EV24" s="3" t="n">
-        <x:v>906705</x:v>
+        <x:v>906704</x:v>
       </x:c>
       <x:c r="EW24" s="3" t="n">
-        <x:v>837713</x:v>
+        <x:v>837712</x:v>
       </x:c>
       <x:c r="EX24" s="3" t="n">
-        <x:v>948107</x:v>
+        <x:v>948103</x:v>
       </x:c>
       <x:c r="EY24" s="3" t="n">
-        <x:v>891257</x:v>
+        <x:v>891255</x:v>
       </x:c>
       <x:c r="EZ24" s="3" t="n">
-        <x:v>929597</x:v>
+        <x:v>929595</x:v>
       </x:c>
       <x:c r="FA24" s="3" t="n">
-        <x:v>846779</x:v>
+        <x:v>846778</x:v>
       </x:c>
       <x:c r="FB24" s="3" t="n">
-        <x:v>958228</x:v>
+        <x:v>958226</x:v>
       </x:c>
       <x:c r="FC24" s="3" t="n">
-        <x:v>896405</x:v>
+        <x:v>896403</x:v>
       </x:c>
       <x:c r="FD24" s="3" t="n">
-        <x:v>925683</x:v>
+        <x:v>925681</x:v>
       </x:c>
       <x:c r="FE24" s="3" t="n">
-        <x:v>858576</x:v>
+        <x:v>858574</x:v>
       </x:c>
       <x:c r="FF24" s="3" t="n">
-        <x:v>965343</x:v>
+        <x:v>965342</x:v>
       </x:c>
       <x:c r="FG24" s="3" t="n">
-        <x:v>888798</x:v>
+        <x:v>888976</x:v>
       </x:c>
       <x:c r="FH24" s="3" t="n">
-        <x:v>865063</x:v>
+        <x:v>865050</x:v>
       </x:c>
       <x:c r="FI24" s="3" t="n">
-        <x:v>829291</x:v>
+        <x:v>829271</x:v>
       </x:c>
       <x:c r="FJ24" s="3" t="n">
-        <x:v>937405</x:v>
+        <x:v>937400</x:v>
       </x:c>
       <x:c r="FK24" s="3" t="n">
-        <x:v>886993</x:v>
+        <x:v>884354</x:v>
       </x:c>
       <x:c r="FL24" s="3" t="n">
-        <x:v>933170</x:v>
+        <x:v>931986</x:v>
       </x:c>
       <x:c r="FM24" s="3" t="n">
-        <x:v>874769</x:v>
+        <x:v>875201</x:v>
+      </x:c>
+      <x:c r="FN24" s="3" t="n">
+        <x:v>992076</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:169">
+    <x:row r="25" spans="1:170">
       <x:c r="B25" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C25" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D25" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E25" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F25" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G25" s="3" t="n">
-        <x:v>269332</x:v>
+        <x:v>269331</x:v>
       </x:c>
       <x:c r="H25" s="3" t="n">
-        <x:v>277468</x:v>
+        <x:v>277467</x:v>
       </x:c>
       <x:c r="I25" s="3" t="n">
         <x:v>258458</x:v>
       </x:c>
       <x:c r="J25" s="3" t="n">
-        <x:v>288780</x:v>
+        <x:v>288779</x:v>
       </x:c>
       <x:c r="K25" s="3" t="n">
-        <x:v>273204</x:v>
+        <x:v>273203</x:v>
       </x:c>
       <x:c r="L25" s="3" t="n">
-        <x:v>278742</x:v>
+        <x:v>278741</x:v>
       </x:c>
       <x:c r="M25" s="3" t="n">
-        <x:v>259316</x:v>
+        <x:v>259315</x:v>
       </x:c>
       <x:c r="N25" s="3" t="n">
         <x:v>293143</x:v>
       </x:c>
       <x:c r="O25" s="3" t="n">
-        <x:v>267064</x:v>
+        <x:v>267063</x:v>
       </x:c>
       <x:c r="P25" s="3" t="n">
-        <x:v>270358</x:v>
+        <x:v>270357</x:v>
       </x:c>
       <x:c r="Q25" s="3" t="n">
-        <x:v>254981</x:v>
+        <x:v>254980</x:v>
       </x:c>
       <x:c r="R25" s="3" t="n">
         <x:v>288062</x:v>
       </x:c>
       <x:c r="S25" s="3" t="n">
-        <x:v>274356</x:v>
+        <x:v>274355</x:v>
       </x:c>
       <x:c r="T25" s="3" t="n">
-        <x:v>277632</x:v>
+        <x:v>277631</x:v>
       </x:c>
       <x:c r="U25" s="3" t="n">
         <x:v>259408</x:v>
       </x:c>
       <x:c r="V25" s="3" t="n">
-        <x:v>289904</x:v>
+        <x:v>289903</x:v>
       </x:c>
       <x:c r="W25" s="3" t="n">
-        <x:v>283089</x:v>
+        <x:v>283088</x:v>
       </x:c>
       <x:c r="X25" s="3" t="n">
-        <x:v>285412</x:v>
+        <x:v>285411</x:v>
       </x:c>
       <x:c r="Y25" s="3" t="n">
-        <x:v>264827</x:v>
+        <x:v>264826</x:v>
       </x:c>
       <x:c r="Z25" s="3" t="n">
         <x:v>296742</x:v>
       </x:c>
       <x:c r="AA25" s="3" t="n">
-        <x:v>288658</x:v>
+        <x:v>288657</x:v>
       </x:c>
       <x:c r="AB25" s="3" t="n">
-        <x:v>298160</x:v>
+        <x:v>298159</x:v>
       </x:c>
       <x:c r="AC25" s="3" t="n">
-        <x:v>282460</x:v>
+        <x:v>282459</x:v>
       </x:c>
       <x:c r="AD25" s="3" t="n">
         <x:v>315597</x:v>
       </x:c>
       <x:c r="AE25" s="3" t="n">
-        <x:v>304005</x:v>
+        <x:v>304004</x:v>
       </x:c>
       <x:c r="AF25" s="3" t="n">
-        <x:v>319434</x:v>
+        <x:v>319433</x:v>
       </x:c>
       <x:c r="AG25" s="3" t="n">
         <x:v>291555</x:v>
       </x:c>
       <x:c r="AH25" s="3" t="n">
-        <x:v>329499</x:v>
+        <x:v>329498</x:v>
       </x:c>
       <x:c r="AI25" s="3" t="n">
-        <x:v>320914</x:v>
+        <x:v>320913</x:v>
       </x:c>
       <x:c r="AJ25" s="3" t="n">
-        <x:v>324400</x:v>
+        <x:v>324399</x:v>
       </x:c>
       <x:c r="AK25" s="3" t="n">
-        <x:v>301843</x:v>
+        <x:v>301842</x:v>
       </x:c>
       <x:c r="AL25" s="3" t="n">
-        <x:v>333489</x:v>
+        <x:v>333488</x:v>
       </x:c>
       <x:c r="AM25" s="3" t="n">
-        <x:v>320934</x:v>
+        <x:v>320933</x:v>
       </x:c>
       <x:c r="AN25" s="3" t="n">
-        <x:v>331216</x:v>
+        <x:v>331215</x:v>
       </x:c>
       <x:c r="AO25" s="3" t="n">
-        <x:v>305342</x:v>
+        <x:v>305341</x:v>
       </x:c>
       <x:c r="AP25" s="3" t="n">
-        <x:v>340469</x:v>
+        <x:v>340468</x:v>
       </x:c>
       <x:c r="AQ25" s="3" t="n">
-        <x:v>324882</x:v>
+        <x:v>324881</x:v>
       </x:c>
       <x:c r="AR25" s="3" t="n">
-        <x:v>332372</x:v>
+        <x:v>332371</x:v>
       </x:c>
       <x:c r="AS25" s="3" t="n">
-        <x:v>304571</x:v>
+        <x:v>304570</x:v>
       </x:c>
       <x:c r="AT25" s="3" t="n">
-        <x:v>330062</x:v>
+        <x:v>330061</x:v>
       </x:c>
       <x:c r="AU25" s="3" t="n">
-        <x:v>320597</x:v>
+        <x:v>320596</x:v>
       </x:c>
       <x:c r="AV25" s="3" t="n">
-        <x:v>329369</x:v>
+        <x:v>329368</x:v>
       </x:c>
       <x:c r="AW25" s="3" t="n">
-        <x:v>305875</x:v>
+        <x:v>305874</x:v>
       </x:c>
       <x:c r="AX25" s="3" t="n">
-        <x:v>338083</x:v>
+        <x:v>338082</x:v>
       </x:c>
       <x:c r="AY25" s="3" t="n">
-        <x:v>319183</x:v>
+        <x:v>319182</x:v>
       </x:c>
       <x:c r="AZ25" s="3" t="n">
-        <x:v>323309</x:v>
+        <x:v>323308</x:v>
       </x:c>
       <x:c r="BA25" s="3" t="n">
-        <x:v>305620</x:v>
+        <x:v>305619</x:v>
       </x:c>
       <x:c r="BB25" s="3" t="n">
-        <x:v>325854</x:v>
+        <x:v>325853</x:v>
       </x:c>
       <x:c r="BC25" s="3" t="n">
-        <x:v>296741</x:v>
+        <x:v>296740</x:v>
       </x:c>
       <x:c r="BD25" s="3" t="n">
-        <x:v>310656</x:v>
+        <x:v>310655</x:v>
       </x:c>
       <x:c r="BE25" s="3" t="n">
         <x:v>302589</x:v>
       </x:c>
       <x:c r="BF25" s="3" t="n">
-        <x:v>328309</x:v>
+        <x:v>328307</x:v>
       </x:c>
       <x:c r="BG25" s="3" t="n">
-        <x:v>304248</x:v>
+        <x:v>304247</x:v>
       </x:c>
       <x:c r="BH25" s="3" t="n">
-        <x:v>314298</x:v>
+        <x:v>314297</x:v>
       </x:c>
       <x:c r="BI25" s="3" t="n">
-        <x:v>306343</x:v>
+        <x:v>306342</x:v>
       </x:c>
       <x:c r="BJ25" s="3" t="n">
-        <x:v>335652</x:v>
+        <x:v>335651</x:v>
       </x:c>
       <x:c r="BK25" s="3" t="n">
-        <x:v>306821</x:v>
+        <x:v>306820</x:v>
       </x:c>
       <x:c r="BL25" s="3" t="n">
-        <x:v>320688</x:v>
+        <x:v>320687</x:v>
       </x:c>
       <x:c r="BM25" s="3" t="n">
-        <x:v>309769</x:v>
+        <x:v>309768</x:v>
       </x:c>
       <x:c r="BN25" s="3" t="n">
-        <x:v>335145</x:v>
+        <x:v>335144</x:v>
       </x:c>
       <x:c r="BO25" s="3" t="n">
-        <x:v>310271</x:v>
+        <x:v>310270</x:v>
       </x:c>
       <x:c r="BP25" s="3" t="n">
-        <x:v>323811</x:v>
+        <x:v>323810</x:v>
       </x:c>
       <x:c r="BQ25" s="3" t="n">
-        <x:v>318717</x:v>
+        <x:v>318716</x:v>
       </x:c>
       <x:c r="BR25" s="3" t="n">
-        <x:v>342733</x:v>
+        <x:v>342732</x:v>
       </x:c>
       <x:c r="BS25" s="3" t="n">
-        <x:v>316973</x:v>
+        <x:v>316972</x:v>
       </x:c>
       <x:c r="BT25" s="3" t="n">
-        <x:v>339649</x:v>
+        <x:v>339648</x:v>
       </x:c>
       <x:c r="BU25" s="3" t="n">
-        <x:v>325692</x:v>
+        <x:v>325691</x:v>
       </x:c>
       <x:c r="BV25" s="3" t="n">
-        <x:v>352855</x:v>
+        <x:v>352854</x:v>
       </x:c>
       <x:c r="BW25" s="3" t="n">
-        <x:v>326348</x:v>
+        <x:v>326347</x:v>
       </x:c>
       <x:c r="BX25" s="3" t="n">
-        <x:v>346584</x:v>
+        <x:v>346583</x:v>
       </x:c>
       <x:c r="BY25" s="3" t="n">
-        <x:v>337959</x:v>
+        <x:v>337958</x:v>
       </x:c>
       <x:c r="BZ25" s="3" t="n">
-        <x:v>368881</x:v>
+        <x:v>368880</x:v>
       </x:c>
       <x:c r="CA25" s="3" t="n">
-        <x:v>339407</x:v>
+        <x:v>339406</x:v>
       </x:c>
       <x:c r="CB25" s="3" t="n">
-        <x:v>358121</x:v>
+        <x:v>358120</x:v>
       </x:c>
       <x:c r="CC25" s="3" t="n">
-        <x:v>350306</x:v>
+        <x:v>350305</x:v>
       </x:c>
       <x:c r="CD25" s="3" t="n">
-        <x:v>388058</x:v>
+        <x:v>388057</x:v>
       </x:c>
       <x:c r="CE25" s="3" t="n">
-        <x:v>361234</x:v>
+        <x:v>361233</x:v>
       </x:c>
       <x:c r="CF25" s="3" t="n">
-        <x:v>383296</x:v>
+        <x:v>383295</x:v>
       </x:c>
       <x:c r="CG25" s="3" t="n">
-        <x:v>371626</x:v>
+        <x:v>371625</x:v>
       </x:c>
       <x:c r="CH25" s="3" t="n">
-        <x:v>397593</x:v>
+        <x:v>397591</x:v>
       </x:c>
       <x:c r="CI25" s="3" t="n">
-        <x:v>369197</x:v>
+        <x:v>369195</x:v>
       </x:c>
       <x:c r="CJ25" s="3" t="n">
-        <x:v>386159</x:v>
+        <x:v>386158</x:v>
       </x:c>
       <x:c r="CK25" s="3" t="n">
-        <x:v>374116</x:v>
+        <x:v>374115</x:v>
       </x:c>
       <x:c r="CL25" s="3" t="n">
-        <x:v>397061</x:v>
+        <x:v>397060</x:v>
       </x:c>
       <x:c r="CM25" s="3" t="n">
-        <x:v>375175</x:v>
+        <x:v>375174</x:v>
       </x:c>
       <x:c r="CN25" s="3" t="n">
-        <x:v>394718</x:v>
+        <x:v>394717</x:v>
       </x:c>
       <x:c r="CO25" s="3" t="n">
-        <x:v>382215</x:v>
+        <x:v>382214</x:v>
       </x:c>
       <x:c r="CP25" s="3" t="n">
-        <x:v>408979</x:v>
+        <x:v>408977</x:v>
       </x:c>
       <x:c r="CQ25" s="3" t="n">
-        <x:v>380355</x:v>
+        <x:v>380354</x:v>
       </x:c>
       <x:c r="CR25" s="3" t="n">
-        <x:v>398203</x:v>
+        <x:v>398202</x:v>
       </x:c>
       <x:c r="CS25" s="3" t="n">
-        <x:v>391341</x:v>
+        <x:v>391339</x:v>
       </x:c>
       <x:c r="CT25" s="3" t="n">
-        <x:v>416808</x:v>
+        <x:v>416807</x:v>
       </x:c>
       <x:c r="CU25" s="3" t="n">
-        <x:v>393244</x:v>
+        <x:v>393242</x:v>
       </x:c>
       <x:c r="CV25" s="3" t="n">
-        <x:v>408501</x:v>
+        <x:v>408500</x:v>
       </x:c>
       <x:c r="CW25" s="3" t="n">
-        <x:v>401678</x:v>
+        <x:v>401677</x:v>
       </x:c>
       <x:c r="CX25" s="3" t="n">
-        <x:v>428930</x:v>
+        <x:v>428929</x:v>
       </x:c>
       <x:c r="CY25" s="3" t="n">
-        <x:v>399169</x:v>
+        <x:v>399168</x:v>
       </x:c>
       <x:c r="CZ25" s="3" t="n">
-        <x:v>423376</x:v>
+        <x:v>423375</x:v>
       </x:c>
       <x:c r="DA25" s="3" t="n">
-        <x:v>416874</x:v>
+        <x:v>416873</x:v>
       </x:c>
       <x:c r="DB25" s="3" t="n">
-        <x:v>444381</x:v>
+        <x:v>444379</x:v>
       </x:c>
       <x:c r="DC25" s="3" t="n">
-        <x:v>413558</x:v>
+        <x:v>413556</x:v>
       </x:c>
       <x:c r="DD25" s="3" t="n">
-        <x:v>437459</x:v>
+        <x:v>437458</x:v>
       </x:c>
       <x:c r="DE25" s="3" t="n">
-        <x:v>426401</x:v>
+        <x:v>426400</x:v>
       </x:c>
       <x:c r="DF25" s="3" t="n">
-        <x:v>456786</x:v>
+        <x:v>456785</x:v>
       </x:c>
       <x:c r="DG25" s="3" t="n">
-        <x:v>428890</x:v>
+        <x:v>428888</x:v>
       </x:c>
       <x:c r="DH25" s="3" t="n">
-        <x:v>452257</x:v>
+        <x:v>452255</x:v>
       </x:c>
       <x:c r="DI25" s="3" t="n">
-        <x:v>446662</x:v>
+        <x:v>446660</x:v>
       </x:c>
       <x:c r="DJ25" s="3" t="n">
-        <x:v>475551</x:v>
+        <x:v>475552</x:v>
       </x:c>
       <x:c r="DK25" s="3" t="n">
-        <x:v>439436</x:v>
+        <x:v>439435</x:v>
       </x:c>
       <x:c r="DL25" s="3" t="n">
-        <x:v>464982</x:v>
+        <x:v>464981</x:v>
       </x:c>
       <x:c r="DM25" s="3" t="n">
-        <x:v>445503</x:v>
+        <x:v>445502</x:v>
       </x:c>
       <x:c r="DN25" s="3" t="n">
-        <x:v>460990</x:v>
+        <x:v>460988</x:v>
       </x:c>
       <x:c r="DO25" s="3" t="n">
-        <x:v>435961</x:v>
+        <x:v>435960</x:v>
       </x:c>
       <x:c r="DP25" s="3" t="n">
-        <x:v>466702</x:v>
+        <x:v>466701</x:v>
       </x:c>
       <x:c r="DQ25" s="3" t="n">
-        <x:v>452584</x:v>
+        <x:v>452583</x:v>
       </x:c>
       <x:c r="DR25" s="3" t="n">
-        <x:v>474462</x:v>
+        <x:v>474460</x:v>
       </x:c>
       <x:c r="DS25" s="3" t="n">
-        <x:v>455839</x:v>
+        <x:v>455838</x:v>
       </x:c>
       <x:c r="DT25" s="3" t="n">
-        <x:v>483203</x:v>
+        <x:v>483202</x:v>
       </x:c>
       <x:c r="DU25" s="3" t="n">
-        <x:v>471157</x:v>
+        <x:v>471156</x:v>
       </x:c>
       <x:c r="DV25" s="3" t="n">
-        <x:v>495794</x:v>
+        <x:v>495792</x:v>
       </x:c>
       <x:c r="DW25" s="3" t="n">
-        <x:v>468257</x:v>
+        <x:v>468256</x:v>
       </x:c>
       <x:c r="DX25" s="3" t="n">
-        <x:v>498982</x:v>
+        <x:v>498980</x:v>
       </x:c>
       <x:c r="DY25" s="3" t="n">
-        <x:v>478170</x:v>
+        <x:v>478169</x:v>
       </x:c>
       <x:c r="DZ25" s="3" t="n">
-        <x:v>498521</x:v>
+        <x:v>498520</x:v>
       </x:c>
       <x:c r="EA25" s="3" t="n">
-        <x:v>474441</x:v>
+        <x:v>474439</x:v>
       </x:c>
       <x:c r="EB25" s="3" t="n">
-        <x:v>498279</x:v>
+        <x:v>498278</x:v>
       </x:c>
       <x:c r="EC25" s="3" t="n">
-        <x:v>481199</x:v>
+        <x:v>481198</x:v>
       </x:c>
       <x:c r="ED25" s="3" t="n">
-        <x:v>504228</x:v>
+        <x:v>504227</x:v>
       </x:c>
       <x:c r="EE25" s="3" t="n">
-        <x:v>479137</x:v>
+        <x:v>479135</x:v>
       </x:c>
       <x:c r="EF25" s="3" t="n">
-        <x:v>507173</x:v>
+        <x:v>507171</x:v>
       </x:c>
       <x:c r="EG25" s="3" t="n">
-        <x:v>491596</x:v>
+        <x:v>491595</x:v>
       </x:c>
       <x:c r="EH25" s="3" t="n">
         <x:v>515360</x:v>
       </x:c>
       <x:c r="EI25" s="3" t="n">
-        <x:v>492641</x:v>
+        <x:v>492640</x:v>
       </x:c>
       <x:c r="EJ25" s="3" t="n">
-        <x:v>524529</x:v>
+        <x:v>524528</x:v>
       </x:c>
       <x:c r="EK25" s="3" t="n">
-        <x:v>502990</x:v>
+        <x:v>502989</x:v>
       </x:c>
       <x:c r="EL25" s="3" t="n">
-        <x:v>530488</x:v>
+        <x:v>530486</x:v>
       </x:c>
       <x:c r="EM25" s="3" t="n">
-        <x:v>511792</x:v>
+        <x:v>511791</x:v>
       </x:c>
       <x:c r="EN25" s="3" t="n">
-        <x:v>541034</x:v>
+        <x:v>541033</x:v>
       </x:c>
       <x:c r="EO25" s="3" t="n">
-        <x:v>524565</x:v>
+        <x:v>524564</x:v>
       </x:c>
       <x:c r="EP25" s="3" t="n">
-        <x:v>553750</x:v>
+        <x:v>553748</x:v>
       </x:c>
       <x:c r="EQ25" s="3" t="n">
-        <x:v>528166</x:v>
+        <x:v>528164</x:v>
       </x:c>
       <x:c r="ER25" s="3" t="n">
-        <x:v>554373</x:v>
+        <x:v>554371</x:v>
       </x:c>
       <x:c r="ES25" s="3" t="n">
-        <x:v>535697</x:v>
+        <x:v>535695</x:v>
       </x:c>
       <x:c r="ET25" s="3" t="n">
-        <x:v>561939</x:v>
+        <x:v>561940</x:v>
       </x:c>
       <x:c r="EU25" s="3" t="n">
-        <x:v>543139</x:v>
+        <x:v>543137</x:v>
       </x:c>
       <x:c r="EV25" s="3" t="n">
-        <x:v>568259</x:v>
+        <x:v>568258</x:v>
       </x:c>
       <x:c r="EW25" s="3" t="n">
-        <x:v>548777</x:v>
+        <x:v>548776</x:v>
       </x:c>
       <x:c r="EX25" s="3" t="n">
-        <x:v>576829</x:v>
+        <x:v>576828</x:v>
       </x:c>
       <x:c r="EY25" s="3" t="n">
-        <x:v>553149</x:v>
+        <x:v>553147</x:v>
       </x:c>
       <x:c r="EZ25" s="3" t="n">
-        <x:v>584551</x:v>
+        <x:v>584550</x:v>
       </x:c>
       <x:c r="FA25" s="3" t="n">
-        <x:v>556049</x:v>
+        <x:v>556048</x:v>
       </x:c>
       <x:c r="FB25" s="3" t="n">
-        <x:v>584629</x:v>
+        <x:v>584627</x:v>
       </x:c>
       <x:c r="FC25" s="3" t="n">
-        <x:v>551799</x:v>
+        <x:v>551798</x:v>
       </x:c>
       <x:c r="FD25" s="3" t="n">
-        <x:v>585211</x:v>
+        <x:v>585209</x:v>
       </x:c>
       <x:c r="FE25" s="3" t="n">
-        <x:v>565244</x:v>
+        <x:v>565242</x:v>
       </x:c>
       <x:c r="FF25" s="3" t="n">
-        <x:v>592533</x:v>
+        <x:v>592532</x:v>
       </x:c>
       <x:c r="FG25" s="3" t="n">
-        <x:v>548531</x:v>
+        <x:v>548709</x:v>
       </x:c>
       <x:c r="FH25" s="3" t="n">
-        <x:v>531572</x:v>
+        <x:v>531559</x:v>
       </x:c>
       <x:c r="FI25" s="3" t="n">
-        <x:v>540648</x:v>
+        <x:v>540628</x:v>
       </x:c>
       <x:c r="FJ25" s="3" t="n">
-        <x:v>566608</x:v>
+        <x:v>566603</x:v>
       </x:c>
       <x:c r="FK25" s="3" t="n">
-        <x:v>542570</x:v>
+        <x:v>541935</x:v>
       </x:c>
       <x:c r="FL25" s="3" t="n">
-        <x:v>578778</x:v>
+        <x:v>579852</x:v>
       </x:c>
       <x:c r="FM25" s="3" t="n">
-        <x:v>577121</x:v>
+        <x:v>578579</x:v>
+      </x:c>
+      <x:c r="FN25" s="3" t="n">
+        <x:v>613388</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:169">
+    <x:row r="26" spans="1:170">
       <x:c r="B26" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C26" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D26" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E26" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F26" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G26" s="3" t="n">
         <x:v>221659</x:v>
@@ -13215,30 +13280,33 @@
         <x:v>370797</x:v>
       </x:c>
       <x:c r="FK26" s="3" t="n">
-        <x:v>344423</x:v>
+        <x:v>342419</x:v>
       </x:c>
       <x:c r="FL26" s="3" t="n">
-        <x:v>354392</x:v>
+        <x:v>352134</x:v>
       </x:c>
       <x:c r="FM26" s="3" t="n">
-        <x:v>297648</x:v>
+        <x:v>296622</x:v>
+      </x:c>
+      <x:c r="FN26" s="3" t="n">
+        <x:v>378688</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:169">
+    <x:row r="27" spans="1:170">
       <x:c r="B27" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C27" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D27" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E27" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F27" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G27" s="3" t="n">
         <x:v>64425</x:v>
@@ -13721,30 +13789,33 @@
         <x:v>97446</x:v>
       </x:c>
       <x:c r="FK27" s="3" t="n">
-        <x:v>85768</x:v>
+        <x:v>85170</x:v>
       </x:c>
       <x:c r="FL27" s="3" t="n">
-        <x:v>93128</x:v>
+        <x:v>92175</x:v>
       </x:c>
       <x:c r="FM27" s="3" t="n">
-        <x:v>74759</x:v>
+        <x:v>74181</x:v>
+      </x:c>
+      <x:c r="FN27" s="3" t="n">
+        <x:v>100542</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:169">
+    <x:row r="28" spans="1:170">
       <x:c r="B28" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C28" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D28" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E28" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F28" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G28" s="3" t="n">
         <x:v>156077</x:v>
@@ -14227,30 +14298,33 @@
         <x:v>273351</x:v>
       </x:c>
       <x:c r="FK28" s="3" t="n">
-        <x:v>258655</x:v>
+        <x:v>257249</x:v>
       </x:c>
       <x:c r="FL28" s="3" t="n">
-        <x:v>261264</x:v>
+        <x:v>259959</x:v>
       </x:c>
       <x:c r="FM28" s="3" t="n">
-        <x:v>222889</x:v>
+        <x:v>222441</x:v>
+      </x:c>
+      <x:c r="FN28" s="3" t="n">
+        <x:v>278146</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:169">
+    <x:row r="29" spans="1:170">
       <x:c r="B29" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D29" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E29" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F29" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G29" s="3" t="n">
         <x:v>108638</x:v>
@@ -14733,30 +14807,33 @@
         <x:v>340574</x:v>
       </x:c>
       <x:c r="FK29" s="3" t="n">
-        <x:v>292460</x:v>
+        <x:v>297795</x:v>
       </x:c>
       <x:c r="FL29" s="3" t="n">
-        <x:v>346090</x:v>
+        <x:v>347489</x:v>
       </x:c>
       <x:c r="FM29" s="3" t="n">
-        <x:v>310333</x:v>
+        <x:v>305488</x:v>
+      </x:c>
+      <x:c r="FN29" s="3" t="n">
+        <x:v>360342</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:169">
+    <x:row r="30" spans="1:170">
       <x:c r="B30" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C30" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D30" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E30" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F30" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G30" s="3" t="n">
         <x:v>85767</x:v>
@@ -15239,30 +15316,33 @@
         <x:v>261281</x:v>
       </x:c>
       <x:c r="FK30" s="3" t="n">
-        <x:v>243874</x:v>
+        <x:v>250050</x:v>
       </x:c>
       <x:c r="FL30" s="3" t="n">
-        <x:v>289201</x:v>
+        <x:v>290992</x:v>
       </x:c>
       <x:c r="FM30" s="3" t="n">
-        <x:v>257605</x:v>
+        <x:v>253498</x:v>
+      </x:c>
+      <x:c r="FN30" s="3" t="n">
+        <x:v>283643</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:169">
+    <x:row r="31" spans="1:170">
       <x:c r="B31" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C31" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D31" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E31" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F31" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G31" s="3" t="n">
         <x:v>11731</x:v>
@@ -15748,27 +15828,30 @@
         <x:v>26423</x:v>
       </x:c>
       <x:c r="FL31" s="3" t="n">
-        <x:v>29710</x:v>
+        <x:v>29780</x:v>
       </x:c>
       <x:c r="FM31" s="3" t="n">
-        <x:v>28026</x:v>
+        <x:v>27886</x:v>
+      </x:c>
+      <x:c r="FN31" s="3" t="n">
+        <x:v>39885</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:169">
+    <x:row r="32" spans="1:170">
       <x:c r="B32" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="F32" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G32" s="3" t="n">
         <x:v>10720</x:v>
@@ -16251,1753 +16334,1761 @@
         <x:v>38989</x:v>
       </x:c>
       <x:c r="FK32" s="3" t="n">
-        <x:v>20736</x:v>
+        <x:v>19895</x:v>
       </x:c>
       <x:c r="FL32" s="3" t="n">
-        <x:v>25990</x:v>
+        <x:v>25523</x:v>
       </x:c>
       <x:c r="FM32" s="3" t="n">
-        <x:v>23503</x:v>
+        <x:v>22902</x:v>
+      </x:c>
+      <x:c r="FN32" s="3" t="n">
+        <x:v>35114</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:169">
+    <x:row r="33" spans="1:170">
       <x:c r="B33" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C33" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D33" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E33" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F33" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G33" s="3" t="n">
+        <x:v>92023</x:v>
+      </x:c>
+      <x:c r="H33" s="3" t="n">
+        <x:v>94139</x:v>
+      </x:c>
+      <x:c r="I33" s="3" t="n">
+        <x:v>88772</x:v>
+      </x:c>
+      <x:c r="J33" s="3" t="n">
+        <x:v>107969</x:v>
+      </x:c>
+      <x:c r="K33" s="3" t="n">
+        <x:v>99809</x:v>
+      </x:c>
+      <x:c r="L33" s="3" t="n">
+        <x:v>103121</x:v>
+      </x:c>
+      <x:c r="M33" s="3" t="n">
+        <x:v>93305</x:v>
+      </x:c>
+      <x:c r="N33" s="3" t="n">
+        <x:v>111936</x:v>
+      </x:c>
+      <x:c r="O33" s="3" t="n">
+        <x:v>109124</x:v>
+      </x:c>
+      <x:c r="P33" s="3" t="n">
+        <x:v>114183</x:v>
+      </x:c>
+      <x:c r="Q33" s="3" t="n">
+        <x:v>102098</x:v>
+      </x:c>
+      <x:c r="R33" s="3" t="n">
+        <x:v>122497</x:v>
+      </x:c>
+      <x:c r="S33" s="3" t="n">
+        <x:v>124266</x:v>
+      </x:c>
+      <x:c r="T33" s="3" t="n">
+        <x:v>119305</x:v>
+      </x:c>
+      <x:c r="U33" s="3" t="n">
+        <x:v>107785</x:v>
+      </x:c>
+      <x:c r="V33" s="3" t="n">
+        <x:v>128546</x:v>
+      </x:c>
+      <x:c r="W33" s="3" t="n">
+        <x:v>116382</x:v>
+      </x:c>
+      <x:c r="X33" s="3" t="n">
+        <x:v>122173</x:v>
+      </x:c>
+      <x:c r="Y33" s="3" t="n">
+        <x:v>117115</x:v>
+      </x:c>
+      <x:c r="Z33" s="3" t="n">
+        <x:v>130321</x:v>
+      </x:c>
+      <x:c r="AA33" s="3" t="n">
+        <x:v>120697</x:v>
+      </x:c>
+      <x:c r="AB33" s="3" t="n">
+        <x:v>131595</x:v>
+      </x:c>
+      <x:c r="AC33" s="3" t="n">
+        <x:v>117964</x:v>
+      </x:c>
+      <x:c r="AD33" s="3" t="n">
+        <x:v>133221</x:v>
+      </x:c>
+      <x:c r="AE33" s="3" t="n">
+        <x:v>126379</x:v>
+      </x:c>
+      <x:c r="AF33" s="3" t="n">
+        <x:v>131194</x:v>
+      </x:c>
+      <x:c r="AG33" s="3" t="n">
+        <x:v>120899</x:v>
+      </x:c>
+      <x:c r="AH33" s="3" t="n">
+        <x:v>145543</x:v>
+      </x:c>
+      <x:c r="AI33" s="3" t="n">
+        <x:v>130744</x:v>
+      </x:c>
+      <x:c r="AJ33" s="3" t="n">
+        <x:v>138772</x:v>
+      </x:c>
+      <x:c r="AK33" s="3" t="n">
+        <x:v>122712</x:v>
+      </x:c>
+      <x:c r="AL33" s="3" t="n">
+        <x:v>148936</x:v>
+      </x:c>
+      <x:c r="AM33" s="3" t="n">
+        <x:v>138123</x:v>
+      </x:c>
+      <x:c r="AN33" s="3" t="n">
+        <x:v>143503</x:v>
+      </x:c>
+      <x:c r="AO33" s="3" t="n">
+        <x:v>127888</x:v>
+      </x:c>
+      <x:c r="AP33" s="3" t="n">
+        <x:v>148266</x:v>
+      </x:c>
+      <x:c r="AQ33" s="3" t="n">
+        <x:v>144977</x:v>
+      </x:c>
+      <x:c r="AR33" s="3" t="n">
+        <x:v>145840</x:v>
+      </x:c>
+      <x:c r="AS33" s="3" t="n">
+        <x:v>128355</x:v>
+      </x:c>
+      <x:c r="AT33" s="3" t="n">
+        <x:v>150281</x:v>
+      </x:c>
+      <x:c r="AU33" s="3" t="n">
+        <x:v>139828</x:v>
+      </x:c>
+      <x:c r="AV33" s="3" t="n">
+        <x:v>145637</x:v>
+      </x:c>
+      <x:c r="AW33" s="3" t="n">
+        <x:v>125682</x:v>
+      </x:c>
+      <x:c r="AX33" s="3" t="n">
+        <x:v>147260</x:v>
+      </x:c>
+      <x:c r="AY33" s="3" t="n">
+        <x:v>146433</x:v>
+      </x:c>
+      <x:c r="AZ33" s="3" t="n">
+        <x:v>142947</x:v>
+      </x:c>
+      <x:c r="BA33" s="3" t="n">
+        <x:v>134574</x:v>
+      </x:c>
+      <x:c r="BB33" s="3" t="n">
+        <x:v>147032</x:v>
+      </x:c>
+      <x:c r="BC33" s="3" t="n">
+        <x:v>147134</x:v>
+      </x:c>
+      <x:c r="BD33" s="3" t="n">
+        <x:v>151996</x:v>
+      </x:c>
+      <x:c r="BE33" s="3" t="n">
+        <x:v>151049</x:v>
+      </x:c>
+      <x:c r="BF33" s="3" t="n">
+        <x:v>166530</x:v>
+      </x:c>
+      <x:c r="BG33" s="3" t="n">
+        <x:v>167778</x:v>
+      </x:c>
+      <x:c r="BH33" s="3" t="n">
+        <x:v>174873</x:v>
+      </x:c>
+      <x:c r="BI33" s="3" t="n">
+        <x:v>163804</x:v>
+      </x:c>
+      <x:c r="BJ33" s="3" t="n">
+        <x:v>194177</x:v>
+      </x:c>
+      <x:c r="BK33" s="3" t="n">
+        <x:v>196926</x:v>
+      </x:c>
+      <x:c r="BL33" s="3" t="n">
+        <x:v>198459</x:v>
+      </x:c>
+      <x:c r="BM33" s="3" t="n">
+        <x:v>181241</x:v>
+      </x:c>
+      <x:c r="BN33" s="3" t="n">
+        <x:v>203064</x:v>
+      </x:c>
+      <x:c r="BO33" s="3" t="n">
+        <x:v>199976</x:v>
+      </x:c>
+      <x:c r="BP33" s="3" t="n">
+        <x:v>207505</x:v>
+      </x:c>
+      <x:c r="BQ33" s="3" t="n">
+        <x:v>190351</x:v>
+      </x:c>
+      <x:c r="BR33" s="3" t="n">
+        <x:v>216270</x:v>
+      </x:c>
+      <x:c r="BS33" s="3" t="n">
+        <x:v>214951</x:v>
+      </x:c>
+      <x:c r="BT33" s="3" t="n">
+        <x:v>240037</x:v>
+      </x:c>
+      <x:c r="BU33" s="3" t="n">
+        <x:v>221873</x:v>
+      </x:c>
+      <x:c r="BV33" s="3" t="n">
+        <x:v>250675</x:v>
+      </x:c>
+      <x:c r="BW33" s="3" t="n">
+        <x:v>243196</x:v>
+      </x:c>
+      <x:c r="BX33" s="3" t="n">
+        <x:v>252456</x:v>
+      </x:c>
+      <x:c r="BY33" s="3" t="n">
+        <x:v>241768</x:v>
+      </x:c>
+      <x:c r="BZ33" s="3" t="n">
+        <x:v>272814</x:v>
+      </x:c>
+      <x:c r="CA33" s="3" t="n">
+        <x:v>257318</x:v>
+      </x:c>
+      <x:c r="CB33" s="3" t="n">
+        <x:v>272998</x:v>
+      </x:c>
+      <x:c r="CC33" s="3" t="n">
+        <x:v>261826</x:v>
+      </x:c>
+      <x:c r="CD33" s="3" t="n">
+        <x:v>290825</x:v>
+      </x:c>
+      <x:c r="CE33" s="3" t="n">
+        <x:v>286549</x:v>
+      </x:c>
+      <x:c r="CF33" s="3" t="n">
+        <x:v>304486</x:v>
+      </x:c>
+      <x:c r="CG33" s="3" t="n">
+        <x:v>294116</x:v>
+      </x:c>
+      <x:c r="CH33" s="3" t="n">
+        <x:v>328218</x:v>
+      </x:c>
+      <x:c r="CI33" s="3" t="n">
+        <x:v>307140</x:v>
+      </x:c>
+      <x:c r="CJ33" s="3" t="n">
+        <x:v>306700</x:v>
+      </x:c>
+      <x:c r="CK33" s="3" t="n">
+        <x:v>288523</x:v>
+      </x:c>
+      <x:c r="CL33" s="3" t="n">
+        <x:v>318172</x:v>
+      </x:c>
+      <x:c r="CM33" s="3" t="n">
+        <x:v>306530</x:v>
+      </x:c>
+      <x:c r="CN33" s="3" t="n">
+        <x:v>321979</x:v>
+      </x:c>
+      <x:c r="CO33" s="3" t="n">
+        <x:v>291080</x:v>
+      </x:c>
+      <x:c r="CP33" s="3" t="n">
+        <x:v>321681</x:v>
+      </x:c>
+      <x:c r="CQ33" s="3" t="n">
+        <x:v>313614</x:v>
+      </x:c>
+      <x:c r="CR33" s="3" t="n">
+        <x:v>326309</x:v>
+      </x:c>
+      <x:c r="CS33" s="3" t="n">
+        <x:v>312117</x:v>
+      </x:c>
+      <x:c r="CT33" s="3" t="n">
+        <x:v>342705</x:v>
+      </x:c>
+      <x:c r="CU33" s="3" t="n">
+        <x:v>343377</x:v>
+      </x:c>
+      <x:c r="CV33" s="3" t="n">
+        <x:v>371542</x:v>
+      </x:c>
+      <x:c r="CW33" s="3" t="n">
+        <x:v>345208</x:v>
+      </x:c>
+      <x:c r="CX33" s="3" t="n">
+        <x:v>380400</x:v>
+      </x:c>
+      <x:c r="CY33" s="3" t="n">
+        <x:v>357380</x:v>
+      </x:c>
+      <x:c r="CZ33" s="3" t="n">
+        <x:v>392347</x:v>
+      </x:c>
+      <x:c r="DA33" s="3" t="n">
+        <x:v>373518</x:v>
+      </x:c>
+      <x:c r="DB33" s="3" t="n">
+        <x:v>409461</x:v>
+      </x:c>
+      <x:c r="DC33" s="3" t="n">
+        <x:v>408089</x:v>
+      </x:c>
+      <x:c r="DD33" s="3" t="n">
+        <x:v>412549</x:v>
+      </x:c>
+      <x:c r="DE33" s="3" t="n">
+        <x:v>396896</x:v>
+      </x:c>
+      <x:c r="DF33" s="3" t="n">
+        <x:v>447200</x:v>
+      </x:c>
+      <x:c r="DG33" s="3" t="n">
+        <x:v>425840</x:v>
+      </x:c>
+      <x:c r="DH33" s="3" t="n">
+        <x:v>438712</x:v>
+      </x:c>
+      <x:c r="DI33" s="3" t="n">
+        <x:v>416839</x:v>
+      </x:c>
+      <x:c r="DJ33" s="3" t="n">
+        <x:v>459844</x:v>
+      </x:c>
+      <x:c r="DK33" s="3" t="n">
+        <x:v>449813</x:v>
+      </x:c>
+      <x:c r="DL33" s="3" t="n">
+        <x:v>466436</x:v>
+      </x:c>
+      <x:c r="DM33" s="3" t="n">
+        <x:v>428979</x:v>
+      </x:c>
+      <x:c r="DN33" s="3" t="n">
+        <x:v>428263</x:v>
+      </x:c>
+      <x:c r="DO33" s="3" t="n">
+        <x:v>377485</x:v>
+      </x:c>
+      <x:c r="DP33" s="3" t="n">
+        <x:v>378704</x:v>
+      </x:c>
+      <x:c r="DQ33" s="3" t="n">
+        <x:v>367366</x:v>
+      </x:c>
+      <x:c r="DR33" s="3" t="n">
+        <x:v>393524</x:v>
+      </x:c>
+      <x:c r="DS33" s="3" t="n">
+        <x:v>388145</x:v>
+      </x:c>
+      <x:c r="DT33" s="3" t="n">
+        <x:v>425760</x:v>
+      </x:c>
+      <x:c r="DU33" s="3" t="n">
+        <x:v>410443</x:v>
+      </x:c>
+      <x:c r="DV33" s="3" t="n">
+        <x:v>454258</x:v>
+      </x:c>
+      <x:c r="DW33" s="3" t="n">
+        <x:v>435928</x:v>
+      </x:c>
+      <x:c r="DX33" s="3" t="n">
+        <x:v>452170</x:v>
+      </x:c>
+      <x:c r="DY33" s="3" t="n">
+        <x:v>443145</x:v>
+      </x:c>
+      <x:c r="DZ33" s="3" t="n">
+        <x:v>460162</x:v>
+      </x:c>
+      <x:c r="EA33" s="3" t="n">
+        <x:v>451816</x:v>
+      </x:c>
+      <x:c r="EB33" s="3" t="n">
+        <x:v>467590</x:v>
+      </x:c>
+      <x:c r="EC33" s="3" t="n">
+        <x:v>435918</x:v>
+      </x:c>
+      <x:c r="ED33" s="3" t="n">
+        <x:v>456159</x:v>
+      </x:c>
+      <x:c r="EE33" s="3" t="n">
+        <x:v>434142</x:v>
+      </x:c>
+      <x:c r="EF33" s="3" t="n">
+        <x:v>458788</x:v>
+      </x:c>
+      <x:c r="EG33" s="3" t="n">
+        <x:v>437831</x:v>
+      </x:c>
+      <x:c r="EH33" s="3" t="n">
+        <x:v>460746</x:v>
+      </x:c>
+      <x:c r="EI33" s="3" t="n">
+        <x:v>452276</x:v>
+      </x:c>
+      <x:c r="EJ33" s="3" t="n">
+        <x:v>472894</x:v>
+      </x:c>
+      <x:c r="EK33" s="3" t="n">
+        <x:v>455341</x:v>
+      </x:c>
+      <x:c r="EL33" s="3" t="n">
+        <x:v>489213</x:v>
+      </x:c>
+      <x:c r="EM33" s="3" t="n">
+        <x:v>471270</x:v>
+      </x:c>
+      <x:c r="EN33" s="3" t="n">
+        <x:v>495357</x:v>
+      </x:c>
+      <x:c r="EO33" s="3" t="n">
+        <x:v>483904</x:v>
+      </x:c>
+      <x:c r="EP33" s="3" t="n">
+        <x:v>527638</x:v>
+      </x:c>
+      <x:c r="EQ33" s="3" t="n">
+        <x:v>485441</x:v>
+      </x:c>
+      <x:c r="ER33" s="3" t="n">
+        <x:v>511517</x:v>
+      </x:c>
+      <x:c r="ES33" s="3" t="n">
+        <x:v>487626</x:v>
+      </x:c>
+      <x:c r="ET33" s="3" t="n">
+        <x:v>541057</x:v>
+      </x:c>
+      <x:c r="EU33" s="3" t="n">
+        <x:v>502576</x:v>
+      </x:c>
+      <x:c r="EV33" s="3" t="n">
+        <x:v>532341</x:v>
+      </x:c>
+      <x:c r="EW33" s="3" t="n">
+        <x:v>507380</x:v>
+      </x:c>
+      <x:c r="EX33" s="3" t="n">
+        <x:v>567036</x:v>
+      </x:c>
+      <x:c r="EY33" s="3" t="n">
+        <x:v>532380</x:v>
+      </x:c>
+      <x:c r="EZ33" s="3" t="n">
+        <x:v>550381</x:v>
+      </x:c>
+      <x:c r="FA33" s="3" t="n">
+        <x:v>525936</x:v>
+      </x:c>
+      <x:c r="FB33" s="3" t="n">
+        <x:v>590219</x:v>
+      </x:c>
+      <x:c r="FC33" s="3" t="n">
+        <x:v>566823</x:v>
+      </x:c>
+      <x:c r="FD33" s="3" t="n">
+        <x:v>595449</x:v>
+      </x:c>
+      <x:c r="FE33" s="3" t="n">
+        <x:v>570245</x:v>
+      </x:c>
+      <x:c r="FF33" s="3" t="n">
+        <x:v>597762</x:v>
+      </x:c>
+      <x:c r="FG33" s="3" t="n">
+        <x:v>581461</x:v>
+      </x:c>
+      <x:c r="FH33" s="3" t="n">
+        <x:v>494193</x:v>
+      </x:c>
+      <x:c r="FI33" s="3" t="n">
+        <x:v>527455</x:v>
+      </x:c>
+      <x:c r="FJ33" s="3" t="n">
+        <x:v>620196</x:v>
+      </x:c>
+      <x:c r="FK33" s="3" t="n">
+        <x:v>583079</x:v>
+      </x:c>
+      <x:c r="FL33" s="3" t="n">
+        <x:v>597784</x:v>
+      </x:c>
+      <x:c r="FM33" s="3" t="n">
+        <x:v>558113</x:v>
+      </x:c>
+      <x:c r="FN33" s="3" t="n">
+        <x:v>650764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:170">
+      <x:c r="B34" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C34" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D34" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E34" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F34" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G34" s="3" t="n">
+        <x:v>71187</x:v>
+      </x:c>
+      <x:c r="H34" s="3" t="n">
+        <x:v>72143</x:v>
+      </x:c>
+      <x:c r="I34" s="3" t="n">
+        <x:v>64390</x:v>
+      </x:c>
+      <x:c r="J34" s="3" t="n">
+        <x:v>83611</x:v>
+      </x:c>
+      <x:c r="K34" s="3" t="n">
+        <x:v>76417</x:v>
+      </x:c>
+      <x:c r="L34" s="3" t="n">
+        <x:v>76760</x:v>
+      </x:c>
+      <x:c r="M34" s="3" t="n">
+        <x:v>65635</x:v>
+      </x:c>
+      <x:c r="N34" s="3" t="n">
+        <x:v>83854</x:v>
+      </x:c>
+      <x:c r="O34" s="3" t="n">
+        <x:v>84178</x:v>
+      </x:c>
+      <x:c r="P34" s="3" t="n">
+        <x:v>86058</x:v>
+      </x:c>
+      <x:c r="Q34" s="3" t="n">
+        <x:v>73636</x:v>
+      </x:c>
+      <x:c r="R34" s="3" t="n">
+        <x:v>95123</x:v>
+      </x:c>
+      <x:c r="S34" s="3" t="n">
+        <x:v>96602</x:v>
+      </x:c>
+      <x:c r="T34" s="3" t="n">
+        <x:v>89235</x:v>
+      </x:c>
+      <x:c r="U34" s="3" t="n">
+        <x:v>78802</x:v>
+      </x:c>
+      <x:c r="V34" s="3" t="n">
+        <x:v>100943</x:v>
+      </x:c>
+      <x:c r="W34" s="3" t="n">
+        <x:v>92823</x:v>
+      </x:c>
+      <x:c r="X34" s="3" t="n">
+        <x:v>94774</x:v>
+      </x:c>
+      <x:c r="Y34" s="3" t="n">
+        <x:v>86877</x:v>
+      </x:c>
+      <x:c r="Z34" s="3" t="n">
+        <x:v>102830</x:v>
+      </x:c>
+      <x:c r="AA34" s="3" t="n">
+        <x:v>94901</x:v>
+      </x:c>
+      <x:c r="AB34" s="3" t="n">
+        <x:v>102573</x:v>
+      </x:c>
+      <x:c r="AC34" s="3" t="n">
+        <x:v>87634</x:v>
+      </x:c>
+      <x:c r="AD34" s="3" t="n">
+        <x:v>104013</x:v>
+      </x:c>
+      <x:c r="AE34" s="3" t="n">
+        <x:v>99876</x:v>
+      </x:c>
+      <x:c r="AF34" s="3" t="n">
+        <x:v>101676</x:v>
+      </x:c>
+      <x:c r="AG34" s="3" t="n">
+        <x:v>89566</x:v>
+      </x:c>
+      <x:c r="AH34" s="3" t="n">
+        <x:v>112923</x:v>
+      </x:c>
+      <x:c r="AI34" s="3" t="n">
+        <x:v>102520</x:v>
+      </x:c>
+      <x:c r="AJ34" s="3" t="n">
+        <x:v>107236</x:v>
+      </x:c>
+      <x:c r="AK34" s="3" t="n">
+        <x:v>90629</x:v>
+      </x:c>
+      <x:c r="AL34" s="3" t="n">
+        <x:v>116476</x:v>
+      </x:c>
+      <x:c r="AM34" s="3" t="n">
+        <x:v>109046</x:v>
+      </x:c>
+      <x:c r="AN34" s="3" t="n">
+        <x:v>111094</x:v>
+      </x:c>
+      <x:c r="AO34" s="3" t="n">
+        <x:v>94110</x:v>
+      </x:c>
+      <x:c r="AP34" s="3" t="n">
+        <x:v>113857</x:v>
+      </x:c>
+      <x:c r="AQ34" s="3" t="n">
+        <x:v>111430</x:v>
+      </x:c>
+      <x:c r="AR34" s="3" t="n">
+        <x:v>110215</x:v>
+      </x:c>
+      <x:c r="AS34" s="3" t="n">
+        <x:v>92736</x:v>
+      </x:c>
+      <x:c r="AT34" s="3" t="n">
+        <x:v>114680</x:v>
+      </x:c>
+      <x:c r="AU34" s="3" t="n">
+        <x:v>107262</x:v>
+      </x:c>
+      <x:c r="AV34" s="3" t="n">
+        <x:v>110300</x:v>
+      </x:c>
+      <x:c r="AW34" s="3" t="n">
+        <x:v>91908</x:v>
+      </x:c>
+      <x:c r="AX34" s="3" t="n">
+        <x:v>111194</x:v>
+      </x:c>
+      <x:c r="AY34" s="3" t="n">
+        <x:v>111799</x:v>
+      </x:c>
+      <x:c r="AZ34" s="3" t="n">
+        <x:v>107056</x:v>
+      </x:c>
+      <x:c r="BA34" s="3" t="n">
+        <x:v>97595</x:v>
+      </x:c>
+      <x:c r="BB34" s="3" t="n">
+        <x:v>109583</x:v>
+      </x:c>
+      <x:c r="BC34" s="3" t="n">
+        <x:v>111055</x:v>
+      </x:c>
+      <x:c r="BD34" s="3" t="n">
+        <x:v>114135</x:v>
+      </x:c>
+      <x:c r="BE34" s="3" t="n">
+        <x:v>111792</x:v>
+      </x:c>
+      <x:c r="BF34" s="3" t="n">
+        <x:v>128463</x:v>
+      </x:c>
+      <x:c r="BG34" s="3" t="n">
+        <x:v>130251</x:v>
+      </x:c>
+      <x:c r="BH34" s="3" t="n">
+        <x:v>135335</x:v>
+      </x:c>
+      <x:c r="BI34" s="3" t="n">
+        <x:v>122663</x:v>
+      </x:c>
+      <x:c r="BJ34" s="3" t="n">
+        <x:v>153554</x:v>
+      </x:c>
+      <x:c r="BK34" s="3" t="n">
+        <x:v>158727</x:v>
+      </x:c>
+      <x:c r="BL34" s="3" t="n">
+        <x:v>156210</x:v>
+      </x:c>
+      <x:c r="BM34" s="3" t="n">
+        <x:v>139303</x:v>
+      </x:c>
+      <x:c r="BN34" s="3" t="n">
+        <x:v>163577</x:v>
+      </x:c>
+      <x:c r="BO34" s="3" t="n">
+        <x:v>159975</x:v>
+      </x:c>
+      <x:c r="BP34" s="3" t="n">
+        <x:v>165349</x:v>
+      </x:c>
+      <x:c r="BQ34" s="3" t="n">
+        <x:v>147836</x:v>
+      </x:c>
+      <x:c r="BR34" s="3" t="n">
+        <x:v>173801</x:v>
+      </x:c>
+      <x:c r="BS34" s="3" t="n">
+        <x:v>172946</x:v>
+      </x:c>
+      <x:c r="BT34" s="3" t="n">
+        <x:v>190159</x:v>
+      </x:c>
+      <x:c r="BU34" s="3" t="n">
+        <x:v>172135</x:v>
+      </x:c>
+      <x:c r="BV34" s="3" t="n">
+        <x:v>200077</x:v>
+      </x:c>
+      <x:c r="BW34" s="3" t="n">
+        <x:v>195645</x:v>
+      </x:c>
+      <x:c r="BX34" s="3" t="n">
+        <x:v>199880</x:v>
+      </x:c>
+      <x:c r="BY34" s="3" t="n">
+        <x:v>185772</x:v>
+      </x:c>
+      <x:c r="BZ34" s="3" t="n">
+        <x:v>216510</x:v>
+      </x:c>
+      <x:c r="CA34" s="3" t="n">
+        <x:v>204728</x:v>
+      </x:c>
+      <x:c r="CB34" s="3" t="n">
+        <x:v>213337</x:v>
+      </x:c>
+      <x:c r="CC34" s="3" t="n">
+        <x:v>200526</x:v>
+      </x:c>
+      <x:c r="CD34" s="3" t="n">
+        <x:v>229588</x:v>
+      </x:c>
+      <x:c r="CE34" s="3" t="n">
+        <x:v>228184</x:v>
+      </x:c>
+      <x:c r="CF34" s="3" t="n">
+        <x:v>239434</x:v>
+      </x:c>
+      <x:c r="CG34" s="3" t="n">
+        <x:v>225767</x:v>
+      </x:c>
+      <x:c r="CH34" s="3" t="n">
+        <x:v>254901</x:v>
+      </x:c>
+      <x:c r="CI34" s="3" t="n">
+        <x:v>238371</x:v>
+      </x:c>
+      <x:c r="CJ34" s="3" t="n">
+        <x:v>234024</x:v>
+      </x:c>
+      <x:c r="CK34" s="3" t="n">
+        <x:v>212662</x:v>
+      </x:c>
+      <x:c r="CL34" s="3" t="n">
+        <x:v>241458</x:v>
+      </x:c>
+      <x:c r="CM34" s="3" t="n">
+        <x:v>237816</x:v>
+      </x:c>
+      <x:c r="CN34" s="3" t="n">
+        <x:v>247042</x:v>
+      </x:c>
+      <x:c r="CO34" s="3" t="n">
+        <x:v>216211</x:v>
+      </x:c>
+      <x:c r="CP34" s="3" t="n">
+        <x:v>246174</x:v>
+      </x:c>
+      <x:c r="CQ34" s="3" t="n">
+        <x:v>242139</x:v>
+      </x:c>
+      <x:c r="CR34" s="3" t="n">
+        <x:v>251357</x:v>
+      </x:c>
+      <x:c r="CS34" s="3" t="n">
+        <x:v>235181</x:v>
+      </x:c>
+      <x:c r="CT34" s="3" t="n">
+        <x:v>261536</x:v>
+      </x:c>
+      <x:c r="CU34" s="3" t="n">
+        <x:v>266568</x:v>
+      </x:c>
+      <x:c r="CV34" s="3" t="n">
+        <x:v>285927</x:v>
+      </x:c>
+      <x:c r="CW34" s="3" t="n">
+        <x:v>257921</x:v>
+      </x:c>
+      <x:c r="CX34" s="3" t="n">
+        <x:v>289916</x:v>
+      </x:c>
+      <x:c r="CY34" s="3" t="n">
+        <x:v>277568</x:v>
+      </x:c>
+      <x:c r="CZ34" s="3" t="n">
+        <x:v>303495</x:v>
+      </x:c>
+      <x:c r="DA34" s="3" t="n">
+        <x:v>280372</x:v>
+      </x:c>
+      <x:c r="DB34" s="3" t="n">
+        <x:v>305725</x:v>
+      </x:c>
+      <x:c r="DC34" s="3" t="n">
+        <x:v>313569</x:v>
+      </x:c>
+      <x:c r="DD34" s="3" t="n">
+        <x:v>312489</x:v>
+      </x:c>
+      <x:c r="DE34" s="3" t="n">
+        <x:v>297005</x:v>
+      </x:c>
+      <x:c r="DF34" s="3" t="n">
+        <x:v>341292</x:v>
+      </x:c>
+      <x:c r="DG34" s="3" t="n">
+        <x:v>323354</x:v>
+      </x:c>
+      <x:c r="DH34" s="3" t="n">
+        <x:v>327022</x:v>
+      </x:c>
+      <x:c r="DI34" s="3" t="n">
+        <x:v>307526</x:v>
+      </x:c>
+      <x:c r="DJ34" s="3" t="n">
+        <x:v>344880</x:v>
+      </x:c>
+      <x:c r="DK34" s="3" t="n">
+        <x:v>341175</x:v>
+      </x:c>
+      <x:c r="DL34" s="3" t="n">
+        <x:v>351869</x:v>
+      </x:c>
+      <x:c r="DM34" s="3" t="n">
+        <x:v>315904</x:v>
+      </x:c>
+      <x:c r="DN34" s="3" t="n">
+        <x:v>305160</x:v>
+      </x:c>
+      <x:c r="DO34" s="3" t="n">
+        <x:v>268085</x:v>
+      </x:c>
+      <x:c r="DP34" s="3" t="n">
+        <x:v>265743</x:v>
+      </x:c>
+      <x:c r="DQ34" s="3" t="n">
+        <x:v>257522</x:v>
+      </x:c>
+      <x:c r="DR34" s="3" t="n">
+        <x:v>282549</x:v>
+      </x:c>
+      <x:c r="DS34" s="3" t="n">
+        <x:v>283783</x:v>
+      </x:c>
+      <x:c r="DT34" s="3" t="n">
+        <x:v>316713</x:v>
+      </x:c>
+      <x:c r="DU34" s="3" t="n">
+        <x:v>300089</x:v>
+      </x:c>
+      <x:c r="DV34" s="3" t="n">
+        <x:v>336435</x:v>
+      </x:c>
+      <x:c r="DW34" s="3" t="n">
+        <x:v>329001</x:v>
+      </x:c>
+      <x:c r="DX34" s="3" t="n">
+        <x:v>334675</x:v>
+      </x:c>
+      <x:c r="DY34" s="3" t="n">
+        <x:v>324654</x:v>
+      </x:c>
+      <x:c r="DZ34" s="3" t="n">
+        <x:v>332547</x:v>
+      </x:c>
+      <x:c r="EA34" s="3" t="n">
+        <x:v>336043</x:v>
+      </x:c>
+      <x:c r="EB34" s="3" t="n">
+        <x:v>342779</x:v>
+      </x:c>
+      <x:c r="EC34" s="3" t="n">
+        <x:v>315480</x:v>
+      </x:c>
+      <x:c r="ED34" s="3" t="n">
+        <x:v>327373</x:v>
+      </x:c>
+      <x:c r="EE34" s="3" t="n">
+        <x:v>313416</x:v>
+      </x:c>
+      <x:c r="EF34" s="3" t="n">
+        <x:v>330479</x:v>
+      </x:c>
+      <x:c r="EG34" s="3" t="n">
+        <x:v>308399</x:v>
+      </x:c>
+      <x:c r="EH34" s="3" t="n">
+        <x:v>325439</x:v>
+      </x:c>
+      <x:c r="EI34" s="3" t="n">
+        <x:v>326969</x:v>
+      </x:c>
+      <x:c r="EJ34" s="3" t="n">
+        <x:v>337582</x:v>
+      </x:c>
+      <x:c r="EK34" s="3" t="n">
+        <x:v>318285</x:v>
+      </x:c>
+      <x:c r="EL34" s="3" t="n">
+        <x:v>338849</x:v>
+      </x:c>
+      <x:c r="EM34" s="3" t="n">
+        <x:v>327715</x:v>
+      </x:c>
+      <x:c r="EN34" s="3" t="n">
+        <x:v>343962</x:v>
+      </x:c>
+      <x:c r="EO34" s="3" t="n">
+        <x:v>325961</x:v>
+      </x:c>
+      <x:c r="EP34" s="3" t="n">
+        <x:v>354873</x:v>
+      </x:c>
+      <x:c r="EQ34" s="3" t="n">
+        <x:v>342552</x:v>
+      </x:c>
+      <x:c r="ER34" s="3" t="n">
+        <x:v>355182</x:v>
+      </x:c>
+      <x:c r="ES34" s="3" t="n">
+        <x:v>327530</x:v>
+      </x:c>
+      <x:c r="ET34" s="3" t="n">
+        <x:v>363867</x:v>
+      </x:c>
+      <x:c r="EU34" s="3" t="n">
+        <x:v>361100</x:v>
+      </x:c>
+      <x:c r="EV34" s="3" t="n">
+        <x:v>372064</x:v>
+      </x:c>
+      <x:c r="EW34" s="3" t="n">
+        <x:v>348414</x:v>
+      </x:c>
+      <x:c r="EX34" s="3" t="n">
+        <x:v>394664</x:v>
+      </x:c>
+      <x:c r="EY34" s="3" t="n">
+        <x:v>384236</x:v>
+      </x:c>
+      <x:c r="EZ34" s="3" t="n">
+        <x:v>396900</x:v>
+      </x:c>
+      <x:c r="FA34" s="3" t="n">
+        <x:v>367787</x:v>
+      </x:c>
+      <x:c r="FB34" s="3" t="n">
+        <x:v>407352</x:v>
+      </x:c>
+      <x:c r="FC34" s="3" t="n">
+        <x:v>403316</x:v>
+      </x:c>
+      <x:c r="FD34" s="3" t="n">
+        <x:v>410232</x:v>
+      </x:c>
+      <x:c r="FE34" s="3" t="n">
+        <x:v>387592</x:v>
+      </x:c>
+      <x:c r="FF34" s="3" t="n">
+        <x:v>411556</x:v>
+      </x:c>
+      <x:c r="FG34" s="3" t="n">
+        <x:v>422255</x:v>
+      </x:c>
+      <x:c r="FH34" s="3" t="n">
+        <x:v>353317</x:v>
+      </x:c>
+      <x:c r="FI34" s="3" t="n">
+        <x:v>380907</x:v>
+      </x:c>
+      <x:c r="FJ34" s="3" t="n">
+        <x:v>435330</x:v>
+      </x:c>
+      <x:c r="FK34" s="3" t="n">
+        <x:v>432000</x:v>
+      </x:c>
+      <x:c r="FL34" s="3" t="n">
+        <x:v>439151</x:v>
+      </x:c>
+      <x:c r="FM34" s="3" t="n">
+        <x:v>393639</x:v>
+      </x:c>
+      <x:c r="FN34" s="3" t="n">
+        <x:v>455380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:170">
+      <x:c r="B35" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C35" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D35" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E35" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="F35" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G35" s="3" t="n">
+        <x:v>20594</x:v>
+      </x:c>
+      <x:c r="H35" s="3" t="n">
+        <x:v>22004</x:v>
+      </x:c>
+      <x:c r="I35" s="3" t="n">
+        <x:v>25759</x:v>
+      </x:c>
+      <x:c r="J35" s="3" t="n">
+        <x:v>24037</x:v>
+      </x:c>
+      <x:c r="K35" s="3" t="n">
+        <x:v>23429</x:v>
+      </x:c>
+      <x:c r="L35" s="3" t="n">
+        <x:v>27214</x:v>
+      </x:c>
+      <x:c r="M35" s="3" t="n">
+        <x:v>29858</x:v>
+      </x:c>
+      <x:c r="N35" s="3" t="n">
+        <x:v>28811</x:v>
+      </x:c>
+      <x:c r="O35" s="3" t="n">
+        <x:v>24572</x:v>
+      </x:c>
+      <x:c r="P35" s="3" t="n">
+        <x:v>28597</x:v>
+      </x:c>
+      <x:c r="Q35" s="3" t="n">
+        <x:v>30298</x:v>
+      </x:c>
+      <x:c r="R35" s="3" t="n">
+        <x:v>26686</x:v>
+      </x:c>
+      <x:c r="S35" s="3" t="n">
+        <x:v>27004</x:v>
+      </x:c>
+      <x:c r="T35" s="3" t="n">
+        <x:v>30821</x:v>
+      </x:c>
+      <x:c r="U35" s="3" t="n">
+        <x:v>30377</x:v>
+      </x:c>
+      <x:c r="V35" s="3" t="n">
+        <x:v>26518</x:v>
+      </x:c>
+      <x:c r="W35" s="3" t="n">
+        <x:v>21997</x:v>
+      </x:c>
+      <x:c r="X35" s="3" t="n">
+        <x:v>26822</x:v>
+      </x:c>
+      <x:c r="Y35" s="3" t="n">
+        <x:v>31269</x:v>
+      </x:c>
+      <x:c r="Z35" s="3" t="n">
+        <x:v>26183</x:v>
+      </x:c>
+      <x:c r="AA35" s="3" t="n">
+        <x:v>24736</x:v>
+      </x:c>
+      <x:c r="AB35" s="3" t="n">
+        <x:v>28211</x:v>
+      </x:c>
+      <x:c r="AC35" s="3" t="n">
+        <x:v>31263</x:v>
+      </x:c>
+      <x:c r="AD35" s="3" t="n">
+        <x:v>28319</x:v>
+      </x:c>
+      <x:c r="AE35" s="3" t="n">
+        <x:v>25146</x:v>
+      </x:c>
+      <x:c r="AF35" s="3" t="n">
+        <x:v>28927</x:v>
+      </x:c>
+      <x:c r="AG35" s="3" t="n">
+        <x:v>32474</x:v>
+      </x:c>
+      <x:c r="AH35" s="3" t="n">
+        <x:v>31913</x:v>
+      </x:c>
+      <x:c r="AI35" s="3" t="n">
+        <x:v>27188</x:v>
+      </x:c>
+      <x:c r="AJ35" s="3" t="n">
+        <x:v>31045</x:v>
+      </x:c>
+      <x:c r="AK35" s="3" t="n">
+        <x:v>33267</x:v>
+      </x:c>
+      <x:c r="AL35" s="3" t="n">
+        <x:v>31394</x:v>
+      </x:c>
+      <x:c r="AM35" s="3" t="n">
+        <x:v>27642</x:v>
+      </x:c>
+      <x:c r="AN35" s="3" t="n">
+        <x:v>31810</x:v>
+      </x:c>
+      <x:c r="AO35" s="3" t="n">
+        <x:v>35231</x:v>
+      </x:c>
+      <x:c r="AP35" s="3" t="n">
+        <x:v>34169</x:v>
+      </x:c>
+      <x:c r="AQ35" s="3" t="n">
+        <x:v>33273</x:v>
+      </x:c>
+      <x:c r="AR35" s="3" t="n">
+        <x:v>36072</x:v>
+      </x:c>
+      <x:c r="AS35" s="3" t="n">
+        <x:v>37655</x:v>
+      </x:c>
+      <x:c r="AT35" s="3" t="n">
+        <x:v>35636</x:v>
+      </x:c>
+      <x:c r="AU35" s="3" t="n">
+        <x:v>32330</x:v>
+      </x:c>
+      <x:c r="AV35" s="3" t="n">
+        <x:v>35677</x:v>
+      </x:c>
+      <x:c r="AW35" s="3" t="n">
+        <x:v>35422</x:v>
+      </x:c>
+      <x:c r="AX35" s="3" t="n">
+        <x:v>36546</x:v>
+      </x:c>
+      <x:c r="AY35" s="3" t="n">
+        <x:v>34769</x:v>
+      </x:c>
+      <x:c r="AZ35" s="3" t="n">
+        <x:v>36653</x:v>
+      </x:c>
+      <x:c r="BA35" s="3" t="n">
+        <x:v>38662</x:v>
+      </x:c>
+      <x:c r="BB35" s="3" t="n">
+        <x:v>38394</x:v>
+      </x:c>
+      <x:c r="BC35" s="3" t="n">
+        <x:v>36617</x:v>
+      </x:c>
+      <x:c r="BD35" s="3" t="n">
+        <x:v>38582</x:v>
+      </x:c>
+      <x:c r="BE35" s="3" t="n">
+        <x:v>40433</x:v>
+      </x:c>
+      <x:c r="BF35" s="3" t="n">
+        <x:v>37893</x:v>
+      </x:c>
+      <x:c r="BG35" s="3" t="n">
+        <x:v>37123</x:v>
+      </x:c>
+      <x:c r="BH35" s="3" t="n">
+        <x:v>39235</x:v>
+      </x:c>
+      <x:c r="BI35" s="3" t="n">
+        <x:v>42013</x:v>
+      </x:c>
+      <x:c r="BJ35" s="3" t="n">
+        <x:v>39362</x:v>
+      </x:c>
+      <x:c r="BK35" s="3" t="n">
+        <x:v>36018</x:v>
+      </x:c>
+      <x:c r="BL35" s="3" t="n">
+        <x:v>41141</x:v>
+      </x:c>
+      <x:c r="BM35" s="3" t="n">
+        <x:v>41902</x:v>
+      </x:c>
+      <x:c r="BN35" s="3" t="n">
+        <x:v>37263</x:v>
+      </x:c>
+      <x:c r="BO35" s="3" t="n">
+        <x:v>38093</x:v>
+      </x:c>
+      <x:c r="BP35" s="3" t="n">
+        <x:v>40383</x:v>
+      </x:c>
+      <x:c r="BQ35" s="3" t="n">
+        <x:v>42118</x:v>
+      </x:c>
+      <x:c r="BR35" s="3" t="n">
+        <x:v>40153</x:v>
+      </x:c>
+      <x:c r="BS35" s="3" t="n">
+        <x:v>39772</x:v>
+      </x:c>
+      <x:c r="BT35" s="3" t="n">
+        <x:v>48146</x:v>
+      </x:c>
+      <x:c r="BU35" s="3" t="n">
+        <x:v>49067</x:v>
+      </x:c>
+      <x:c r="BV35" s="3" t="n">
+        <x:v>48407</x:v>
+      </x:c>
+      <x:c r="BW35" s="3" t="n">
+        <x:v>45074</x:v>
+      </x:c>
+      <x:c r="BX35" s="3" t="n">
+        <x:v>50781</x:v>
+      </x:c>
+      <x:c r="BY35" s="3" t="n">
+        <x:v>55639</x:v>
+      </x:c>
+      <x:c r="BZ35" s="3" t="n">
+        <x:v>54238</x:v>
+      </x:c>
+      <x:c r="CA35" s="3" t="n">
+        <x:v>50556</x:v>
+      </x:c>
+      <x:c r="CB35" s="3" t="n">
+        <x:v>58341</x:v>
+      </x:c>
+      <x:c r="CC35" s="3" t="n">
+        <x:v>60922</x:v>
+      </x:c>
+      <x:c r="CD35" s="3" t="n">
+        <x:v>59327</x:v>
+      </x:c>
+      <x:c r="CE35" s="3" t="n">
+        <x:v>56180</x:v>
+      </x:c>
+      <x:c r="CF35" s="3" t="n">
+        <x:v>63289</x:v>
+      </x:c>
+      <x:c r="CG35" s="3" t="n">
+        <x:v>67660</x:v>
+      </x:c>
+      <x:c r="CH35" s="3" t="n">
+        <x:v>72005</x:v>
+      </x:c>
+      <x:c r="CI35" s="3" t="n">
+        <x:v>67504</x:v>
+      </x:c>
+      <x:c r="CJ35" s="3" t="n">
+        <x:v>71988</x:v>
+      </x:c>
+      <x:c r="CK35" s="3" t="n">
+        <x:v>76292</x:v>
+      </x:c>
+      <x:c r="CL35" s="3" t="n">
+        <x:v>76190</x:v>
+      </x:c>
+      <x:c r="CM35" s="3" t="n">
+        <x:v>67503</x:v>
+      </x:c>
+      <x:c r="CN35" s="3" t="n">
+        <x:v>74040</x:v>
+      </x:c>
+      <x:c r="CO35" s="3" t="n">
+        <x:v>75027</x:v>
+      </x:c>
+      <x:c r="CP35" s="3" t="n">
+        <x:v>74698</x:v>
+      </x:c>
+      <x:c r="CQ35" s="3" t="n">
+        <x:v>70453</x:v>
+      </x:c>
+      <x:c r="CR35" s="3" t="n">
+        <x:v>73957</x:v>
+      </x:c>
+      <x:c r="CS35" s="3" t="n">
+        <x:v>76589</x:v>
+      </x:c>
+      <x:c r="CT35" s="3" t="n">
+        <x:v>80404</x:v>
+      </x:c>
+      <x:c r="CU35" s="3" t="n">
+        <x:v>75559</x:v>
+      </x:c>
+      <x:c r="CV35" s="3" t="n">
+        <x:v>84528</x:v>
+      </x:c>
+      <x:c r="CW35" s="3" t="n">
+        <x:v>87101</x:v>
+      </x:c>
+      <x:c r="CX35" s="3" t="n">
+        <x:v>89671</x:v>
+      </x:c>
+      <x:c r="CY35" s="3" t="n">
+        <x:v>78639</x:v>
+      </x:c>
+      <x:c r="CZ35" s="3" t="n">
+        <x:v>87656</x:v>
+      </x:c>
+      <x:c r="DA35" s="3" t="n">
+        <x:v>92653</x:v>
+      </x:c>
+      <x:c r="DB35" s="3" t="n">
+        <x:v>103318</x:v>
+      </x:c>
+      <x:c r="DC35" s="3" t="n">
+        <x:v>93430</x:v>
+      </x:c>
+      <x:c r="DD35" s="3" t="n">
+        <x:v>99306</x:v>
+      </x:c>
+      <x:c r="DE35" s="3" t="n">
+        <x:v>99446</x:v>
+      </x:c>
+      <x:c r="DF35" s="3" t="n">
+        <x:v>104892</x:v>
+      </x:c>
+      <x:c r="DG35" s="3" t="n">
+        <x:v>101646</x:v>
+      </x:c>
+      <x:c r="DH35" s="3" t="n">
+        <x:v>111300</x:v>
+      </x:c>
+      <x:c r="DI35" s="3" t="n">
+        <x:v>109191</x:v>
+      </x:c>
+      <x:c r="DJ35" s="3" t="n">
+        <x:v>114392</x:v>
+      </x:c>
+      <x:c r="DK35" s="3" t="n">
+        <x:v>107815</x:v>
+      </x:c>
+      <x:c r="DL35" s="3" t="n">
+        <x:v>113848</x:v>
+      </x:c>
+      <x:c r="DM35" s="3" t="n">
+        <x:v>112956</x:v>
+      </x:c>
+      <x:c r="DN35" s="3" t="n">
+        <x:v>123704</x:v>
+      </x:c>
+      <x:c r="DO35" s="3" t="n">
+        <x:v>109995</x:v>
+      </x:c>
+      <x:c r="DP35" s="3" t="n">
+        <x:v>113785</x:v>
+      </x:c>
+      <x:c r="DQ35" s="3" t="n">
+        <x:v>110662</x:v>
+      </x:c>
+      <x:c r="DR35" s="3" t="n">
+        <x:v>111377</x:v>
+      </x:c>
+      <x:c r="DS35" s="3" t="n">
+        <x:v>104360</x:v>
+      </x:c>
+      <x:c r="DT35" s="3" t="n">
+        <x:v>108637</x:v>
+      </x:c>
+      <x:c r="DU35" s="3" t="n">
+        <x:v>110352</x:v>
+      </x:c>
+      <x:c r="DV35" s="3" t="n">
+        <x:v>117498</x:v>
+      </x:c>
+      <x:c r="DW35" s="3" t="n">
+        <x:v>106267</x:v>
+      </x:c>
+      <x:c r="DX35" s="3" t="n">
+        <x:v>117208</x:v>
+      </x:c>
+      <x:c r="DY35" s="3" t="n">
+        <x:v>118412</x:v>
+      </x:c>
+      <x:c r="DZ35" s="3" t="n">
+        <x:v>127808</x:v>
+      </x:c>
+      <x:c r="EA35" s="3" t="n">
+        <x:v>115465</x:v>
+      </x:c>
+      <x:c r="EB35" s="3" t="n">
+        <x:v>124660</x:v>
+      </x:c>
+      <x:c r="EC35" s="3" t="n">
+        <x:v>120436</x:v>
+      </x:c>
+      <x:c r="ED35" s="3" t="n">
+        <x:v>128876</x:v>
+      </x:c>
+      <x:c r="EE35" s="3" t="n">
+        <x:v>120689</x:v>
+      </x:c>
+      <x:c r="EF35" s="3" t="n">
+        <x:v>128281</x:v>
+      </x:c>
+      <x:c r="EG35" s="3" t="n">
+        <x:v>129516</x:v>
+      </x:c>
+      <x:c r="EH35" s="3" t="n">
+        <x:v>135380</x:v>
+      </x:c>
+      <x:c r="EI35" s="3" t="n">
+        <x:v>125372</x:v>
+      </x:c>
+      <x:c r="EJ35" s="3" t="n">
+        <x:v>135338</x:v>
+      </x:c>
+      <x:c r="EK35" s="3" t="n">
+        <x:v>137018</x:v>
+      </x:c>
+      <x:c r="EL35" s="3" t="n">
+        <x:v>150295</x:v>
+      </x:c>
+      <x:c r="EM35" s="3" t="n">
+        <x:v>143541</x:v>
+      </x:c>
+      <x:c r="EN35" s="3" t="n">
+        <x:v>151379</x:v>
+      </x:c>
+      <x:c r="EO35" s="3" t="n">
+        <x:v>157909</x:v>
+      </x:c>
+      <x:c r="EP35" s="3" t="n">
+        <x:v>172729</x:v>
+      </x:c>
+      <x:c r="EQ35" s="3" t="n">
+        <x:v>143042</x:v>
+      </x:c>
+      <x:c r="ER35" s="3" t="n">
+        <x:v>156400</x:v>
+      </x:c>
+      <x:c r="ES35" s="3" t="n">
+        <x:v>159973</x:v>
+      </x:c>
+      <x:c r="ET35" s="3" t="n">
+        <x:v>177062</x:v>
+      </x:c>
+      <x:c r="EU35" s="3" t="n">
+        <x:v>141917</x:v>
+      </x:c>
+      <x:c r="EV35" s="3" t="n">
+        <x:v>160460</x:v>
+      </x:c>
+      <x:c r="EW35" s="3" t="n">
+        <x:v>158971</x:v>
+      </x:c>
+      <x:c r="EX35" s="3" t="n">
+        <x:v>172520</x:v>
+      </x:c>
+      <x:c r="EY35" s="3" t="n">
+        <x:v>148352</x:v>
+      </x:c>
+      <x:c r="EZ35" s="3" t="n">
+        <x:v>153695</x:v>
+      </x:c>
+      <x:c r="FA35" s="3" t="n">
+        <x:v>158342</x:v>
+      </x:c>
+      <x:c r="FB35" s="3" t="n">
+        <x:v>183079</x:v>
+      </x:c>
+      <x:c r="FC35" s="3" t="n">
+        <x:v>163647</x:v>
+      </x:c>
+      <x:c r="FD35" s="3" t="n">
+        <x:v>185821</x:v>
+      </x:c>
+      <x:c r="FE35" s="3" t="n">
+        <x:v>183411</x:v>
+      </x:c>
+      <x:c r="FF35" s="3" t="n">
+        <x:v>186822</x:v>
+      </x:c>
+      <x:c r="FG35" s="3" t="n">
+        <x:v>159206</x:v>
+      </x:c>
+      <x:c r="FH35" s="3" t="n">
+        <x:v>140876</x:v>
+      </x:c>
+      <x:c r="FI35" s="3" t="n">
+        <x:v>146548</x:v>
+      </x:c>
+      <x:c r="FJ35" s="3" t="n">
+        <x:v>184866</x:v>
+      </x:c>
+      <x:c r="FK35" s="3" t="n">
+        <x:v>151079</x:v>
+      </x:c>
+      <x:c r="FL35" s="3" t="n">
+        <x:v>158633</x:v>
+      </x:c>
+      <x:c r="FM35" s="3" t="n">
+        <x:v>164474</x:v>
+      </x:c>
+      <x:c r="FN35" s="3" t="n">
+        <x:v>195384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:170">
+      <x:c r="A37" s="5" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:170">
+      <x:c r="A38" s="5" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:170">
+      <x:c r="A39" s="5" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:170">
+      <x:c r="A41" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:170">
+      <x:c r="A42" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:170">
+      <x:c r="A43" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:170">
+      <x:c r="A44" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:170">
+      <x:c r="A45" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:170">
+      <x:c r="A47" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:170">
+      <x:c r="A48" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:170">
+      <x:c r="A50" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:170">
+      <x:c r="A51" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:170">
+      <x:c r="A52" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:170">
+      <x:c r="A53" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:170">
+      <x:c r="A54" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:170">
+      <x:c r="A56" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:170">
+      <x:c r="A57" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:170">
+      <x:c r="A58" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:170">
+      <x:c r="A63" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:170">
+      <x:c r="A64" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:170">
+      <x:c r="A65" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:170">
+      <x:c r="A66" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:170">
+      <x:c r="A67" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:170">
+      <x:c r="A68" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:170">
+      <x:c r="A69" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:170">
+      <x:c r="A70" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:170">
+      <x:c r="A71" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:170">
+      <x:c r="A72" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:170">
+      <x:c r="A74" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:170">
+      <x:c r="A75" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:170">
+      <x:c r="A76" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:170">
+      <x:c r="A77" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="D33" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="E33" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="F33" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G33" s="3" t="n">
-        <x:v>91956</x:v>
-      </x:c>
-      <x:c r="H33" s="3" t="n">
-        <x:v>94070</x:v>
-      </x:c>
-      <x:c r="I33" s="3" t="n">
-        <x:v>88707</x:v>
-      </x:c>
-      <x:c r="J33" s="3" t="n">
-        <x:v>107889</x:v>
-      </x:c>
-      <x:c r="K33" s="3" t="n">
-        <x:v>99735</x:v>
-      </x:c>
-      <x:c r="L33" s="3" t="n">
-        <x:v>103046</x:v>
-      </x:c>
-      <x:c r="M33" s="3" t="n">
-        <x:v>93236</x:v>
-      </x:c>
-      <x:c r="N33" s="3" t="n">
-        <x:v>111855</x:v>
-      </x:c>
-      <x:c r="O33" s="3" t="n">
-        <x:v>109045</x:v>
-      </x:c>
-      <x:c r="P33" s="3" t="n">
-        <x:v>114099</x:v>
-      </x:c>
-      <x:c r="Q33" s="3" t="n">
-        <x:v>102023</x:v>
-      </x:c>
-      <x:c r="R33" s="3" t="n">
-        <x:v>122407</x:v>
-      </x:c>
-      <x:c r="S33" s="3" t="n">
-        <x:v>124175</x:v>
-      </x:c>
-      <x:c r="T33" s="3" t="n">
-        <x:v>119218</x:v>
-      </x:c>
-      <x:c r="U33" s="3" t="n">
-        <x:v>107706</x:v>
-      </x:c>
-      <x:c r="V33" s="3" t="n">
-        <x:v>128451</x:v>
-      </x:c>
-      <x:c r="W33" s="3" t="n">
-        <x:v>116297</x:v>
-      </x:c>
-      <x:c r="X33" s="3" t="n">
-        <x:v>122083</x:v>
-      </x:c>
-      <x:c r="Y33" s="3" t="n">
-        <x:v>117029</x:v>
-      </x:c>
-      <x:c r="Z33" s="3" t="n">
-        <x:v>130226</x:v>
-      </x:c>
-      <x:c r="AA33" s="3" t="n">
-        <x:v>120609</x:v>
-      </x:c>
-      <x:c r="AB33" s="3" t="n">
-        <x:v>131499</x:v>
-      </x:c>
-      <x:c r="AC33" s="3" t="n">
-        <x:v>117877</x:v>
-      </x:c>
-      <x:c r="AD33" s="3" t="n">
-        <x:v>133123</x:v>
-      </x:c>
-      <x:c r="AE33" s="3" t="n">
-        <x:v>126286</x:v>
-      </x:c>
-      <x:c r="AF33" s="3" t="n">
-        <x:v>131098</x:v>
-      </x:c>
-      <x:c r="AG33" s="3" t="n">
-        <x:v>120811</x:v>
-      </x:c>
-      <x:c r="AH33" s="3" t="n">
-        <x:v>145436</x:v>
-      </x:c>
-      <x:c r="AI33" s="3" t="n">
-        <x:v>130649</x:v>
-      </x:c>
-      <x:c r="AJ33" s="3" t="n">
-        <x:v>138670</x:v>
-      </x:c>
-      <x:c r="AK33" s="3" t="n">
-        <x:v>122623</x:v>
-      </x:c>
-      <x:c r="AL33" s="3" t="n">
-        <x:v>148825</x:v>
-      </x:c>
-      <x:c r="AM33" s="3" t="n">
-        <x:v>138021</x:v>
-      </x:c>
-      <x:c r="AN33" s="3" t="n">
-        <x:v>143397</x:v>
-      </x:c>
-      <x:c r="AO33" s="3" t="n">
-        <x:v>127794</x:v>
-      </x:c>
-      <x:c r="AP33" s="3" t="n">
-        <x:v>148158</x:v>
-      </x:c>
-      <x:c r="AQ33" s="3" t="n">
-        <x:v>144871</x:v>
-      </x:c>
-      <x:c r="AR33" s="3" t="n">
-        <x:v>145733</x:v>
-      </x:c>
-      <x:c r="AS33" s="3" t="n">
-        <x:v>128261</x:v>
-      </x:c>
-      <x:c r="AT33" s="3" t="n">
-        <x:v>150170</x:v>
-      </x:c>
-      <x:c r="AU33" s="3" t="n">
-        <x:v>139726</x:v>
-      </x:c>
-      <x:c r="AV33" s="3" t="n">
-        <x:v>145531</x:v>
-      </x:c>
-      <x:c r="AW33" s="3" t="n">
-        <x:v>125590</x:v>
-      </x:c>
-      <x:c r="AX33" s="3" t="n">
-        <x:v>147150</x:v>
-      </x:c>
-      <x:c r="AY33" s="3" t="n">
-        <x:v>146326</x:v>
-      </x:c>
-      <x:c r="AZ33" s="3" t="n">
-        <x:v>142842</x:v>
-      </x:c>
-      <x:c r="BA33" s="3" t="n">
-        <x:v>134475</x:v>
-      </x:c>
-      <x:c r="BB33" s="3" t="n">
-        <x:v>146924</x:v>
-      </x:c>
-      <x:c r="BC33" s="3" t="n">
-        <x:v>147026</x:v>
-      </x:c>
-      <x:c r="BD33" s="3" t="n">
-        <x:v>151885</x:v>
-      </x:c>
-      <x:c r="BE33" s="3" t="n">
-        <x:v>150938</x:v>
-      </x:c>
-      <x:c r="BF33" s="3" t="n">
-        <x:v>166408</x:v>
-      </x:c>
-      <x:c r="BG33" s="3" t="n">
-        <x:v>167655</x:v>
-      </x:c>
-      <x:c r="BH33" s="3" t="n">
-        <x:v>174745</x:v>
-      </x:c>
-      <x:c r="BI33" s="3" t="n">
-        <x:v>163684</x:v>
-      </x:c>
-      <x:c r="BJ33" s="3" t="n">
-        <x:v>194034</x:v>
-      </x:c>
-      <x:c r="BK33" s="3" t="n">
-        <x:v>196782</x:v>
-      </x:c>
-      <x:c r="BL33" s="3" t="n">
-        <x:v>198314</x:v>
-      </x:c>
-      <x:c r="BM33" s="3" t="n">
-        <x:v>181108</x:v>
-      </x:c>
-      <x:c r="BN33" s="3" t="n">
-        <x:v>202914</x:v>
-      </x:c>
-      <x:c r="BO33" s="3" t="n">
-        <x:v>199830</x:v>
-      </x:c>
-      <x:c r="BP33" s="3" t="n">
-        <x:v>207352</x:v>
-      </x:c>
-      <x:c r="BQ33" s="3" t="n">
-        <x:v>190211</x:v>
-      </x:c>
-      <x:c r="BR33" s="3" t="n">
-        <x:v>216112</x:v>
-      </x:c>
-      <x:c r="BS33" s="3" t="n">
-        <x:v>214793</x:v>
-      </x:c>
-      <x:c r="BT33" s="3" t="n">
-        <x:v>239861</x:v>
-      </x:c>
-      <x:c r="BU33" s="3" t="n">
-        <x:v>221710</x:v>
-      </x:c>
-      <x:c r="BV33" s="3" t="n">
-        <x:v>250492</x:v>
-      </x:c>
-      <x:c r="BW33" s="3" t="n">
-        <x:v>243018</x:v>
-      </x:c>
-      <x:c r="BX33" s="3" t="n">
-        <x:v>252271</x:v>
-      </x:c>
-      <x:c r="BY33" s="3" t="n">
-        <x:v>241590</x:v>
-      </x:c>
-      <x:c r="BZ33" s="3" t="n">
-        <x:v>272614</x:v>
-      </x:c>
-      <x:c r="CA33" s="3" t="n">
-        <x:v>257129</x:v>
-      </x:c>
-      <x:c r="CB33" s="3" t="n">
-        <x:v>272798</x:v>
-      </x:c>
-      <x:c r="CC33" s="3" t="n">
-        <x:v>261634</x:v>
-      </x:c>
-      <x:c r="CD33" s="3" t="n">
-        <x:v>290612</x:v>
-      </x:c>
-      <x:c r="CE33" s="3" t="n">
-        <x:v>286339</x:v>
-      </x:c>
-      <x:c r="CF33" s="3" t="n">
-        <x:v>304263</x:v>
-      </x:c>
-      <x:c r="CG33" s="3" t="n">
-        <x:v>293900</x:v>
-      </x:c>
-      <x:c r="CH33" s="3" t="n">
-        <x:v>327978</x:v>
-      </x:c>
-      <x:c r="CI33" s="3" t="n">
-        <x:v>306915</x:v>
-      </x:c>
-      <x:c r="CJ33" s="3" t="n">
-        <x:v>306475</x:v>
-      </x:c>
-      <x:c r="CK33" s="3" t="n">
-        <x:v>288311</x:v>
-      </x:c>
-      <x:c r="CL33" s="3" t="n">
-        <x:v>317939</x:v>
-      </x:c>
-      <x:c r="CM33" s="3" t="n">
-        <x:v>306305</x:v>
-      </x:c>
-      <x:c r="CN33" s="3" t="n">
-        <x:v>321742</x:v>
-      </x:c>
-      <x:c r="CO33" s="3" t="n">
-        <x:v>290866</x:v>
-      </x:c>
-      <x:c r="CP33" s="3" t="n">
-        <x:v>321447</x:v>
-      </x:c>
-      <x:c r="CQ33" s="3" t="n">
-        <x:v>313384</x:v>
-      </x:c>
-      <x:c r="CR33" s="3" t="n">
-        <x:v>326070</x:v>
-      </x:c>
-      <x:c r="CS33" s="3" t="n">
-        <x:v>311888</x:v>
-      </x:c>
-      <x:c r="CT33" s="3" t="n">
-        <x:v>342453</x:v>
-      </x:c>
-      <x:c r="CU33" s="3" t="n">
-        <x:v>343125</x:v>
-      </x:c>
-      <x:c r="CV33" s="3" t="n">
-        <x:v>371269</x:v>
-      </x:c>
-      <x:c r="CW33" s="3" t="n">
-        <x:v>344955</x:v>
-      </x:c>
-      <x:c r="CX33" s="3" t="n">
-        <x:v>380121</x:v>
-      </x:c>
-      <x:c r="CY33" s="3" t="n">
-        <x:v>357118</x:v>
-      </x:c>
-      <x:c r="CZ33" s="3" t="n">
-        <x:v>392059</x:v>
-      </x:c>
-      <x:c r="DA33" s="3" t="n">
-        <x:v>373244</x:v>
-      </x:c>
-      <x:c r="DB33" s="3" t="n">
-        <x:v>409160</x:v>
-      </x:c>
-      <x:c r="DC33" s="3" t="n">
-        <x:v>407790</x:v>
-      </x:c>
-      <x:c r="DD33" s="3" t="n">
-        <x:v>412246</x:v>
-      </x:c>
-      <x:c r="DE33" s="3" t="n">
-        <x:v>396605</x:v>
-      </x:c>
-      <x:c r="DF33" s="3" t="n">
-        <x:v>446871</x:v>
-      </x:c>
-      <x:c r="DG33" s="3" t="n">
-        <x:v>425528</x:v>
-      </x:c>
-      <x:c r="DH33" s="3" t="n">
-        <x:v>438390</x:v>
-      </x:c>
-      <x:c r="DI33" s="3" t="n">
-        <x:v>416533</x:v>
-      </x:c>
-      <x:c r="DJ33" s="3" t="n">
-        <x:v>459506</x:v>
-      </x:c>
-      <x:c r="DK33" s="3" t="n">
-        <x:v>449483</x:v>
-      </x:c>
-      <x:c r="DL33" s="3" t="n">
-        <x:v>466093</x:v>
-      </x:c>
-      <x:c r="DM33" s="3" t="n">
-        <x:v>428664</x:v>
-      </x:c>
-      <x:c r="DN33" s="3" t="n">
-        <x:v>427950</x:v>
-      </x:c>
-      <x:c r="DO33" s="3" t="n">
-        <x:v>377208</x:v>
-      </x:c>
-      <x:c r="DP33" s="3" t="n">
-        <x:v>378426</x:v>
-      </x:c>
-      <x:c r="DQ33" s="3" t="n">
-        <x:v>367096</x:v>
-      </x:c>
-      <x:c r="DR33" s="3" t="n">
-        <x:v>393236</x:v>
-      </x:c>
-      <x:c r="DS33" s="3" t="n">
-        <x:v>387860</x:v>
-      </x:c>
-      <x:c r="DT33" s="3" t="n">
-        <x:v>425447</x:v>
-      </x:c>
-      <x:c r="DU33" s="3" t="n">
-        <x:v>410142</x:v>
-      </x:c>
-      <x:c r="DV33" s="3" t="n">
-        <x:v>453925</x:v>
-      </x:c>
-      <x:c r="DW33" s="3" t="n">
-        <x:v>435608</x:v>
-      </x:c>
-      <x:c r="DX33" s="3" t="n">
-        <x:v>451838</x:v>
-      </x:c>
-      <x:c r="DY33" s="3" t="n">
-        <x:v>442820</x:v>
-      </x:c>
-      <x:c r="DZ33" s="3" t="n">
-        <x:v>459825</x:v>
-      </x:c>
-      <x:c r="EA33" s="3" t="n">
-        <x:v>451485</x:v>
-      </x:c>
-      <x:c r="EB33" s="3" t="n">
-        <x:v>467247</x:v>
-      </x:c>
-      <x:c r="EC33" s="3" t="n">
-        <x:v>435599</x:v>
-      </x:c>
-      <x:c r="ED33" s="3" t="n">
-        <x:v>455823</x:v>
-      </x:c>
-      <x:c r="EE33" s="3" t="n">
-        <x:v>433823</x:v>
-      </x:c>
-      <x:c r="EF33" s="3" t="n">
-        <x:v>458451</x:v>
-      </x:c>
-      <x:c r="EG33" s="3" t="n">
-        <x:v>437510</x:v>
-      </x:c>
-      <x:c r="EH33" s="3" t="n">
-        <x:v>460408</x:v>
-      </x:c>
-      <x:c r="EI33" s="3" t="n">
-        <x:v>451944</x:v>
-      </x:c>
-      <x:c r="EJ33" s="3" t="n">
-        <x:v>472547</x:v>
-      </x:c>
-      <x:c r="EK33" s="3" t="n">
-        <x:v>455006</x:v>
-      </x:c>
-      <x:c r="EL33" s="3" t="n">
-        <x:v>488854</x:v>
-      </x:c>
-      <x:c r="EM33" s="3" t="n">
-        <x:v>470924</x:v>
-      </x:c>
-      <x:c r="EN33" s="3" t="n">
-        <x:v>494993</x:v>
-      </x:c>
-      <x:c r="EO33" s="3" t="n">
-        <x:v>483548</x:v>
-      </x:c>
-      <x:c r="EP33" s="3" t="n">
-        <x:v>527251</x:v>
-      </x:c>
-      <x:c r="EQ33" s="3" t="n">
-        <x:v>485084</x:v>
-      </x:c>
-      <x:c r="ER33" s="3" t="n">
-        <x:v>511141</x:v>
-      </x:c>
-      <x:c r="ES33" s="3" t="n">
-        <x:v>487268</x:v>
-      </x:c>
-      <x:c r="ET33" s="3" t="n">
-        <x:v>540660</x:v>
-      </x:c>
-      <x:c r="EU33" s="3" t="n">
-        <x:v>502207</x:v>
-      </x:c>
-      <x:c r="EV33" s="3" t="n">
-        <x:v>531950</x:v>
-      </x:c>
-      <x:c r="EW33" s="3" t="n">
-        <x:v>507007</x:v>
-      </x:c>
-      <x:c r="EX33" s="3" t="n">
-        <x:v>566620</x:v>
-      </x:c>
-      <x:c r="EY33" s="3" t="n">
-        <x:v>531989</x:v>
-      </x:c>
-      <x:c r="EZ33" s="3" t="n">
-        <x:v>549977</x:v>
-      </x:c>
-      <x:c r="FA33" s="3" t="n">
-        <x:v>525550</x:v>
-      </x:c>
-      <x:c r="FB33" s="3" t="n">
-        <x:v>589785</x:v>
-      </x:c>
-      <x:c r="FC33" s="3" t="n">
-        <x:v>566406</x:v>
-      </x:c>
-      <x:c r="FD33" s="3" t="n">
-        <x:v>595012</x:v>
-      </x:c>
-      <x:c r="FE33" s="3" t="n">
-        <x:v>569826</x:v>
-      </x:c>
-      <x:c r="FF33" s="3" t="n">
-        <x:v>597323</x:v>
-      </x:c>
-      <x:c r="FG33" s="3" t="n">
-        <x:v>581687</x:v>
-      </x:c>
-      <x:c r="FH33" s="3" t="n">
-        <x:v>493294</x:v>
-      </x:c>
-      <x:c r="FI33" s="3" t="n">
-        <x:v>527509</x:v>
-      </x:c>
-      <x:c r="FJ33" s="3" t="n">
-        <x:v>618573</x:v>
-      </x:c>
-      <x:c r="FK33" s="3" t="n">
-        <x:v>583710</x:v>
-      </x:c>
-      <x:c r="FL33" s="3" t="n">
-        <x:v>599747</x:v>
-      </x:c>
-      <x:c r="FM33" s="3" t="n">
-        <x:v>559838</x:v>
-      </x:c>
     </x:row>
-    <x:row r="34" spans="1:169">
-      <x:c r="B34" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="C34" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D34" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="E34" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="F34" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G34" s="3" t="n">
-        <x:v>71110</x:v>
-      </x:c>
-      <x:c r="H34" s="3" t="n">
-        <x:v>72066</x:v>
-      </x:c>
-      <x:c r="I34" s="3" t="n">
-        <x:v>64322</x:v>
-      </x:c>
-      <x:c r="J34" s="3" t="n">
-        <x:v>83522</x:v>
-      </x:c>
-      <x:c r="K34" s="3" t="n">
-        <x:v>76335</x:v>
-      </x:c>
-      <x:c r="L34" s="3" t="n">
-        <x:v>76678</x:v>
-      </x:c>
-      <x:c r="M34" s="3" t="n">
-        <x:v>65565</x:v>
-      </x:c>
-      <x:c r="N34" s="3" t="n">
-        <x:v>83764</x:v>
-      </x:c>
-      <x:c r="O34" s="3" t="n">
-        <x:v>84088</x:v>
-      </x:c>
-      <x:c r="P34" s="3" t="n">
-        <x:v>85966</x:v>
-      </x:c>
-      <x:c r="Q34" s="3" t="n">
-        <x:v>73557</x:v>
-      </x:c>
-      <x:c r="R34" s="3" t="n">
-        <x:v>95021</x:v>
-      </x:c>
-      <x:c r="S34" s="3" t="n">
-        <x:v>96499</x:v>
-      </x:c>
-      <x:c r="T34" s="3" t="n">
-        <x:v>89139</x:v>
-      </x:c>
-      <x:c r="U34" s="3" t="n">
-        <x:v>78718</x:v>
-      </x:c>
-      <x:c r="V34" s="3" t="n">
-        <x:v>100835</x:v>
-      </x:c>
-      <x:c r="W34" s="3" t="n">
-        <x:v>92724</x:v>
-      </x:c>
-      <x:c r="X34" s="3" t="n">
-        <x:v>94673</x:v>
-      </x:c>
-      <x:c r="Y34" s="3" t="n">
-        <x:v>86784</x:v>
-      </x:c>
-      <x:c r="Z34" s="3" t="n">
-        <x:v>102719</x:v>
-      </x:c>
-      <x:c r="AA34" s="3" t="n">
-        <x:v>94799</x:v>
-      </x:c>
-      <x:c r="AB34" s="3" t="n">
-        <x:v>102464</x:v>
-      </x:c>
-      <x:c r="AC34" s="3" t="n">
-        <x:v>87540</x:v>
-      </x:c>
-      <x:c r="AD34" s="3" t="n">
-        <x:v>103902</x:v>
-      </x:c>
-      <x:c r="AE34" s="3" t="n">
-        <x:v>99769</x:v>
-      </x:c>
-      <x:c r="AF34" s="3" t="n">
-        <x:v>101568</x:v>
-      </x:c>
-      <x:c r="AG34" s="3" t="n">
-        <x:v>89470</x:v>
-      </x:c>
-      <x:c r="AH34" s="3" t="n">
-        <x:v>112802</x:v>
-      </x:c>
-      <x:c r="AI34" s="3" t="n">
-        <x:v>102410</x:v>
-      </x:c>
-      <x:c r="AJ34" s="3" t="n">
-        <x:v>107121</x:v>
-      </x:c>
-      <x:c r="AK34" s="3" t="n">
-        <x:v>90532</x:v>
-      </x:c>
-      <x:c r="AL34" s="3" t="n">
-        <x:v>116353</x:v>
-      </x:c>
-      <x:c r="AM34" s="3" t="n">
-        <x:v>108930</x:v>
-      </x:c>
-      <x:c r="AN34" s="3" t="n">
-        <x:v>110976</x:v>
-      </x:c>
-      <x:c r="AO34" s="3" t="n">
-        <x:v>94010</x:v>
-      </x:c>
-      <x:c r="AP34" s="3" t="n">
-        <x:v>113734</x:v>
-      </x:c>
-      <x:c r="AQ34" s="3" t="n">
-        <x:v>111311</x:v>
-      </x:c>
-      <x:c r="AR34" s="3" t="n">
-        <x:v>110098</x:v>
-      </x:c>
-      <x:c r="AS34" s="3" t="n">
-        <x:v>92637</x:v>
-      </x:c>
-      <x:c r="AT34" s="3" t="n">
-        <x:v>114557</x:v>
-      </x:c>
-      <x:c r="AU34" s="3" t="n">
-        <x:v>107147</x:v>
-      </x:c>
-      <x:c r="AV34" s="3" t="n">
-        <x:v>110182</x:v>
-      </x:c>
-      <x:c r="AW34" s="3" t="n">
-        <x:v>91810</x:v>
-      </x:c>
-      <x:c r="AX34" s="3" t="n">
-        <x:v>111076</x:v>
-      </x:c>
-      <x:c r="AY34" s="3" t="n">
-        <x:v>111680</x:v>
-      </x:c>
-      <x:c r="AZ34" s="3" t="n">
-        <x:v>106942</x:v>
-      </x:c>
-      <x:c r="BA34" s="3" t="n">
-        <x:v>97491</x:v>
-      </x:c>
-      <x:c r="BB34" s="3" t="n">
-        <x:v>109465</x:v>
-      </x:c>
-      <x:c r="BC34" s="3" t="n">
-        <x:v>110936</x:v>
-      </x:c>
-      <x:c r="BD34" s="3" t="n">
-        <x:v>114013</x:v>
-      </x:c>
-      <x:c r="BE34" s="3" t="n">
-        <x:v>111672</x:v>
-      </x:c>
-      <x:c r="BF34" s="3" t="n">
-        <x:v>128327</x:v>
-      </x:c>
-      <x:c r="BG34" s="3" t="n">
-        <x:v>130112</x:v>
-      </x:c>
-      <x:c r="BH34" s="3" t="n">
-        <x:v>135191</x:v>
-      </x:c>
-      <x:c r="BI34" s="3" t="n">
-        <x:v>122532</x:v>
-      </x:c>
-      <x:c r="BJ34" s="3" t="n">
-        <x:v>153390</x:v>
-      </x:c>
-      <x:c r="BK34" s="3" t="n">
-        <x:v>158557</x:v>
-      </x:c>
-      <x:c r="BL34" s="3" t="n">
-        <x:v>156044</x:v>
-      </x:c>
-      <x:c r="BM34" s="3" t="n">
-        <x:v>139154</x:v>
-      </x:c>
-      <x:c r="BN34" s="3" t="n">
-        <x:v>163404</x:v>
-      </x:c>
-      <x:c r="BO34" s="3" t="n">
-        <x:v>159805</x:v>
-      </x:c>
-      <x:c r="BP34" s="3" t="n">
-        <x:v>165173</x:v>
-      </x:c>
-      <x:c r="BQ34" s="3" t="n">
-        <x:v>147679</x:v>
-      </x:c>
-      <x:c r="BR34" s="3" t="n">
-        <x:v>173615</x:v>
-      </x:c>
-      <x:c r="BS34" s="3" t="n">
-        <x:v>172762</x:v>
-      </x:c>
-      <x:c r="BT34" s="3" t="n">
-        <x:v>189956</x:v>
-      </x:c>
-      <x:c r="BU34" s="3" t="n">
-        <x:v>171952</x:v>
-      </x:c>
-      <x:c r="BV34" s="3" t="n">
-        <x:v>199864</x:v>
-      </x:c>
-      <x:c r="BW34" s="3" t="n">
-        <x:v>195436</x:v>
-      </x:c>
-      <x:c r="BX34" s="3" t="n">
-        <x:v>199667</x:v>
-      </x:c>
-      <x:c r="BY34" s="3" t="n">
-        <x:v>185574</x:v>
-      </x:c>
-      <x:c r="BZ34" s="3" t="n">
-        <x:v>216280</x:v>
-      </x:c>
-      <x:c r="CA34" s="3" t="n">
-        <x:v>204509</x:v>
-      </x:c>
-      <x:c r="CB34" s="3" t="n">
-        <x:v>213110</x:v>
-      </x:c>
-      <x:c r="CC34" s="3" t="n">
-        <x:v>200313</x:v>
-      </x:c>
-      <x:c r="CD34" s="3" t="n">
-        <x:v>229344</x:v>
-      </x:c>
-      <x:c r="CE34" s="3" t="n">
-        <x:v>227941</x:v>
-      </x:c>
-      <x:c r="CF34" s="3" t="n">
-        <x:v>239179</x:v>
-      </x:c>
-      <x:c r="CG34" s="3" t="n">
-        <x:v>225526</x:v>
-      </x:c>
-      <x:c r="CH34" s="3" t="n">
-        <x:v>254630</x:v>
-      </x:c>
-      <x:c r="CI34" s="3" t="n">
-        <x:v>238117</x:v>
-      </x:c>
-      <x:c r="CJ34" s="3" t="n">
-        <x:v>233775</x:v>
-      </x:c>
-      <x:c r="CK34" s="3" t="n">
-        <x:v>212436</x:v>
-      </x:c>
-      <x:c r="CL34" s="3" t="n">
-        <x:v>241200</x:v>
-      </x:c>
-      <x:c r="CM34" s="3" t="n">
-        <x:v>237563</x:v>
-      </x:c>
-      <x:c r="CN34" s="3" t="n">
-        <x:v>246779</x:v>
-      </x:c>
-      <x:c r="CO34" s="3" t="n">
-        <x:v>215980</x:v>
-      </x:c>
-      <x:c r="CP34" s="3" t="n">
-        <x:v>245912</x:v>
-      </x:c>
-      <x:c r="CQ34" s="3" t="n">
-        <x:v>241882</x:v>
-      </x:c>
-      <x:c r="CR34" s="3" t="n">
-        <x:v>251089</x:v>
-      </x:c>
-      <x:c r="CS34" s="3" t="n">
-        <x:v>234930</x:v>
-      </x:c>
-      <x:c r="CT34" s="3" t="n">
-        <x:v>261258</x:v>
-      </x:c>
-      <x:c r="CU34" s="3" t="n">
-        <x:v>266284</x:v>
-      </x:c>
-      <x:c r="CV34" s="3" t="n">
-        <x:v>285623</x:v>
-      </x:c>
-      <x:c r="CW34" s="3" t="n">
-        <x:v>257646</x:v>
-      </x:c>
-      <x:c r="CX34" s="3" t="n">
-        <x:v>289608</x:v>
-      </x:c>
-      <x:c r="CY34" s="3" t="n">
-        <x:v>277272</x:v>
-      </x:c>
-      <x:c r="CZ34" s="3" t="n">
-        <x:v>303172</x:v>
-      </x:c>
-      <x:c r="DA34" s="3" t="n">
-        <x:v>280074</x:v>
-      </x:c>
-      <x:c r="DB34" s="3" t="n">
-        <x:v>305400</x:v>
-      </x:c>
-      <x:c r="DC34" s="3" t="n">
-        <x:v>313236</x:v>
-      </x:c>
-      <x:c r="DD34" s="3" t="n">
-        <x:v>312156</x:v>
-      </x:c>
-      <x:c r="DE34" s="3" t="n">
-        <x:v>296689</x:v>
-      </x:c>
-      <x:c r="DF34" s="3" t="n">
-        <x:v>340929</x:v>
-      </x:c>
-      <x:c r="DG34" s="3" t="n">
-        <x:v>323010</x:v>
-      </x:c>
-      <x:c r="DH34" s="3" t="n">
-        <x:v>326675</x:v>
-      </x:c>
-      <x:c r="DI34" s="3" t="n">
-        <x:v>307199</x:v>
-      </x:c>
-      <x:c r="DJ34" s="3" t="n">
-        <x:v>344512</x:v>
-      </x:c>
-      <x:c r="DK34" s="3" t="n">
-        <x:v>340812</x:v>
-      </x:c>
-      <x:c r="DL34" s="3" t="n">
-        <x:v>351495</x:v>
-      </x:c>
-      <x:c r="DM34" s="3" t="n">
-        <x:v>315568</x:v>
-      </x:c>
-      <x:c r="DN34" s="3" t="n">
-        <x:v>304835</x:v>
-      </x:c>
-      <x:c r="DO34" s="3" t="n">
-        <x:v>267800</x:v>
-      </x:c>
-      <x:c r="DP34" s="3" t="n">
-        <x:v>265460</x:v>
-      </x:c>
-      <x:c r="DQ34" s="3" t="n">
-        <x:v>257248</x:v>
-      </x:c>
-      <x:c r="DR34" s="3" t="n">
-        <x:v>282249</x:v>
-      </x:c>
-      <x:c r="DS34" s="3" t="n">
-        <x:v>283481</x:v>
-      </x:c>
-      <x:c r="DT34" s="3" t="n">
-        <x:v>316376</x:v>
-      </x:c>
-      <x:c r="DU34" s="3" t="n">
-        <x:v>299770</x:v>
-      </x:c>
-      <x:c r="DV34" s="3" t="n">
-        <x:v>336077</x:v>
-      </x:c>
-      <x:c r="DW34" s="3" t="n">
-        <x:v>328651</x:v>
-      </x:c>
-      <x:c r="DX34" s="3" t="n">
-        <x:v>334319</x:v>
-      </x:c>
-      <x:c r="DY34" s="3" t="n">
-        <x:v>324308</x:v>
-      </x:c>
-      <x:c r="DZ34" s="3" t="n">
-        <x:v>332194</x:v>
-      </x:c>
-      <x:c r="EA34" s="3" t="n">
-        <x:v>335686</x:v>
-      </x:c>
-      <x:c r="EB34" s="3" t="n">
-        <x:v>342414</x:v>
-      </x:c>
-      <x:c r="EC34" s="3" t="n">
-        <x:v>315144</x:v>
-      </x:c>
-      <x:c r="ED34" s="3" t="n">
-        <x:v>327026</x:v>
-      </x:c>
-      <x:c r="EE34" s="3" t="n">
-        <x:v>313082</x:v>
-      </x:c>
-      <x:c r="EF34" s="3" t="n">
-        <x:v>330128</x:v>
-      </x:c>
-      <x:c r="EG34" s="3" t="n">
-        <x:v>308071</x:v>
-      </x:c>
-      <x:c r="EH34" s="3" t="n">
-        <x:v>325094</x:v>
-      </x:c>
-      <x:c r="EI34" s="3" t="n">
-        <x:v>326622</x:v>
-      </x:c>
-      <x:c r="EJ34" s="3" t="n">
-        <x:v>337224</x:v>
-      </x:c>
-      <x:c r="EK34" s="3" t="n">
-        <x:v>317947</x:v>
-      </x:c>
-      <x:c r="EL34" s="3" t="n">
-        <x:v>338487</x:v>
-      </x:c>
-      <x:c r="EM34" s="3" t="n">
-        <x:v>327366</x:v>
-      </x:c>
-      <x:c r="EN34" s="3" t="n">
-        <x:v>343597</x:v>
-      </x:c>
-      <x:c r="EO34" s="3" t="n">
-        <x:v>325615</x:v>
-      </x:c>
-      <x:c r="EP34" s="3" t="n">
-        <x:v>354495</x:v>
-      </x:c>
-      <x:c r="EQ34" s="3" t="n">
-        <x:v>342188</x:v>
-      </x:c>
-      <x:c r="ER34" s="3" t="n">
-        <x:v>354804</x:v>
-      </x:c>
-      <x:c r="ES34" s="3" t="n">
-        <x:v>327182</x:v>
-      </x:c>
-      <x:c r="ET34" s="3" t="n">
-        <x:v>363481</x:v>
-      </x:c>
-      <x:c r="EU34" s="3" t="n">
-        <x:v>360716</x:v>
-      </x:c>
-      <x:c r="EV34" s="3" t="n">
-        <x:v>371669</x:v>
-      </x:c>
-      <x:c r="EW34" s="3" t="n">
-        <x:v>348044</x:v>
-      </x:c>
-      <x:c r="EX34" s="3" t="n">
-        <x:v>394245</x:v>
-      </x:c>
-      <x:c r="EY34" s="3" t="n">
-        <x:v>383827</x:v>
-      </x:c>
-      <x:c r="EZ34" s="3" t="n">
-        <x:v>396479</x:v>
-      </x:c>
-      <x:c r="FA34" s="3" t="n">
-        <x:v>367397</x:v>
-      </x:c>
-      <x:c r="FB34" s="3" t="n">
-        <x:v>406919</x:v>
-      </x:c>
-      <x:c r="FC34" s="3" t="n">
-        <x:v>402887</x:v>
-      </x:c>
-      <x:c r="FD34" s="3" t="n">
-        <x:v>409797</x:v>
-      </x:c>
-      <x:c r="FE34" s="3" t="n">
-        <x:v>387181</x:v>
-      </x:c>
-      <x:c r="FF34" s="3" t="n">
-        <x:v>411118</x:v>
-      </x:c>
-      <x:c r="FG34" s="3" t="n">
-        <x:v>422092</x:v>
-      </x:c>
-      <x:c r="FH34" s="3" t="n">
-        <x:v>353423</x:v>
-      </x:c>
-      <x:c r="FI34" s="3" t="n">
-        <x:v>380952</x:v>
-      </x:c>
-      <x:c r="FJ34" s="3" t="n">
-        <x:v>435365</x:v>
-      </x:c>
-      <x:c r="FK34" s="3" t="n">
-        <x:v>431207</x:v>
-      </x:c>
-      <x:c r="FL34" s="3" t="n">
-        <x:v>439393</x:v>
-      </x:c>
-      <x:c r="FM34" s="3" t="n">
-        <x:v>394276</x:v>
+    <x:row r="78" spans="1:170">
+      <x:c r="A78" s="0" t="s">
+        <x:v>208</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:169">
-      <x:c r="B35" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="C35" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="D35" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="E35" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="F35" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G35" s="3" t="n">
-        <x:v>20598</x:v>
-      </x:c>
-      <x:c r="H35" s="3" t="n">
-        <x:v>22009</x:v>
-      </x:c>
-      <x:c r="I35" s="3" t="n">
-        <x:v>25764</x:v>
-      </x:c>
-      <x:c r="J35" s="3" t="n">
-        <x:v>24042</x:v>
-      </x:c>
-      <x:c r="K35" s="3" t="n">
-        <x:v>23434</x:v>
-      </x:c>
-      <x:c r="L35" s="3" t="n">
-        <x:v>27219</x:v>
-      </x:c>
-      <x:c r="M35" s="3" t="n">
-        <x:v>29864</x:v>
-      </x:c>
-      <x:c r="N35" s="3" t="n">
-        <x:v>28818</x:v>
-      </x:c>
-      <x:c r="O35" s="3" t="n">
-        <x:v>24577</x:v>
-      </x:c>
-      <x:c r="P35" s="3" t="n">
-        <x:v>28603</x:v>
-      </x:c>
-      <x:c r="Q35" s="3" t="n">
-        <x:v>30305</x:v>
-      </x:c>
-      <x:c r="R35" s="3" t="n">
-        <x:v>26691</x:v>
-      </x:c>
-      <x:c r="S35" s="3" t="n">
-        <x:v>27009</x:v>
-      </x:c>
-      <x:c r="T35" s="3" t="n">
-        <x:v>30827</x:v>
-      </x:c>
-      <x:c r="U35" s="3" t="n">
-        <x:v>30384</x:v>
-      </x:c>
-      <x:c r="V35" s="3" t="n">
-        <x:v>26524</x:v>
-      </x:c>
-      <x:c r="W35" s="3" t="n">
-        <x:v>22002</x:v>
-      </x:c>
-      <x:c r="X35" s="3" t="n">
-        <x:v>26827</x:v>
-      </x:c>
-      <x:c r="Y35" s="3" t="n">
-        <x:v>31275</x:v>
-      </x:c>
-      <x:c r="Z35" s="3" t="n">
-        <x:v>26189</x:v>
-      </x:c>
-      <x:c r="AA35" s="3" t="n">
-        <x:v>24741</x:v>
-      </x:c>
-      <x:c r="AB35" s="3" t="n">
-        <x:v>28216</x:v>
-      </x:c>
-      <x:c r="AC35" s="3" t="n">
-        <x:v>31269</x:v>
-      </x:c>
-      <x:c r="AD35" s="3" t="n">
-        <x:v>28327</x:v>
-      </x:c>
-      <x:c r="AE35" s="3" t="n">
-        <x:v>25152</x:v>
-      </x:c>
-      <x:c r="AF35" s="3" t="n">
-        <x:v>28934</x:v>
-      </x:c>
-      <x:c r="AG35" s="3" t="n">
-        <x:v>32481</x:v>
-      </x:c>
-      <x:c r="AH35" s="3" t="n">
-        <x:v>31919</x:v>
-      </x:c>
-      <x:c r="AI35" s="3" t="n">
-        <x:v>27194</x:v>
-      </x:c>
-      <x:c r="AJ35" s="3" t="n">
-        <x:v>31051</x:v>
-      </x:c>
-      <x:c r="AK35" s="3" t="n">
-        <x:v>33274</x:v>
-      </x:c>
-      <x:c r="AL35" s="3" t="n">
-        <x:v>31402</x:v>
-      </x:c>
-      <x:c r="AM35" s="3" t="n">
-        <x:v>27648</x:v>
-      </x:c>
-      <x:c r="AN35" s="3" t="n">
-        <x:v>31817</x:v>
-      </x:c>
-      <x:c r="AO35" s="3" t="n">
-        <x:v>35239</x:v>
-      </x:c>
-      <x:c r="AP35" s="3" t="n">
-        <x:v>34176</x:v>
-      </x:c>
-      <x:c r="AQ35" s="3" t="n">
-        <x:v>33280</x:v>
-      </x:c>
-      <x:c r="AR35" s="3" t="n">
-        <x:v>36080</x:v>
-      </x:c>
-      <x:c r="AS35" s="3" t="n">
-        <x:v>37663</x:v>
-      </x:c>
-      <x:c r="AT35" s="3" t="n">
-        <x:v>35644</x:v>
-      </x:c>
-      <x:c r="AU35" s="3" t="n">
-        <x:v>32337</x:v>
-      </x:c>
-      <x:c r="AV35" s="3" t="n">
-        <x:v>35685</x:v>
-      </x:c>
-      <x:c r="AW35" s="3" t="n">
-        <x:v>35430</x:v>
-      </x:c>
-      <x:c r="AX35" s="3" t="n">
-        <x:v>36553</x:v>
-      </x:c>
-      <x:c r="AY35" s="3" t="n">
-        <x:v>34776</x:v>
-      </x:c>
-      <x:c r="AZ35" s="3" t="n">
-        <x:v>36660</x:v>
-      </x:c>
-      <x:c r="BA35" s="3" t="n">
-        <x:v>38670</x:v>
-      </x:c>
-      <x:c r="BB35" s="3" t="n">
-        <x:v>38404</x:v>
-      </x:c>
-      <x:c r="BC35" s="3" t="n">
-        <x:v>36624</x:v>
-      </x:c>
-      <x:c r="BD35" s="3" t="n">
-        <x:v>38591</x:v>
-      </x:c>
-      <x:c r="BE35" s="3" t="n">
-        <x:v>40442</x:v>
-      </x:c>
-      <x:c r="BF35" s="3" t="n">
-        <x:v>37901</x:v>
-      </x:c>
-      <x:c r="BG35" s="3" t="n">
-        <x:v>37130</x:v>
-      </x:c>
-      <x:c r="BH35" s="3" t="n">
-        <x:v>39244</x:v>
-      </x:c>
-      <x:c r="BI35" s="3" t="n">
-        <x:v>42022</x:v>
-      </x:c>
-      <x:c r="BJ35" s="3" t="n">
-        <x:v>39371</x:v>
-      </x:c>
-      <x:c r="BK35" s="3" t="n">
-        <x:v>36025</x:v>
-      </x:c>
-      <x:c r="BL35" s="3" t="n">
-        <x:v>41150</x:v>
-      </x:c>
-      <x:c r="BM35" s="3" t="n">
-        <x:v>41911</x:v>
-      </x:c>
-      <x:c r="BN35" s="3" t="n">
-        <x:v>37272</x:v>
-      </x:c>
-      <x:c r="BO35" s="3" t="n">
-        <x:v>38101</x:v>
-      </x:c>
-      <x:c r="BP35" s="3" t="n">
-        <x:v>40391</x:v>
-      </x:c>
-      <x:c r="BQ35" s="3" t="n">
-        <x:v>42127</x:v>
-      </x:c>
-      <x:c r="BR35" s="3" t="n">
-        <x:v>40163</x:v>
-      </x:c>
-      <x:c r="BS35" s="3" t="n">
-        <x:v>39781</x:v>
-      </x:c>
-      <x:c r="BT35" s="3" t="n">
-        <x:v>48156</x:v>
-      </x:c>
-      <x:c r="BU35" s="3" t="n">
-        <x:v>49077</x:v>
-      </x:c>
-      <x:c r="BV35" s="3" t="n">
-        <x:v>48419</x:v>
-      </x:c>
-      <x:c r="BW35" s="3" t="n">
-        <x:v>45084</x:v>
-      </x:c>
-      <x:c r="BX35" s="3" t="n">
-        <x:v>50792</x:v>
-      </x:c>
-      <x:c r="BY35" s="3" t="n">
-        <x:v>55651</x:v>
-      </x:c>
-      <x:c r="BZ35" s="3" t="n">
-        <x:v>54250</x:v>
-      </x:c>
-      <x:c r="CA35" s="3" t="n">
-        <x:v>50567</x:v>
-      </x:c>
-      <x:c r="CB35" s="3" t="n">
-        <x:v>58354</x:v>
-      </x:c>
-      <x:c r="CC35" s="3" t="n">
-        <x:v>60935</x:v>
-      </x:c>
-      <x:c r="CD35" s="3" t="n">
-        <x:v>59340</x:v>
-      </x:c>
-      <x:c r="CE35" s="3" t="n">
-        <x:v>56193</x:v>
-      </x:c>
-      <x:c r="CF35" s="3" t="n">
-        <x:v>63303</x:v>
-      </x:c>
-      <x:c r="CG35" s="3" t="n">
-        <x:v>67675</x:v>
-      </x:c>
-      <x:c r="CH35" s="3" t="n">
-        <x:v>72020</x:v>
-      </x:c>
-      <x:c r="CI35" s="3" t="n">
-        <x:v>67519</x:v>
-      </x:c>
-      <x:c r="CJ35" s="3" t="n">
-        <x:v>72004</x:v>
-      </x:c>
-      <x:c r="CK35" s="3" t="n">
-        <x:v>76308</x:v>
-      </x:c>
-      <x:c r="CL35" s="3" t="n">
-        <x:v>76208</x:v>
-      </x:c>
-      <x:c r="CM35" s="3" t="n">
-        <x:v>67518</x:v>
-      </x:c>
-      <x:c r="CN35" s="3" t="n">
-        <x:v>74056</x:v>
-      </x:c>
-      <x:c r="CO35" s="3" t="n">
-        <x:v>75044</x:v>
-      </x:c>
-      <x:c r="CP35" s="3" t="n">
-        <x:v>74715</x:v>
-      </x:c>
-      <x:c r="CQ35" s="3" t="n">
-        <x:v>70469</x:v>
-      </x:c>
-      <x:c r="CR35" s="3" t="n">
-        <x:v>73973</x:v>
-      </x:c>
-      <x:c r="CS35" s="3" t="n">
-        <x:v>76606</x:v>
-      </x:c>
-      <x:c r="CT35" s="3" t="n">
-        <x:v>80423</x:v>
-      </x:c>
-      <x:c r="CU35" s="3" t="n">
-        <x:v>75576</x:v>
-      </x:c>
-      <x:c r="CV35" s="3" t="n">
-        <x:v>84547</x:v>
-      </x:c>
-      <x:c r="CW35" s="3" t="n">
-        <x:v>87121</x:v>
-      </x:c>
-      <x:c r="CX35" s="3" t="n">
-        <x:v>89691</x:v>
-      </x:c>
-      <x:c r="CY35" s="3" t="n">
-        <x:v>78657</x:v>
-      </x:c>
-      <x:c r="CZ35" s="3" t="n">
-        <x:v>87676</x:v>
-      </x:c>
-      <x:c r="DA35" s="3" t="n">
-        <x:v>92674</x:v>
-      </x:c>
-      <x:c r="DB35" s="3" t="n">
-        <x:v>103341</x:v>
-      </x:c>
-      <x:c r="DC35" s="3" t="n">
-        <x:v>93451</x:v>
-      </x:c>
-      <x:c r="DD35" s="3" t="n">
-        <x:v>99328</x:v>
-      </x:c>
-      <x:c r="DE35" s="3" t="n">
-        <x:v>99468</x:v>
-      </x:c>
-      <x:c r="DF35" s="3" t="n">
-        <x:v>104917</x:v>
-      </x:c>
-      <x:c r="DG35" s="3" t="n">
-        <x:v>101670</x:v>
-      </x:c>
-      <x:c r="DH35" s="3" t="n">
-        <x:v>111325</x:v>
-      </x:c>
-      <x:c r="DI35" s="3" t="n">
-        <x:v>109216</x:v>
-      </x:c>
-      <x:c r="DJ35" s="3" t="n">
-        <x:v>114417</x:v>
-      </x:c>
-      <x:c r="DK35" s="3" t="n">
-        <x:v>107840</x:v>
-      </x:c>
-      <x:c r="DL35" s="3" t="n">
-        <x:v>113874</x:v>
-      </x:c>
-      <x:c r="DM35" s="3" t="n">
-        <x:v>112982</x:v>
-      </x:c>
-      <x:c r="DN35" s="3" t="n">
-        <x:v>123731</x:v>
-      </x:c>
-      <x:c r="DO35" s="3" t="n">
-        <x:v>110020</x:v>
-      </x:c>
-      <x:c r="DP35" s="3" t="n">
-        <x:v>113810</x:v>
-      </x:c>
-      <x:c r="DQ35" s="3" t="n">
-        <x:v>110687</x:v>
-      </x:c>
-      <x:c r="DR35" s="3" t="n">
-        <x:v>111404</x:v>
-      </x:c>
-      <x:c r="DS35" s="3" t="n">
-        <x:v>104384</x:v>
-      </x:c>
-      <x:c r="DT35" s="3" t="n">
-        <x:v>108662</x:v>
-      </x:c>
-      <x:c r="DU35" s="3" t="n">
-        <x:v>110377</x:v>
-      </x:c>
-      <x:c r="DV35" s="3" t="n">
-        <x:v>117525</x:v>
-      </x:c>
-      <x:c r="DW35" s="3" t="n">
-        <x:v>106291</x:v>
-      </x:c>
-      <x:c r="DX35" s="3" t="n">
-        <x:v>117234</x:v>
-      </x:c>
-      <x:c r="DY35" s="3" t="n">
-        <x:v>118439</x:v>
-      </x:c>
-      <x:c r="DZ35" s="3" t="n">
-        <x:v>127839</x:v>
-      </x:c>
-      <x:c r="EA35" s="3" t="n">
-        <x:v>115491</x:v>
-      </x:c>
-      <x:c r="EB35" s="3" t="n">
-        <x:v>124689</x:v>
-      </x:c>
-      <x:c r="EC35" s="3" t="n">
-        <x:v>120464</x:v>
-      </x:c>
-      <x:c r="ED35" s="3" t="n">
-        <x:v>128905</x:v>
-      </x:c>
-      <x:c r="EE35" s="3" t="n">
-        <x:v>120717</x:v>
-      </x:c>
-      <x:c r="EF35" s="3" t="n">
-        <x:v>128310</x:v>
-      </x:c>
-      <x:c r="EG35" s="3" t="n">
-        <x:v>129545</x:v>
-      </x:c>
-      <x:c r="EH35" s="3" t="n">
-        <x:v>135412</x:v>
-      </x:c>
-      <x:c r="EI35" s="3" t="n">
-        <x:v>125400</x:v>
-      </x:c>
-      <x:c r="EJ35" s="3" t="n">
-        <x:v>135369</x:v>
-      </x:c>
-      <x:c r="EK35" s="3" t="n">
-        <x:v>137049</x:v>
-      </x:c>
-      <x:c r="EL35" s="3" t="n">
-        <x:v>150331</x:v>
-      </x:c>
-      <x:c r="EM35" s="3" t="n">
-        <x:v>143574</x:v>
-      </x:c>
-      <x:c r="EN35" s="3" t="n">
-        <x:v>151414</x:v>
-      </x:c>
-      <x:c r="EO35" s="3" t="n">
-        <x:v>157945</x:v>
-      </x:c>
-      <x:c r="EP35" s="3" t="n">
-        <x:v>172768</x:v>
-      </x:c>
-      <x:c r="EQ35" s="3" t="n">
-        <x:v>143075</x:v>
-      </x:c>
-      <x:c r="ER35" s="3" t="n">
-        <x:v>156436</x:v>
-      </x:c>
-      <x:c r="ES35" s="3" t="n">
-        <x:v>160010</x:v>
-      </x:c>
-      <x:c r="ET35" s="3" t="n">
-        <x:v>177101</x:v>
-      </x:c>
-      <x:c r="EU35" s="3" t="n">
-        <x:v>141950</x:v>
-      </x:c>
-      <x:c r="EV35" s="3" t="n">
-        <x:v>160496</x:v>
-      </x:c>
-      <x:c r="EW35" s="3" t="n">
-        <x:v>159007</x:v>
-      </x:c>
-      <x:c r="EX35" s="3" t="n">
-        <x:v>172559</x:v>
-      </x:c>
-      <x:c r="EY35" s="3" t="n">
-        <x:v>148386</x:v>
-      </x:c>
-      <x:c r="EZ35" s="3" t="n">
-        <x:v>153730</x:v>
-      </x:c>
-      <x:c r="FA35" s="3" t="n">
-        <x:v>158378</x:v>
-      </x:c>
-      <x:c r="FB35" s="3" t="n">
-        <x:v>183120</x:v>
-      </x:c>
-      <x:c r="FC35" s="3" t="n">
-        <x:v>163684</x:v>
-      </x:c>
-      <x:c r="FD35" s="3" t="n">
-        <x:v>185863</x:v>
-      </x:c>
-      <x:c r="FE35" s="3" t="n">
-        <x:v>183453</x:v>
-      </x:c>
-      <x:c r="FF35" s="3" t="n">
-        <x:v>186864</x:v>
-      </x:c>
-      <x:c r="FG35" s="3" t="n">
-        <x:v>159595</x:v>
-      </x:c>
-      <x:c r="FH35" s="3" t="n">
-        <x:v>139871</x:v>
-      </x:c>
-      <x:c r="FI35" s="3" t="n">
-        <x:v>146557</x:v>
-      </x:c>
-      <x:c r="FJ35" s="3" t="n">
-        <x:v>183208</x:v>
-      </x:c>
-      <x:c r="FK35" s="3" t="n">
-        <x:v>152503</x:v>
-      </x:c>
-      <x:c r="FL35" s="3" t="n">
-        <x:v>160354</x:v>
-      </x:c>
-      <x:c r="FM35" s="3" t="n">
-        <x:v>165562</x:v>
+    <x:row r="81" spans="1:170">
+      <x:c r="A81" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:169">
-      <x:c r="A37" s="5" t="s">
-        <x:v>187</x:v>
+    <x:row r="82" spans="1:170">
+      <x:c r="A82" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:169">
-      <x:c r="A38" s="5" t="s">
-        <x:v>188</x:v>
+    <x:row r="83" spans="1:170">
+      <x:c r="A83" s="0" t="s">
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:169">
-      <x:c r="A39" s="5" t="s">
-        <x:v>189</x:v>
+    <x:row r="84" spans="1:170">
+      <x:c r="A84" s="0" t="s">
+        <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:169">
-      <x:c r="A41" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="88" spans="1:170">
+      <x:c r="A88" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:169">
-      <x:c r="A42" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="90" spans="1:170">
+      <x:c r="A90" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:169">
-      <x:c r="A43" s="0" t="s">
-        <x:v>192</x:v>
+    <x:row r="91" spans="1:170">
+      <x:c r="A91" s="0" t="s">
+        <x:v>213</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:169">
-      <x:c r="A44" s="0" t="s">
-        <x:v>193</x:v>
+    <x:row r="93" spans="1:170">
+      <x:c r="A93" s="0" t="s">
+        <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:169">
-      <x:c r="A45" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:169">
-      <x:c r="A47" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:169">
-      <x:c r="A48" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:169">
-      <x:c r="A50" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:169">
-      <x:c r="A51" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:169">
-      <x:c r="A52" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:169">
-      <x:c r="A53" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:169">
-      <x:c r="A54" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:169">
-      <x:c r="A55" s="0" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:169">
-      <x:c r="A56" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:169">
-      <x:c r="A57" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:169">
-      <x:c r="A58" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:169">
-      <x:c r="A59" s="0" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:169">
-      <x:c r="A60" s="0" t="s"/>
-    </x:row>
-    <x:row r="63" spans="1:169">
-      <x:c r="A63" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:169">
-      <x:c r="A64" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:169">
-      <x:c r="A65" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:169">
-      <x:c r="A66" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:169">
-      <x:c r="A67" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:169">
-      <x:c r="A68" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:169">
-      <x:c r="A69" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:169">
-      <x:c r="A70" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:169">
-      <x:c r="A71" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:169">
-      <x:c r="A72" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:169">
-      <x:c r="A74" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:169">
-      <x:c r="A75" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:169">
-      <x:c r="A76" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:169">
-      <x:c r="A77" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:169">
-      <x:c r="A78" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:169">
-      <x:c r="A81" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:169">
-      <x:c r="A82" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:169">
-      <x:c r="A83" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:169">
-      <x:c r="A84" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:169">
-      <x:c r="A88" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:169">
-      <x:c r="A90" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:169">
-      <x:c r="A91" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:169">
-      <x:c r="A93" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:169">
+    <x:row r="94" spans="1:170">
       <x:c r="A94" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A37:FN37"/>
+    <x:mergeCell ref="A38:FN38"/>
+    <x:mergeCell ref="A39:FN39"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
